--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmallett\OneDrive - The Council of State Governments\GitProjects\va_casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFFA315-1B12-46EB-8EA7-5DDB9CFDCDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAF271-60EF-46FC-886D-4011881A1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
+    <workbookView xWindow="4035" yWindow="2220" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="184">
   <si>
     <t>client_names</t>
   </si>
@@ -275,18 +275,6 @@
     <t>Count of programs</t>
   </si>
   <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Average of age</t>
   </si>
   <si>
@@ -563,9 +551,6 @@
     <t>NOTE: Roster Data de-duplicated</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>OVERALL RECIDIVISM RATE</t>
   </si>
   <si>
@@ -603,6 +588,21 @@
   </si>
   <si>
     <t>Weighted Average 5 programs</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>Weights</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1155,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1179,13 +1179,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1420,16 +1413,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1991</c:v>
+                  <c:v>1997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2001</c:v>
+                  <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2021</c:v>
+                  <c:v>2017</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2022</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1447,10 +1440,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,46 +1860,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,10 +2267,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -3093,34 +3086,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27272727272727271</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16666666666666666</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0.66666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.42857142857142855</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2857142857142857</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.75</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6930,7 +6923,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7362825" y="9205912"/>
+              <a:off x="7315200" y="9205912"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -7042,7 +7035,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.504195949077" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{D1C902E9-AC32-417E-A8A7-CBA7F3BF3DAC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806738425927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{D1C902E9-AC32-417E-A8A7-CBA7F3BF3DAC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E56" sheet="roster"/>
   </cacheSource>
@@ -7054,79 +7047,126 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
     </cacheField>
     <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1991-08-22T00:00:00" maxDate="2022-07-10T00:00:00" count="47">
-        <d v="2022-01-06T00:00:00"/>
-        <d v="2021-08-17T00:00:00"/>
-        <d v="2021-07-26T00:00:00"/>
-        <d v="2022-02-11T00:00:00"/>
-        <d v="2021-11-28T00:00:00"/>
-        <d v="2022-01-17T00:00:00"/>
-        <d v="2022-03-01T00:00:00"/>
-        <d v="2022-05-21T00:00:00"/>
-        <d v="2022-03-16T00:00:00"/>
-        <d v="2021-07-31T00:00:00"/>
-        <d v="2021-08-26T00:00:00"/>
-        <d v="2021-10-11T00:00:00"/>
-        <d v="2022-01-15T00:00:00"/>
-        <d v="2022-03-05T00:00:00"/>
-        <d v="2021-11-23T00:00:00"/>
-        <d v="2022-07-03T00:00:00"/>
-        <d v="2022-02-02T00:00:00"/>
-        <d v="2022-02-07T00:00:00"/>
-        <d v="2021-05-08T00:00:00"/>
-        <d v="2022-06-03T00:00:00"/>
-        <d v="2021-08-16T00:00:00"/>
-        <d v="2021-12-15T00:00:00"/>
-        <d v="2021-11-11T00:00:00"/>
-        <d v="2021-09-07T00:00:00"/>
-        <d v="2022-04-03T00:00:00"/>
-        <d v="2022-07-09T00:00:00"/>
-        <d v="2021-10-14T00:00:00"/>
-        <d v="2021-11-18T00:00:00"/>
-        <d v="1991-08-22T00:00:00"/>
-        <d v="2022-05-29T00:00:00"/>
-        <d v="2021-08-19T00:00:00"/>
-        <d v="2021-11-20T00:00:00"/>
-        <d v="2022-02-04T00:00:00"/>
-        <d v="2022-01-30T00:00:00"/>
-        <d v="2021-06-09T00:00:00"/>
-        <d v="2022-02-05T00:00:00"/>
-        <d v="2021-11-30T00:00:00"/>
-        <d v="2022-02-25T00:00:00"/>
-        <d v="2021-12-25T00:00:00"/>
-        <d v="2021-12-09T00:00:00"/>
-        <d v="2021-12-26T00:00:00"/>
-        <d v="2021-09-28T00:00:00"/>
-        <d v="2021-11-15T00:00:00"/>
-        <d v="2001-06-05T00:00:00"/>
-        <d v="2022-01-08T00:00:00"/>
-        <d v="2021-09-21T00:00:00"/>
-        <d v="2021-10-13T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1991-08-22T00:00:00" maxDate="2022-07-10T00:00:00" count="94">
+        <d v="2017-11-24T00:00:00"/>
+        <d v="2018-03-07T00:00:00"/>
+        <d v="2018-04-02T00:00:00"/>
+        <d v="2018-04-25T00:00:00"/>
+        <d v="2018-04-07T00:00:00"/>
+        <d v="2018-02-07T00:00:00"/>
+        <d v="2017-09-05T00:00:00"/>
+        <d v="2017-07-24T00:00:00"/>
+        <d v="2017-06-08T00:00:00"/>
+        <d v="2017-04-14T00:00:00"/>
+        <d v="2018-06-21T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-06-11T00:00:00"/>
+        <d v="2018-04-29T00:00:00"/>
+        <d v="2018-01-14T00:00:00"/>
+        <d v="2017-08-17T00:00:00"/>
+        <d v="2018-04-21T00:00:00"/>
+        <d v="2017-12-26T00:00:00"/>
+        <d v="2018-02-25T00:00:00"/>
+        <d v="2018-02-02T00:00:00"/>
+        <d v="2017-10-28T00:00:00"/>
+        <d v="2017-11-14T00:00:00"/>
+        <d v="2018-01-13T00:00:00"/>
+        <d v="2018-04-30T00:00:00"/>
+        <d v="2017-08-27T00:00:00"/>
+        <d v="2017-12-28T00:00:00"/>
+        <d v="2018-04-15T00:00:00"/>
+        <d v="2017-08-06T00:00:00"/>
+        <d v="1997-08-22T00:00:00"/>
+        <d v="2018-03-31T00:00:00"/>
+        <d v="2017-12-20T00:00:00"/>
+        <d v="2018-02-16T00:00:00"/>
+        <d v="2018-06-30T00:00:00"/>
+        <d v="2017-11-15T00:00:00"/>
+        <d v="2017-11-28T00:00:00"/>
+        <d v="2018-03-26T00:00:00"/>
+        <d v="2017-10-21T00:00:00"/>
+        <d v="2018-05-16T00:00:00"/>
+        <d v="2017-12-18T00:00:00"/>
+        <d v="2018-02-24T00:00:00"/>
+        <d v="2017-07-07T00:00:00"/>
+        <d v="2017-10-27T00:00:00"/>
+        <d v="2018-03-05T00:00:00"/>
+        <d v="2007-06-05T00:00:00"/>
+        <d v="2017-10-14T00:00:00"/>
+        <d v="2017-11-25T00:00:00"/>
+        <d v="2018-03-11T00:00:00"/>
+        <d v="2022-01-06T00:00:00" u="1"/>
+        <d v="2021-08-17T00:00:00" u="1"/>
+        <d v="2021-07-26T00:00:00" u="1"/>
+        <d v="2022-02-11T00:00:00" u="1"/>
+        <d v="2021-11-28T00:00:00" u="1"/>
+        <d v="2022-01-17T00:00:00" u="1"/>
+        <d v="2022-03-01T00:00:00" u="1"/>
+        <d v="2022-05-21T00:00:00" u="1"/>
+        <d v="2022-03-16T00:00:00" u="1"/>
+        <d v="2021-07-31T00:00:00" u="1"/>
+        <d v="2021-08-26T00:00:00" u="1"/>
+        <d v="2021-10-11T00:00:00" u="1"/>
+        <d v="2022-01-15T00:00:00" u="1"/>
+        <d v="2022-03-05T00:00:00" u="1"/>
+        <d v="2021-11-23T00:00:00" u="1"/>
+        <d v="2022-07-03T00:00:00" u="1"/>
+        <d v="2022-02-02T00:00:00" u="1"/>
+        <d v="2022-02-07T00:00:00" u="1"/>
+        <d v="2021-05-08T00:00:00" u="1"/>
+        <d v="2022-06-03T00:00:00" u="1"/>
+        <d v="2021-08-16T00:00:00" u="1"/>
+        <d v="2021-12-15T00:00:00" u="1"/>
+        <d v="2021-11-11T00:00:00" u="1"/>
+        <d v="2021-09-07T00:00:00" u="1"/>
+        <d v="2022-04-03T00:00:00" u="1"/>
+        <d v="2022-07-09T00:00:00" u="1"/>
+        <d v="2021-10-14T00:00:00" u="1"/>
+        <d v="2021-11-18T00:00:00" u="1"/>
+        <d v="1991-08-22T00:00:00" u="1"/>
+        <d v="2022-05-29T00:00:00" u="1"/>
+        <d v="2021-08-19T00:00:00" u="1"/>
+        <d v="2021-11-20T00:00:00" u="1"/>
+        <d v="2022-02-04T00:00:00" u="1"/>
+        <d v="2022-01-30T00:00:00" u="1"/>
+        <d v="2021-06-09T00:00:00" u="1"/>
+        <d v="2022-02-05T00:00:00" u="1"/>
+        <d v="2021-11-30T00:00:00" u="1"/>
+        <d v="2022-02-25T00:00:00" u="1"/>
+        <d v="2021-12-25T00:00:00" u="1"/>
+        <d v="2021-12-09T00:00:00" u="1"/>
+        <d v="2021-12-26T00:00:00" u="1"/>
+        <d v="2021-09-28T00:00:00" u="1"/>
+        <d v="2021-11-15T00:00:00" u="1"/>
+        <d v="2001-06-05T00:00:00" u="1"/>
+        <d v="2022-01-08T00:00:00" u="1"/>
+        <d v="2021-09-21T00:00:00" u="1"/>
+        <d v="2021-10-13T00:00:00" u="1"/>
       </sharedItems>
       <fieldGroup par="7"/>
     </cacheField>
     <cacheField name="programs" numFmtId="0">
       <sharedItems count="14">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdp"/>
+        <s v="brave"/>
         <s v="bcs"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="rdap"/>
+        <s v="stages"/>
+        <s v="resolve"/>
         <s v="brv"/>
-        <s v="resolve"/>
-        <s v="dbt"/>
-        <s v="stages"/>
-        <s v="am"/>
-        <s v="challenge"/>
-        <s v="sotrt"/>
-        <s v="brave"/>
-        <s v="rdap"/>
-        <s v="rdp"/>
-        <s v="mhsd"/>
+        <s v="fbt"/>
         <s v="bgs"/>
-        <s v="fbt"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ret" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="11" count="5">
+        <n v="1"/>
         <n v="0"/>
-        <n v="1"/>
         <n v="11"/>
         <n v="2"/>
         <n v="-1"/>
@@ -7134,9 +7174,9 @@
     </cacheField>
     <cacheField name="Months (datestart)" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="months" startDate="1991-08-22T00:00:00" endDate="2022-07-10T00:00:00"/>
+        <rangePr groupBy="months" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
         <groupItems count="14">
-          <s v="&lt;8/22/1991"/>
+          <s v="&lt;8/22/1997"/>
           <s v="Jan"/>
           <s v="Feb"/>
           <s v="Mar"/>
@@ -7149,34 +7189,28 @@
           <s v="Oct"/>
           <s v="Nov"/>
           <s v="Dec"/>
-          <s v="&gt;7/10/2022"/>
+          <s v="&gt;7/1/2018"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Quarters (datestart)" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="quarters" startDate="1991-08-22T00:00:00" endDate="2022-07-10T00:00:00"/>
+        <rangePr groupBy="quarters" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
         <groupItems count="6">
-          <s v="&lt;8/22/1991"/>
+          <s v="&lt;8/22/1997"/>
           <s v="Qtr1"/>
           <s v="Qtr2"/>
           <s v="Qtr3"/>
           <s v="Qtr4"/>
-          <s v="&gt;7/10/2022"/>
+          <s v="&gt;7/1/2018"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
     <cacheField name="Years (datestart)" numFmtId="0" databaseField="0">
       <fieldGroup base="2">
-        <rangePr groupBy="years" startDate="1991-08-22T00:00:00" endDate="2022-07-10T00:00:00"/>
-        <groupItems count="34">
-          <s v="&lt;8/22/1991"/>
-          <s v="1991"/>
-          <s v="1992"/>
-          <s v="1993"/>
-          <s v="1994"/>
-          <s v="1995"/>
-          <s v="1996"/>
+        <rangePr groupBy="years" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
+        <groupItems count="24">
+          <s v="&lt;8/22/1997"/>
           <s v="1997"/>
           <s v="1998"/>
           <s v="1999"/>
@@ -7199,11 +7233,7 @@
           <s v="2016"/>
           <s v="2017"/>
           <s v="2018"/>
-          <s v="2019"/>
-          <s v="2020"/>
-          <s v="2021"/>
-          <s v="2022"/>
-          <s v="&gt;7/10/2022"/>
+          <s v="&gt;7/1/2018"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -7217,7 +7247,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.508810069441" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{515EE682-81DF-489F-9B17-3A45BC208813}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806764699075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{515EE682-81DF-489F-9B17-3A45BC208813}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:B81" sheet="staff"/>
   </cacheSource>
@@ -7252,40 +7282,39 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.527462384256" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{2A2402D2-0621-4291-AA41-8BD8EBB404FD}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.80985578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2A2402D2-0621-4291-AA41-8BD8EBB404FD}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E56" sheet="Lab Task1 Clean"/>
+    <worksheetSource ref="A1:E51" sheet="Lab Task1 Clean"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="client_names" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="age" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
     </cacheField>
-    <cacheField name="datestart" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-05-08T00:00:00" maxDate="2022-07-10T00:00:00"/>
+    <cacheField name="datestart" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
     </cacheField>
     <cacheField name="programs" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="brave"/>
         <s v="bcs"/>
-        <s v="brave"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="stages"/>
         <s v="resolve"/>
-        <s v="dbt"/>
-        <s v="stages"/>
-        <s v="am"/>
-        <s v="challenge"/>
-        <s v="sotrt"/>
-        <s v="rdap"/>
-        <s v="mhsd"/>
-        <m/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ret" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
         <n v="0"/>
-        <n v="1"/>
-        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -7298,7 +7327,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.824122916667" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{8F171C4B-B874-40B7-B9A5-080D7F758088}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.809942361113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{8F171C4B-B874-40B7-B9A5-080D7F758088}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table2"/>
   </cacheSource>
@@ -7330,7 +7359,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.830850115737" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D80E99D4-DF4A-4133-A8DD-C3350AD36274}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.813127893518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D80E99D4-DF4A-4133-A8DD-C3350AD36274}">
   <cacheSource type="worksheet">
     <worksheetSource ref="D3:F13" sheet="Lab Task23"/>
   </cacheSource>
@@ -7353,7 +7382,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="17"/>
     </cacheField>
     <cacheField name="ret rate" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.75"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -7365,7 +7394,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45495.84965300926" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2FE5E125-717B-47CF-8AD3-795F07E9A6A8}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.820483912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2FE5E125-717B-47CF-8AD3-795F07E9A6A8}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -7377,20 +7406,20 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
     </cacheField>
     <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-05-08T00:00:00" maxDate="2022-07-10T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
     </cacheField>
     <cacheField name="programs" numFmtId="0">
       <sharedItems count="10">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="brave"/>
         <s v="bcs"/>
-        <s v="brave"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="stages"/>
         <s v="resolve"/>
-        <s v="dbt"/>
-        <s v="stages"/>
-        <s v="am"/>
-        <s v="challenge"/>
-        <s v="sotrt"/>
-        <s v="rdap"/>
-        <s v="mhsd"/>
       </sharedItems>
     </cacheField>
     <cacheField name="ret" numFmtId="0">
@@ -7425,21 +7454,21 @@
     <s v="Dr. Tre Armstrong II"/>
     <n v="33"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Beckham Gerhold"/>
     <n v="27"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Mr. Elihu Klocko"/>
     <n v="29"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
@@ -7460,204 +7489,204 @@
     <s v="Dr. Tre Armstrong II"/>
     <n v="33"/>
     <x v="2"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Beckham Gerhold"/>
     <n v="27"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Mr. Elihu Klocko"/>
     <n v="29"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="4"/>
     <x v="1"/>
   </r>
   <r>
     <s v="Cyndi Shanahan DDS"/>
     <n v="21"/>
     <x v="5"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Augustin Medhurst"/>
     <n v="26"/>
     <x v="6"/>
-    <x v="4"/>
-    <x v="1"/>
+    <x v="6"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Alexys Nader"/>
     <n v="24"/>
     <x v="7"/>
-    <x v="5"/>
+    <x v="7"/>
     <x v="1"/>
   </r>
   <r>
     <s v="Etta Stokes-Stanton"/>
     <n v="35"/>
     <x v="8"/>
-    <x v="6"/>
-    <x v="1"/>
+    <x v="8"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Frieda Kautzer"/>
     <n v="19"/>
     <x v="9"/>
-    <x v="7"/>
-    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Felecia Johnston"/>
     <n v="28"/>
     <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Oral Hackett IV"/>
     <n v="36"/>
     <x v="11"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Wendell Langosh Jr."/>
     <n v="30"/>
     <x v="12"/>
-    <x v="2"/>
+    <x v="5"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Francine Stracke"/>
     <n v="22"/>
     <x v="13"/>
-    <x v="3"/>
-    <x v="1"/>
+    <x v="9"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Romona McDermott MD"/>
     <n v="25"/>
     <x v="14"/>
-    <x v="6"/>
-    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Chiquita Connelly-Anderson"/>
     <n v="20"/>
-    <x v="2"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
     <x v="15"/>
     <x v="9"/>
     <x v="1"/>
   </r>
   <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
     <s v="Gidget Schaefer"/>
     <n v="29"/>
-    <x v="16"/>
+    <x v="17"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <x v="18"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <x v="20"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <x v="21"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <x v="22"/>
     <x v="2"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <x v="17"/>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <x v="23"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <x v="22"/>
     <x v="8"/>
     <x v="0"/>
-  </r>
-  <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <x v="18"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <x v="20"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <x v="21"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <x v="23"/>
-    <x v="2"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="Cassius Glover"/>
     <n v="29"/>
     <x v="24"/>
-    <x v="4"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Furman Bechtelar DVM"/>
     <n v="28"/>
     <x v="25"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="5"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dr. Orvil Altenwerth III"/>
     <n v="32"/>
     <x v="26"/>
-    <x v="10"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dollie Brown"/>
     <n v="32"/>
     <x v="27"/>
     <x v="11"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Erykah Kessler"/>
     <n v="41"/>
     <x v="28"/>
-    <x v="9"/>
-    <x v="1"/>
+    <x v="7"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Mr. Doyle Runte"/>
     <n v="22"/>
     <x v="29"/>
-    <x v="8"/>
-    <x v="0"/>
+    <x v="12"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dr. Boyd Satterfield I"/>
@@ -7670,15 +7699,15 @@
     <s v="Anita Becker"/>
     <n v="24"/>
     <x v="31"/>
-    <x v="12"/>
+    <x v="9"/>
     <x v="3"/>
   </r>
   <r>
     <s v="Dennie Turner"/>
     <n v="32"/>
     <x v="32"/>
-    <x v="3"/>
-    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Michell Becker"/>
@@ -7691,106 +7720,106 @@
     <s v="Mr. Denzell Sawayn"/>
     <n v="25"/>
     <x v="34"/>
-    <x v="0"/>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Miss Debora Heller PhD"/>
     <n v="35"/>
     <x v="35"/>
-    <x v="3"/>
-    <x v="0"/>
+    <x v="4"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Deron Tillman"/>
     <n v="25"/>
     <x v="36"/>
-    <x v="7"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Mitzi DuBuque-Dietrich"/>
     <n v="27"/>
     <x v="37"/>
-    <x v="2"/>
-    <x v="0"/>
+    <x v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Nancy Homenick"/>
     <n v="28"/>
-    <x v="16"/>
-    <x v="0"/>
+    <x v="38"/>
+    <x v="4"/>
     <x v="4"/>
   </r>
   <r>
     <s v="Shaneka Crist DVM"/>
     <n v="25"/>
-    <x v="38"/>
-    <x v="6"/>
-    <x v="0"/>
+    <x v="39"/>
+    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Gust O'Keefe"/>
     <n v="29"/>
-    <x v="39"/>
-    <x v="11"/>
+    <x v="40"/>
+    <x v="9"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Miss Marjorie Steuber"/>
     <n v="24"/>
-    <x v="40"/>
+    <x v="41"/>
     <x v="13"/>
-    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dr. Daniella Moore DVM"/>
     <n v="35"/>
-    <x v="41"/>
-    <x v="4"/>
+    <x v="42"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
     <s v="Vonda McLaughlin"/>
     <n v="24"/>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="40"/>
+    <x v="7"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Cornelius Thompson"/>
     <n v="30"/>
-    <x v="42"/>
-    <x v="9"/>
+    <x v="33"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Melville Jacobson"/>
     <n v="24"/>
     <x v="43"/>
-    <x v="8"/>
-    <x v="0"/>
+    <x v="10"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Mr. Ross Pagac"/>
     <n v="34"/>
     <x v="44"/>
-    <x v="8"/>
-    <x v="0"/>
+    <x v="9"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dr. Alexande Huel Jr."/>
     <n v="35"/>
     <x v="45"/>
+    <x v="1"/>
     <x v="0"/>
-    <x v="1"/>
   </r>
   <r>
     <s v="Judith Lemke MD"/>
     <n v="34"/>
     <x v="46"/>
-    <x v="2"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8121,391 +8150,356 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <s v="Murl Kunde"/>
     <n v="32"/>
-    <d v="2022-01-06T00:00:00"/>
+    <d v="2017-11-24T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Breana Ebert"/>
     <n v="27"/>
-    <d v="2021-08-17T00:00:00"/>
+    <d v="2018-03-07T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
     <s v="Dr. Tre Armstrong II"/>
     <n v="33"/>
-    <d v="2021-07-26T00:00:00"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <d v="2017-04-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <d v="2018-06-21T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <d v="2018-01-14T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <d v="2017-08-17T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <d v="2018-02-25T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <d v="2017-11-14T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <d v="2017-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <d v="2017-12-28T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <d v="2017-08-06T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <d v="1997-08-22T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <d v="2018-02-16T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <d v="2018-06-30T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
-    <d v="2022-02-11T00:00:00"/>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="9"/>
     <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <d v="2021-11-28T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cyndi Shanahan DDS"/>
-    <n v="21"/>
-    <d v="2022-01-17T00:00:00"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <d v="2017-11-28T00:00:00"/>
     <x v="3"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Augustin Medhurst"/>
-    <n v="26"/>
-    <d v="2022-03-01T00:00:00"/>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <d v="2018-03-26T00:00:00"/>
     <x v="4"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Alexys Nader"/>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <d v="2018-05-16T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
     <n v="24"/>
-    <d v="2022-05-21T00:00:00"/>
+    <d v="2017-10-27T00:00:00"/>
     <x v="5"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Etta Stokes-Stanton"/>
+    <s v="Dr. Daniella Moore DVM"/>
     <n v="35"/>
-    <d v="2022-03-16T00:00:00"/>
-    <x v="6"/>
+    <d v="2018-03-05T00:00:00"/>
+    <x v="0"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Frieda Kautzer"/>
-    <n v="19"/>
-    <d v="2021-07-31T00:00:00"/>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <d v="2017-07-07T00:00:00"/>
     <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <d v="2017-11-15T00:00:00"/>
     <x v="0"/>
-  </r>
-  <r>
-    <s v="Felecia Johnston"/>
-    <n v="28"/>
-    <d v="2021-08-26T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Oral Hackett IV"/>
-    <n v="36"/>
-    <d v="2021-10-11T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Wendell Langosh Jr."/>
-    <n v="30"/>
-    <d v="2022-01-15T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Francine Stracke"/>
-    <n v="22"/>
-    <d v="2022-03-05T00:00:00"/>
-    <x v="3"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Romona McDermott MD"/>
-    <n v="25"/>
-    <d v="2021-11-23T00:00:00"/>
-    <x v="6"/>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <d v="2007-06-05T00:00:00"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Chiquita Connelly-Anderson"/>
-    <n v="20"/>
-    <d v="2021-07-26T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
-    <d v="2022-07-03T00:00:00"/>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <d v="2017-10-14T00:00:00"/>
     <x v="8"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Gidget Schaefer"/>
-    <n v="29"/>
-    <d v="2022-02-02T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <d v="2022-02-07T00:00:00"/>
+    <s v="Dr. Alexande Huel Jr."/>
+    <n v="35"/>
+    <d v="2017-11-25T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <d v="2021-05-08T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <d v="2022-06-03T00:00:00"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <d v="2021-08-16T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <d v="2021-12-15T00:00:00"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <d v="2021-11-11T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <d v="2021-09-07T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cassius Glover"/>
-    <n v="29"/>
-    <d v="2022-04-03T00:00:00"/>
-    <x v="4"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Furman Bechtelar DVM"/>
-    <n v="28"/>
-    <d v="2022-07-09T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Orvil Altenwerth III"/>
-    <n v="32"/>
-    <d v="2021-10-14T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dollie Brown"/>
-    <n v="32"/>
-    <d v="2021-11-18T00:00:00"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Erykah Kessler"/>
-    <n v="41"/>
-    <d v="2021-08-22T00:00:00"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Doyle Runte"/>
-    <n v="22"/>
-    <d v="2022-05-29T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Boyd Satterfield I"/>
-    <n v="25"/>
-    <d v="2021-08-19T00:00:00"/>
-    <x v="8"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Anita Becker"/>
-    <n v="24"/>
-    <d v="2021-11-20T00:00:00"/>
+    <s v="Judith Lemke MD"/>
+    <n v="34"/>
+    <d v="2018-03-11T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="Dennie Turner"/>
-    <n v="32"/>
-    <d v="2022-02-04T00:00:00"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Michell Becker"/>
-    <n v="29"/>
-    <d v="2022-01-30T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Denzell Sawayn"/>
-    <n v="25"/>
-    <d v="2021-06-09T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Debora Heller PhD"/>
-    <n v="35"/>
-    <d v="2022-02-05T00:00:00"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Deron Tillman"/>
-    <n v="25"/>
-    <d v="2021-11-30T00:00:00"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mitzi DuBuque-Dietrich"/>
-    <n v="27"/>
-    <d v="2022-02-25T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Nancy Homenick"/>
-    <n v="28"/>
-    <d v="2022-02-02T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Shaneka Crist DVM"/>
-    <n v="25"/>
-    <d v="2021-12-25T00:00:00"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Gust O'Keefe"/>
-    <n v="29"/>
-    <d v="2021-12-09T00:00:00"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Marjorie Steuber"/>
-    <n v="24"/>
-    <d v="2021-12-26T00:00:00"/>
-    <x v="3"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Daniella Moore DVM"/>
-    <n v="35"/>
-    <d v="2021-09-28T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Vonda McLaughlin"/>
-    <n v="24"/>
-    <d v="2021-11-30T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Cornelius Thompson"/>
-    <n v="30"/>
-    <d v="2021-11-15T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Melville Jacobson"/>
-    <n v="24"/>
-    <d v="2021-06-05T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Ross Pagac"/>
-    <n v="34"/>
-    <d v="2022-01-08T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Alexande Huel Jr."/>
-    <n v="35"/>
-    <d v="2021-09-21T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Judith Lemke MD"/>
-    <n v="34"/>
-    <d v="2021-10-13T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <x v="10"/>
-    <x v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8840,52 +8834,52 @@
   <r>
     <x v="0"/>
     <n v="2"/>
-    <n v="1"/>
+    <n v="0.2857142857142857"/>
   </r>
   <r>
     <x v="1"/>
     <n v="4"/>
-    <n v="0.27272727272727271"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="2"/>
     <n v="8"/>
-    <n v="0.16666666666666666"/>
+    <n v="0.25"/>
   </r>
   <r>
     <x v="3"/>
     <n v="4"/>
-    <n v="0.66666666666666663"/>
+    <n v="0.33333333333333331"/>
   </r>
   <r>
     <x v="4"/>
     <n v="15"/>
-    <n v="0.5"/>
+    <n v="0.66666666666666663"/>
   </r>
   <r>
     <x v="5"/>
     <n v="6"/>
-    <n v="0"/>
+    <n v="0.33333333333333331"/>
   </r>
   <r>
     <x v="6"/>
     <n v="5"/>
-    <n v="0.42857142857142855"/>
+    <n v="0.75"/>
   </r>
   <r>
     <x v="7"/>
     <n v="8"/>
-    <n v="0.2857142857142857"/>
+    <n v="0.33333333333333331"/>
   </r>
   <r>
     <x v="8"/>
     <n v="11"/>
-    <n v="0"/>
+    <n v="0.66666666666666663"/>
   </r>
   <r>
     <x v="9"/>
     <n v="17"/>
-    <n v="0.75"/>
+    <n v="0.33333333333333331"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -8895,357 +8889,701 @@
   <r>
     <s v="Murl Kunde"/>
     <n v="32"/>
-    <d v="2022-01-06T00:00:00"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <d v="2017-04-14T00:00:00"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <d v="2018-06-21T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <d v="2018-01-14T00:00:00"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <d v="2017-08-17T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <d v="2018-04-21T00:00:00"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="Breana Ebert"/>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <d v="2018-02-25T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <d v="2017-11-14T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
     <n v="27"/>
-    <d v="2021-08-17T00:00:00"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <d v="2017-08-27T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <d v="2017-12-28T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <d v="2018-04-15T00:00:00"/>
     <x v="1"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
-    <d v="2021-07-26T00:00:00"/>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <d v="2017-08-06T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <d v="1997-08-22T00:00:00"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <d v="2018-02-16T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <d v="2018-06-30T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <d v="2017-11-28T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <d v="2018-03-26T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <d v="2018-05-16T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
+    <n v="24"/>
+    <d v="2017-10-27T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Daniella Moore DVM"/>
+    <n v="35"/>
+    <d v="2018-03-05T00:00:00"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
-    <d v="2022-02-11T00:00:00"/>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <d v="2017-11-15T00:00:00"/>
     <x v="0"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <d v="2021-11-28T00:00:00"/>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Cyndi Shanahan DDS"/>
-    <n v="21"/>
-    <d v="2022-01-17T00:00:00"/>
-    <x v="3"/>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <d v="2007-06-05T00:00:00"/>
+    <x v="9"/>
     <n v="0"/>
   </r>
   <r>
-    <s v="Augustin Medhurst"/>
-    <n v="26"/>
-    <d v="2022-03-01T00:00:00"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Alexys Nader"/>
-    <n v="24"/>
-    <d v="2022-05-21T00:00:00"/>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Etta Stokes-Stanton"/>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Alexande Huel Jr."/>
     <n v="35"/>
-    <d v="2022-03-16T00:00:00"/>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Frieda Kautzer"/>
-    <n v="19"/>
-    <d v="2021-07-31T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Felecia Johnston"/>
-    <n v="28"/>
-    <d v="2021-08-26T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Oral Hackett IV"/>
-    <n v="36"/>
-    <d v="2021-10-11T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wendell Langosh Jr."/>
-    <n v="30"/>
-    <d v="2022-01-15T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Francine Stracke"/>
-    <n v="22"/>
-    <d v="2022-03-05T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Romona McDermott MD"/>
-    <n v="25"/>
-    <d v="2021-11-23T00:00:00"/>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Chiquita Connelly-Anderson"/>
-    <n v="20"/>
-    <d v="2021-07-26T00:00:00"/>
+    <d v="2017-11-25T00:00:00"/>
     <x v="1"/>
     <n v="1"/>
   </r>
   <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
-    <d v="2022-07-03T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Gidget Schaefer"/>
-    <n v="29"/>
-    <d v="2022-02-02T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <d v="2022-02-07T00:00:00"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <d v="2021-05-08T00:00:00"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <d v="2022-06-03T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <d v="2021-08-16T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <d v="2021-12-15T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <d v="2021-11-11T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <d v="2021-09-07T00:00:00"/>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Cassius Glover"/>
-    <n v="29"/>
-    <d v="2022-04-03T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Furman Bechtelar DVM"/>
-    <n v="28"/>
-    <d v="2022-07-09T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Orvil Altenwerth III"/>
-    <n v="32"/>
-    <d v="2021-10-14T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dollie Brown"/>
-    <n v="32"/>
-    <d v="2021-11-18T00:00:00"/>
-    <x v="9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Erykah Kessler"/>
-    <n v="41"/>
-    <d v="2021-08-22T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Doyle Runte"/>
-    <n v="22"/>
-    <d v="2022-05-29T00:00:00"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Boyd Satterfield I"/>
-    <n v="25"/>
-    <d v="2021-08-19T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Anita Becker"/>
-    <n v="24"/>
-    <d v="2021-11-20T00:00:00"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Dennie Turner"/>
-    <n v="32"/>
-    <d v="2022-02-04T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Michell Becker"/>
-    <n v="29"/>
-    <d v="2022-01-30T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Denzell Sawayn"/>
-    <n v="25"/>
-    <d v="2021-06-09T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Miss Debora Heller PhD"/>
-    <n v="35"/>
-    <d v="2022-02-05T00:00:00"/>
-    <x v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Deron Tillman"/>
-    <n v="25"/>
-    <d v="2021-11-30T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mitzi DuBuque-Dietrich"/>
-    <n v="27"/>
-    <d v="2022-02-25T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Nancy Homenick"/>
-    <n v="28"/>
-    <d v="2022-02-02T00:00:00"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Shaneka Crist DVM"/>
-    <n v="25"/>
-    <d v="2021-12-25T00:00:00"/>
-    <x v="6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Gust O'Keefe"/>
-    <n v="29"/>
-    <d v="2021-12-09T00:00:00"/>
-    <x v="9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Miss Marjorie Steuber"/>
-    <n v="24"/>
-    <d v="2021-12-26T00:00:00"/>
-    <x v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Daniella Moore DVM"/>
-    <n v="35"/>
-    <d v="2021-09-28T00:00:00"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Vonda McLaughlin"/>
-    <n v="24"/>
-    <d v="2021-11-30T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cornelius Thompson"/>
-    <n v="30"/>
-    <d v="2021-11-15T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Melville Jacobson"/>
-    <n v="24"/>
-    <d v="2021-06-05T00:00:00"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Ross Pagac"/>
-    <n v="34"/>
-    <d v="2022-01-08T00:00:00"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Alexande Huel Jr."/>
-    <n v="35"/>
-    <d v="2021-09-21T00:00:00"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
     <s v="Judith Lemke MD"/>
     <n v="34"/>
-    <d v="2021-10-13T00:00:00"/>
-    <x v="2"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
     <n v="0"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DFF61ED-EF95-4D8A-A98C-B1CEBABC6FE6}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" numFmtId="14" showAll="0">
+      <items count="95">
+        <item m="1" x="75"/>
+        <item m="1" x="90"/>
+        <item m="1" x="65"/>
+        <item m="1" x="81"/>
+        <item m="1" x="49"/>
+        <item m="1" x="56"/>
+        <item m="1" x="67"/>
+        <item m="1" x="48"/>
+        <item m="1" x="77"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item m="1" x="92"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="69"/>
+        <item m="1" x="89"/>
+        <item m="1" x="74"/>
+        <item m="1" x="78"/>
+        <item m="1" x="61"/>
+        <item m="1" x="51"/>
+        <item m="1" x="83"/>
+        <item m="1" x="86"/>
+        <item m="1" x="68"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="47"/>
+        <item m="1" x="91"/>
+        <item m="1" x="59"/>
+        <item m="1" x="52"/>
+        <item m="1" x="80"/>
+        <item m="1" x="63"/>
+        <item m="1" x="79"/>
+        <item m="1" x="82"/>
+        <item m="1" x="64"/>
+        <item m="1" x="50"/>
+        <item m="1" x="84"/>
+        <item m="1" x="53"/>
+        <item m="1" x="60"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="54"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="25">
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item x="0"/>
+        <item x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="7"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of datestart" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -9323,7 +9661,7 @@
     <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="6">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9332,7 +9670,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9341,7 +9679,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9374,150 +9712,61 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="18"/>
-        <item x="34"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="46"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="0"/>
-        <item x="44"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="34">
+      <items count="95">
+        <item m="1" x="75"/>
+        <item m="1" x="90"/>
+        <item m="1" x="65"/>
+        <item m="1" x="81"/>
+        <item m="1" x="49"/>
+        <item m="1" x="56"/>
+        <item m="1" x="67"/>
+        <item m="1" x="48"/>
+        <item m="1" x="77"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item m="1" x="92"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="69"/>
+        <item m="1" x="89"/>
+        <item m="1" x="74"/>
+        <item m="1" x="78"/>
+        <item m="1" x="61"/>
+        <item m="1" x="51"/>
+        <item m="1" x="83"/>
+        <item m="1" x="86"/>
+        <item m="1" x="68"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="47"/>
+        <item m="1" x="91"/>
+        <item m="1" x="59"/>
+        <item m="1" x="52"/>
+        <item m="1" x="80"/>
+        <item m="1" x="63"/>
+        <item m="1" x="79"/>
+        <item m="1" x="82"/>
+        <item m="1" x="64"/>
+        <item m="1" x="50"/>
+        <item m="1" x="84"/>
+        <item m="1" x="53"/>
+        <item m="1" x="60"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="54"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9552,6 +9801,52 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="24">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="23"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -9576,79 +9871,61 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="18"/>
-        <item x="34"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="46"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="0"/>
-        <item x="44"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="34">
+      <items count="95">
+        <item m="1" x="75"/>
+        <item m="1" x="90"/>
+        <item m="1" x="65"/>
+        <item m="1" x="81"/>
+        <item m="1" x="49"/>
+        <item m="1" x="56"/>
+        <item m="1" x="67"/>
+        <item m="1" x="48"/>
+        <item m="1" x="77"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item m="1" x="92"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="69"/>
+        <item m="1" x="89"/>
+        <item m="1" x="74"/>
+        <item m="1" x="78"/>
+        <item m="1" x="61"/>
+        <item m="1" x="51"/>
+        <item m="1" x="83"/>
+        <item m="1" x="86"/>
+        <item m="1" x="68"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="47"/>
+        <item m="1" x="91"/>
+        <item m="1" x="59"/>
+        <item m="1" x="52"/>
+        <item m="1" x="80"/>
+        <item m="1" x="63"/>
+        <item m="1" x="79"/>
+        <item m="1" x="82"/>
+        <item m="1" x="64"/>
+        <item m="1" x="50"/>
+        <item m="1" x="84"/>
+        <item m="1" x="53"/>
+        <item m="1" x="60"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="54"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9683,6 +9960,61 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="24">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="23"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -9716,7 +10048,7 @@
     <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="9">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -9725,7 +10057,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -9734,7 +10066,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -9785,88 +10117,61 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="18"/>
-        <item x="34"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="46"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="0"/>
-        <item x="44"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="15">
-        <item x="5"/>
-        <item x="0"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="34">
+      <items count="95">
+        <item m="1" x="75"/>
+        <item m="1" x="90"/>
+        <item m="1" x="65"/>
+        <item m="1" x="81"/>
+        <item m="1" x="49"/>
+        <item m="1" x="56"/>
+        <item m="1" x="67"/>
+        <item m="1" x="48"/>
+        <item m="1" x="77"/>
+        <item m="1" x="57"/>
+        <item m="1" x="70"/>
+        <item m="1" x="92"/>
+        <item m="1" x="88"/>
+        <item m="1" x="58"/>
+        <item m="1" x="93"/>
+        <item m="1" x="73"/>
+        <item m="1" x="69"/>
+        <item m="1" x="89"/>
+        <item m="1" x="74"/>
+        <item m="1" x="78"/>
+        <item m="1" x="61"/>
+        <item m="1" x="51"/>
+        <item m="1" x="83"/>
+        <item m="1" x="86"/>
+        <item m="1" x="68"/>
+        <item m="1" x="85"/>
+        <item m="1" x="87"/>
+        <item m="1" x="47"/>
+        <item m="1" x="91"/>
+        <item m="1" x="59"/>
+        <item m="1" x="52"/>
+        <item m="1" x="80"/>
+        <item m="1" x="63"/>
+        <item m="1" x="79"/>
+        <item m="1" x="82"/>
+        <item m="1" x="64"/>
+        <item m="1" x="50"/>
+        <item m="1" x="84"/>
+        <item m="1" x="53"/>
+        <item m="1" x="60"/>
+        <item m="1" x="55"/>
+        <item m="1" x="71"/>
+        <item m="1" x="54"/>
+        <item m="1" x="76"/>
+        <item m="1" x="66"/>
+        <item m="1" x="62"/>
+        <item m="1" x="72"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -9901,6 +10206,70 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0">
+      <items count="24">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="0"/>
+        <item x="23"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -9961,7 +10330,7 @@
     <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="13">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9970,7 +10339,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9979,7 +10348,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9988,7 +10357,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10027,242 +10396,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DFF61ED-EF95-4D8A-A98C-B1CEBABC6FE6}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="18"/>
-        <item x="34"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="20"/>
-        <item x="1"/>
-        <item x="30"/>
-        <item x="10"/>
-        <item x="23"/>
-        <item x="45"/>
-        <item x="41"/>
-        <item x="11"/>
-        <item x="46"/>
-        <item x="26"/>
-        <item x="22"/>
-        <item x="42"/>
-        <item x="27"/>
-        <item x="31"/>
-        <item x="14"/>
-        <item x="4"/>
-        <item x="36"/>
-        <item x="39"/>
-        <item x="21"/>
-        <item x="38"/>
-        <item x="40"/>
-        <item x="0"/>
-        <item x="44"/>
-        <item x="12"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="16"/>
-        <item x="32"/>
-        <item x="35"/>
-        <item x="17"/>
-        <item x="3"/>
-        <item x="37"/>
-        <item x="6"/>
-        <item x="13"/>
-        <item x="8"/>
-        <item x="24"/>
-        <item x="7"/>
-        <item x="29"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="35">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item sd="0" x="24"/>
-        <item sd="0" x="25"/>
-        <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
-        <item sd="0" x="33"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="7"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of datestart" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="7" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -10374,32 +10507,31 @@
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
+        <item x="0"/>
         <item x="5"/>
-        <item x="0"/>
-        <item x="1"/>
+        <item x="4"/>
+        <item x="7"/>
         <item x="6"/>
+        <item x="2"/>
         <item x="3"/>
         <item x="9"/>
+        <item x="1"/>
         <item x="8"/>
-        <item x="2"/>
-        <item x="7"/>
-        <item x="4"/>
-        <item x="10"/>
+        <item m="1" x="10"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="4">
+      <items count="3">
+        <item x="1"/>
         <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -10408,8 +10540,11 @@
     <field x="3"/>
     <field x="4"/>
   </rowFields>
-  <rowItems count="30">
+  <rowItems count="31">
     <i>
+      <x/>
+    </i>
+    <i r="1">
       <x/>
     </i>
     <i r="1">
@@ -10457,6 +10592,9 @@
     <i r="1">
       <x/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="6"/>
     </i>
@@ -10481,6 +10619,9 @@
     <i r="1">
       <x/>
     </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="9"/>
     </i>
@@ -10489,12 +10630,6 @@
     </i>
     <i r="1">
       <x v="1"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -10560,35 +10695,6 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="3">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C531E27B-71EA-462D-8308-9C201C8A2341}" name="PivotTable19" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
@@ -10619,6 +10725,35 @@
   <pageFields count="1">
     <pageField fld="0" hier="-1"/>
   </pageFields>
+  <dataFields count="1">
+    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
   <dataFields count="1">
     <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
@@ -10978,13 +11113,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C7B43-D117-4E0E-9A2F-A221698C9E5D}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -11012,13 +11151,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>44567</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11029,13 +11168,13 @@
         <v>27</v>
       </c>
       <c r="C3" s="1">
-        <v>44425</v>
+        <v>43166</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -11046,10 +11185,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>44403</v>
+        <v>43192</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -11063,10 +11202,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>44603</v>
+        <v>43215</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -11080,13 +11219,13 @@
         <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>44528</v>
+        <v>43197</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -11097,13 +11236,13 @@
         <v>32</v>
       </c>
       <c r="C7" s="1">
-        <v>44567</v>
+        <v>43063</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -11114,13 +11253,13 @@
         <v>27</v>
       </c>
       <c r="C8" s="1">
-        <v>44425</v>
+        <v>43166</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -11131,10 +11270,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="1">
-        <v>44403</v>
+        <v>43192</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -11148,10 +11287,10 @@
         <v>27</v>
       </c>
       <c r="C10" s="1">
-        <v>44603</v>
+        <v>43215</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -11165,13 +11304,13 @@
         <v>29</v>
       </c>
       <c r="C11" s="1">
-        <v>44528</v>
+        <v>43197</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -11182,10 +11321,10 @@
         <v>21</v>
       </c>
       <c r="C12" s="1">
-        <v>44578</v>
+        <v>43138</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11199,10 +11338,10 @@
         <v>26</v>
       </c>
       <c r="C13" s="1">
-        <v>44621</v>
+        <v>42983</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -11216,13 +11355,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="1">
-        <v>44702</v>
+        <v>42940</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -11233,10 +11372,10 @@
         <v>35</v>
       </c>
       <c r="C15" s="1">
-        <v>44636</v>
+        <v>42894</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -11250,10 +11389,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>44408</v>
+        <v>42839</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -11267,10 +11406,10 @@
         <v>28</v>
       </c>
       <c r="C17" s="1">
-        <v>44434</v>
+        <v>43272</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -11284,10 +11423,10 @@
         <v>36</v>
       </c>
       <c r="C18" s="1">
-        <v>44480</v>
+        <v>43276</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -11301,13 +11440,13 @@
         <v>30</v>
       </c>
       <c r="C19" s="1">
-        <v>44576</v>
+        <v>43262</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -11318,10 +11457,10 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>44625</v>
+        <v>43219</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11335,7 +11474,7 @@
         <v>25</v>
       </c>
       <c r="C21" s="1">
-        <v>44523</v>
+        <v>43114</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -11352,13 +11491,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="1">
-        <v>44403</v>
+        <v>42964</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -11369,13 +11508,13 @@
         <v>25</v>
       </c>
       <c r="C23" s="1">
-        <v>44745</v>
+        <v>43211</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -11386,13 +11525,13 @@
         <v>29</v>
       </c>
       <c r="C24" s="1">
-        <v>44594</v>
+        <v>43095</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -11403,10 +11542,10 @@
         <v>22</v>
       </c>
       <c r="C25" s="1">
-        <v>44599</v>
+        <v>43156</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11420,10 +11559,10 @@
         <v>35</v>
       </c>
       <c r="C26" s="1">
-        <v>44324</v>
+        <v>43133</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -11437,13 +11576,13 @@
         <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>44715</v>
+        <v>43036</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -11454,10 +11593,10 @@
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>44424</v>
+        <v>43053</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -11471,13 +11610,13 @@
         <v>37</v>
       </c>
       <c r="C29" s="1">
-        <v>44545</v>
+        <v>43113</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -11488,10 +11627,10 @@
         <v>27</v>
       </c>
       <c r="C30" s="1">
-        <v>44511</v>
+        <v>43220</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -11505,10 +11644,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="1">
-        <v>44446</v>
+        <v>43113</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11522,10 +11661,10 @@
         <v>29</v>
       </c>
       <c r="C32" s="1">
-        <v>44654</v>
+        <v>42974</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -11539,7 +11678,7 @@
         <v>28</v>
       </c>
       <c r="C33" s="1">
-        <v>44751</v>
+        <v>43097</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -11556,10 +11695,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="1">
-        <v>44483</v>
+        <v>43205</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -11573,10 +11712,10 @@
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>44518</v>
+        <v>42953</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -11590,10 +11729,10 @@
         <v>41</v>
       </c>
       <c r="C36" s="1">
-        <v>33472</v>
+        <v>35664</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -11607,10 +11746,10 @@
         <v>22</v>
       </c>
       <c r="C37" s="1">
-        <v>44710</v>
+        <v>43190</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -11624,13 +11763,13 @@
         <v>25</v>
       </c>
       <c r="C38" s="1">
-        <v>44427</v>
+        <v>43089</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -11641,10 +11780,10 @@
         <v>24</v>
       </c>
       <c r="C39" s="1">
-        <v>44520</v>
+        <v>43147</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -11658,10 +11797,10 @@
         <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>44596</v>
+        <v>43281</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -11675,13 +11814,13 @@
         <v>29</v>
       </c>
       <c r="C41" s="1">
-        <v>44591</v>
+        <v>43054</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -11692,13 +11831,13 @@
         <v>25</v>
       </c>
       <c r="C42" s="1">
-        <v>44356</v>
+        <v>43067</v>
       </c>
       <c r="D42" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -11709,10 +11848,10 @@
         <v>35</v>
       </c>
       <c r="C43" s="1">
-        <v>44597</v>
+        <v>43185</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -11726,10 +11865,10 @@
         <v>25</v>
       </c>
       <c r="C44" s="1">
-        <v>44530</v>
+        <v>43029</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -11743,10 +11882,10 @@
         <v>27</v>
       </c>
       <c r="C45" s="1">
-        <v>44617</v>
+        <v>43236</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -11760,10 +11899,10 @@
         <v>28</v>
       </c>
       <c r="C46" s="1">
-        <v>44594</v>
+        <v>43087</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -11777,10 +11916,10 @@
         <v>25</v>
       </c>
       <c r="C47" s="1">
-        <v>44555</v>
+        <v>43155</v>
       </c>
       <c r="D47" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -11794,13 +11933,13 @@
         <v>29</v>
       </c>
       <c r="C48" s="1">
-        <v>44539</v>
+        <v>42923</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -11811,10 +11950,10 @@
         <v>24</v>
       </c>
       <c r="C49" s="1">
-        <v>44556</v>
+        <v>43035</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -11828,13 +11967,13 @@
         <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>44467</v>
+        <v>43164</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -11845,10 +11984,10 @@
         <v>24</v>
       </c>
       <c r="C51" s="1">
-        <v>44530</v>
+        <v>42923</v>
       </c>
       <c r="D51" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -11862,10 +12001,10 @@
         <v>30</v>
       </c>
       <c r="C52" s="1">
-        <v>44515</v>
+        <v>43054</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -11879,10 +12018,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="1">
-        <v>37047</v>
+        <v>39238</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -11896,10 +12035,10 @@
         <v>34</v>
       </c>
       <c r="C54" s="1">
-        <v>44569</v>
+        <v>43022</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -11913,10 +12052,10 @@
         <v>35</v>
       </c>
       <c r="C55" s="1">
-        <v>44460</v>
+        <v>43064</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -11930,10 +12069,10 @@
         <v>34</v>
       </c>
       <c r="C56" s="1">
-        <v>44482</v>
+        <v>43170</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -11949,26 +12088,26 @@
   <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B81" sqref="A1:B81"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
@@ -11976,7 +12115,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -11984,7 +12123,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
@@ -11992,7 +12131,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
@@ -12000,7 +12139,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -12008,7 +12147,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
         <v>29</v>
@@ -12016,7 +12155,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -12024,7 +12163,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -12032,7 +12171,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -12040,7 +12179,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
@@ -12048,7 +12187,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>14</v>
@@ -12056,7 +12195,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
@@ -12064,7 +12203,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
@@ -12072,15 +12211,15 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -12088,7 +12227,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -12096,7 +12235,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -12104,7 +12243,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>29</v>
@@ -12112,7 +12251,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
@@ -12120,7 +12259,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B21" t="s">
         <v>31</v>
@@ -12128,7 +12267,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
         <v>14</v>
@@ -12136,7 +12275,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B23" t="s">
         <v>29</v>
@@ -12144,7 +12283,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -12152,7 +12291,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
@@ -12160,7 +12299,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -12168,7 +12307,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -12176,7 +12315,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -12184,7 +12323,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B29" t="s">
         <v>14</v>
@@ -12192,7 +12331,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -12200,7 +12339,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -12208,7 +12347,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -12216,7 +12355,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -12224,7 +12363,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -12232,7 +12371,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -12240,7 +12379,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -12248,7 +12387,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -12256,7 +12395,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
         <v>22</v>
@@ -12264,7 +12403,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
@@ -12272,7 +12411,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -12280,7 +12419,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -12288,7 +12427,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -12296,7 +12435,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -12304,7 +12443,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s">
         <v>22</v>
@@ -12312,7 +12451,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -12320,7 +12459,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
         <v>45</v>
@@ -12328,7 +12467,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -12336,7 +12475,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B48" t="s">
         <v>31</v>
@@ -12344,15 +12483,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
         <v>22</v>
@@ -12360,7 +12499,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
         <v>45</v>
@@ -12368,7 +12507,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B52" t="s">
         <v>22</v>
@@ -12376,7 +12515,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
         <v>14</v>
@@ -12384,7 +12523,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -12392,15 +12531,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
@@ -12408,23 +12547,23 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B58" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -12432,7 +12571,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B60" t="s">
         <v>31</v>
@@ -12440,7 +12579,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B61" t="s">
         <v>22</v>
@@ -12448,15 +12587,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B62" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -12464,7 +12603,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -12472,7 +12611,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -12480,7 +12619,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
@@ -12488,7 +12627,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
         <v>45</v>
@@ -12496,7 +12635,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -12504,7 +12643,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -12512,7 +12651,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
@@ -12520,7 +12659,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
         <v>12</v>
@@ -12528,7 +12667,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -12536,7 +12675,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B73" t="s">
         <v>14</v>
@@ -12544,7 +12683,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -12552,7 +12691,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
@@ -12560,7 +12699,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
         <v>14</v>
@@ -12568,7 +12707,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -12576,7 +12715,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -12584,15 +12723,15 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -12600,7 +12739,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -12616,14 +12755,14 @@
   <dimension ref="A2:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
@@ -12631,13 +12770,13 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -12657,12 +12796,12 @@
         <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>74</v>
+      <c r="A4" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -12681,8 +12820,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>75</v>
+      <c r="A5" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -12691,7 +12830,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>6</v>
@@ -12702,16 +12841,16 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>29</v>
@@ -12722,10 +12861,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="B7">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D7" s="5">
         <v>2</v>
@@ -12776,7 +12915,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>45</v>
@@ -12793,7 +12932,7 @@
         <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>31</v>
@@ -12807,13 +12946,13 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -12824,7 +12963,7 @@
         <v>6</v>
       </c>
       <c r="B13">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>28.709090909090911</v>
@@ -12855,7 +12994,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>16</v>
@@ -12872,7 +13011,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12883,7 +13022,7 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>70</v>
@@ -12897,7 +13036,7 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -12913,7 +13052,7 @@
         <v>45</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -12921,7 +13060,7 @@
         <v>31</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -12937,7 +13076,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -12945,7 +13084,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -12953,7 +13092,7 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -12974,8 +13113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A311EE96-515E-4E71-AE25-43A4EF9BE97D}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13006,10 +13145,10 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -13020,22 +13159,22 @@
         <v>32</v>
       </c>
       <c r="C2" s="1">
-        <v>44567</v>
+        <v>43063</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -13046,16 +13185,16 @@
         <v>27</v>
       </c>
       <c r="C3" s="1">
-        <v>44425</v>
+        <v>43166</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -13069,16 +13208,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="1">
-        <v>44403</v>
+        <v>43192</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
         <v>16</v>
@@ -13092,16 +13231,16 @@
         <v>27</v>
       </c>
       <c r="C5" s="1">
-        <v>44603</v>
+        <v>43215</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -13115,16 +13254,16 @@
         <v>29</v>
       </c>
       <c r="C6" s="1">
-        <v>44528</v>
+        <v>43197</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -13138,16 +13277,16 @@
         <v>21</v>
       </c>
       <c r="C7" s="1">
-        <v>44578</v>
+        <v>43138</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -13161,16 +13300,16 @@
         <v>26</v>
       </c>
       <c r="C8" s="1">
-        <v>44621</v>
+        <v>42983</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -13184,16 +13323,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>44702</v>
+        <v>42940</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" t="s">
         <v>31</v>
@@ -13207,16 +13346,16 @@
         <v>35</v>
       </c>
       <c r="C10" s="1">
-        <v>44636</v>
+        <v>42894</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -13230,16 +13369,16 @@
         <v>19</v>
       </c>
       <c r="C11" s="1">
-        <v>44408</v>
+        <v>42839</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -13253,16 +13392,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>44434</v>
+        <v>43272</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
@@ -13276,16 +13415,16 @@
         <v>36</v>
       </c>
       <c r="C13" s="1">
-        <v>44480</v>
+        <v>43276</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s">
         <v>45</v>
@@ -13299,16 +13438,16 @@
         <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>44576</v>
+        <v>43262</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -13322,16 +13461,16 @@
         <v>22</v>
       </c>
       <c r="C15" s="1">
-        <v>44625</v>
+        <v>43219</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -13345,7 +13484,7 @@
         <v>25</v>
       </c>
       <c r="C16" s="1">
-        <v>44523</v>
+        <v>43114</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -13354,7 +13493,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
@@ -13368,16 +13507,16 @@
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>44403</v>
+        <v>42964</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
         <v>31</v>
@@ -13391,16 +13530,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="1">
-        <v>44745</v>
+        <v>43211</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
@@ -13414,16 +13553,16 @@
         <v>29</v>
       </c>
       <c r="C19" s="1">
-        <v>44594</v>
+        <v>43095</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -13437,16 +13576,16 @@
         <v>22</v>
       </c>
       <c r="C20" s="1">
-        <v>44599</v>
+        <v>43156</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
@@ -13460,16 +13599,16 @@
         <v>35</v>
       </c>
       <c r="C21" s="1">
-        <v>44324</v>
+        <v>43133</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H21" t="s">
         <v>31</v>
@@ -13483,16 +13622,16 @@
         <v>36</v>
       </c>
       <c r="C22" s="1">
-        <v>44715</v>
+        <v>43036</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
@@ -13506,16 +13645,16 @@
         <v>29</v>
       </c>
       <c r="C23" s="1">
-        <v>44424</v>
+        <v>43053</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -13529,16 +13668,16 @@
         <v>37</v>
       </c>
       <c r="C24" s="1">
-        <v>44545</v>
+        <v>43113</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -13552,16 +13691,16 @@
         <v>27</v>
       </c>
       <c r="C25" s="1">
-        <v>44511</v>
+        <v>43220</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H25" t="s">
         <v>22</v>
@@ -13575,16 +13714,16 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>44446</v>
+        <v>43113</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="H26" t="s">
         <v>16</v>
@@ -13598,16 +13737,16 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>44654</v>
+        <v>42974</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -13621,7 +13760,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="1">
-        <v>44751</v>
+        <v>43097</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -13630,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H28" t="s">
         <v>16</v>
@@ -13644,16 +13783,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>44483</v>
+        <v>43205</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
@@ -13667,16 +13806,16 @@
         <v>32</v>
       </c>
       <c r="C30" s="1">
-        <v>44518</v>
+        <v>42953</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
         <v>20</v>
@@ -13690,16 +13829,16 @@
         <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>44430</v>
+        <v>35664</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H31" t="s">
         <v>45</v>
@@ -13713,16 +13852,16 @@
         <v>22</v>
       </c>
       <c r="C32" s="1">
-        <v>44710</v>
+        <v>43190</v>
       </c>
       <c r="D32" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -13736,16 +13875,16 @@
         <v>25</v>
       </c>
       <c r="C33" s="1">
-        <v>44427</v>
+        <v>43089</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
         <v>6</v>
@@ -13759,16 +13898,16 @@
         <v>24</v>
       </c>
       <c r="C34" s="1">
-        <v>44520</v>
+        <v>43147</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H34" t="s">
         <v>20</v>
@@ -13782,16 +13921,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="1">
-        <v>44596</v>
+        <v>43281</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
@@ -13805,16 +13944,16 @@
         <v>29</v>
       </c>
       <c r="C36" s="1">
-        <v>44591</v>
+        <v>43054</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -13828,16 +13967,16 @@
         <v>25</v>
       </c>
       <c r="C37" s="1">
-        <v>44356</v>
+        <v>43067</v>
       </c>
       <c r="D37" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H37" t="s">
         <v>45</v>
@@ -13851,16 +13990,16 @@
         <v>35</v>
       </c>
       <c r="C38" s="1">
-        <v>44597</v>
+        <v>43185</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H38" t="s">
         <v>22</v>
@@ -13874,16 +14013,16 @@
         <v>25</v>
       </c>
       <c r="C39" s="1">
-        <v>44530</v>
+        <v>43029</v>
       </c>
       <c r="D39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
@@ -13897,16 +14036,16 @@
         <v>27</v>
       </c>
       <c r="C40" s="1">
-        <v>44617</v>
+        <v>43236</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H40" t="s">
         <v>16</v>
@@ -13920,16 +14059,16 @@
         <v>28</v>
       </c>
       <c r="C41" s="1">
-        <v>44594</v>
+        <v>43087</v>
       </c>
       <c r="D41" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H41" t="s">
         <v>16</v>
@@ -13943,16 +14082,16 @@
         <v>25</v>
       </c>
       <c r="C42" s="1">
-        <v>44555</v>
+        <v>43155</v>
       </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H42" t="s">
         <v>16</v>
@@ -13966,16 +14105,16 @@
         <v>29</v>
       </c>
       <c r="C43" s="1">
-        <v>44539</v>
+        <v>42923</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H43" t="s">
         <v>16</v>
@@ -13989,16 +14128,16 @@
         <v>24</v>
       </c>
       <c r="C44" s="1">
-        <v>44556</v>
+        <v>43035</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H44" t="s">
         <v>22</v>
@@ -14012,16 +14151,16 @@
         <v>35</v>
       </c>
       <c r="C45" s="1">
-        <v>44467</v>
+        <v>43164</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H45" t="s">
         <v>20</v>
@@ -14035,16 +14174,16 @@
         <v>24</v>
       </c>
       <c r="C46" s="1">
-        <v>44530</v>
+        <v>42923</v>
       </c>
       <c r="D46" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H46" t="s">
         <v>45</v>
@@ -14058,16 +14197,16 @@
         <v>30</v>
       </c>
       <c r="C47" s="1">
-        <v>44515</v>
+        <v>43054</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H47" t="s">
         <v>16</v>
@@ -14081,16 +14220,16 @@
         <v>24</v>
       </c>
       <c r="C48" s="1">
-        <v>44352</v>
+        <v>39238</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H48" t="s">
         <v>31</v>
@@ -14104,16 +14243,16 @@
         <v>34</v>
       </c>
       <c r="C49" s="1">
-        <v>44569</v>
+        <v>43022</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H49" t="s">
         <v>16</v>
@@ -14127,16 +14266,16 @@
         <v>35</v>
       </c>
       <c r="C50" s="1">
-        <v>44460</v>
+        <v>43064</v>
       </c>
       <c r="D50" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H50" t="s">
         <v>22</v>
@@ -14150,16 +14289,16 @@
         <v>34</v>
       </c>
       <c r="C51" s="1">
-        <v>44482</v>
+        <v>43170</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H51" t="s">
         <v>45</v>
@@ -14167,7 +14306,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H52" t="s">
         <v>22</v>
@@ -14175,7 +14314,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
@@ -14183,7 +14322,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
@@ -14191,7 +14330,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H55" t="s">
         <v>16</v>
@@ -14199,7 +14338,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
         <v>22</v>
@@ -14207,7 +14346,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
@@ -14215,7 +14354,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H58" t="s">
         <v>16</v>
@@ -14223,7 +14362,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
@@ -14231,7 +14370,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H60" t="s">
         <v>31</v>
@@ -14239,7 +14378,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H61" t="s">
         <v>22</v>
@@ -14247,7 +14386,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H62" t="s">
         <v>16</v>
@@ -14255,7 +14394,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
         <v>16</v>
@@ -14263,7 +14402,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H64" t="s">
         <v>18</v>
@@ -14271,7 +14410,7 @@
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H65" t="s">
         <v>22</v>
@@ -14279,7 +14418,7 @@
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H66" t="s">
         <v>16</v>
@@ -14287,7 +14426,7 @@
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H67" t="s">
         <v>45</v>
@@ -14295,7 +14434,7 @@
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H68" t="s">
         <v>6</v>
@@ -14303,7 +14442,7 @@
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H69" t="s">
         <v>6</v>
@@ -14311,7 +14450,7 @@
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -14319,7 +14458,7 @@
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -14327,7 +14466,7 @@
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H72" t="s">
         <v>16</v>
@@ -14335,7 +14474,7 @@
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
@@ -14343,7 +14482,7 @@
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="H74" t="s">
         <v>16</v>
@@ -14351,7 +14490,7 @@
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
@@ -14359,7 +14498,7 @@
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
@@ -14367,7 +14506,7 @@
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H77" t="s">
         <v>29</v>
@@ -14375,7 +14514,7 @@
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H78" t="s">
         <v>6</v>
@@ -14383,7 +14522,7 @@
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H79" t="s">
         <v>16</v>
@@ -14391,7 +14530,7 @@
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
@@ -14399,7 +14538,7 @@
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H81" t="s">
         <v>12</v>
@@ -14416,23 +14555,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA88D4E6-102F-4EC2-B3DB-C67C3776A97B}">
-  <dimension ref="A2:H33"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -14443,13 +14582,13 @@
         <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -14457,7 +14596,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="6">
-        <v>0.02</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>18</v>
@@ -14467,15 +14606,15 @@
       </c>
       <c r="F4">
         <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1)</f>
-        <v>1</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -14485,15 +14624,15 @@
       </c>
       <c r="F5">
         <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1)</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.22</v>
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.2857142857142857</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>29</v>
@@ -14503,15 +14642,15 @@
       </c>
       <c r="F6">
         <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>0</v>
+      <c r="A7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="6">
-        <v>0.72727272727272729</v>
+        <v>0.08</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>20</v>
@@ -14521,15 +14660,15 @@
       </c>
       <c r="F7">
         <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1)</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8" s="8">
-        <v>0.27272727272727271</v>
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.75</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>14</v>
@@ -14539,15 +14678,15 @@
       </c>
       <c r="F8">
         <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="6">
-        <v>0.12</v>
+      <c r="A9" s="7">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>45</v>
@@ -14556,15 +14695,16 @@
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1)</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>0</v>
+      <c r="A10" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B10" s="6">
-        <v>0.83333333333333337</v>
+        <v>0.16</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>31</v>
@@ -14574,15 +14714,15 @@
       </c>
       <c r="F10">
         <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1)</f>
-        <v>0.42857142857142855</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>1</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0.16666666666666666</v>
+      <c r="A11" s="4">
+        <v>0</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.75</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
@@ -14592,15 +14732,15 @@
       </c>
       <c r="F11">
         <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1)</f>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="6">
-        <v>0.06</v>
+      <c r="A12" s="7">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -14609,15 +14749,16 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1)</f>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>0</v>
+      <c r="A13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="6">
-        <v>0.33333333333333331</v>
+        <v>0.12</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>16</v>
@@ -14627,14 +14768,14 @@
       </c>
       <c r="F13">
         <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1)</f>
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
-        <v>1</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6">
         <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -14645,42 +14786,42 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="6">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="B16" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="D16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>0</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
-      </c>
-      <c r="H16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
-        <v>1</v>
-      </c>
-      <c r="B17" s="8">
-        <v>0.5</v>
+      <c r="B17" s="6">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>18</v>
@@ -14690,15 +14831,15 @@
       </c>
       <c r="F17">
         <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1)</f>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6">
-        <v>0.04</v>
+      <c r="B18" s="8">
+        <v>0.66666666666666663</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
@@ -14708,15 +14849,15 @@
       </c>
       <c r="F18">
         <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1)</f>
-        <v>0.27272727272727271</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>0</v>
+      <c r="A19" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B19" s="6">
-        <v>1</v>
+        <v>0.06</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>29</v>
@@ -14726,15 +14867,15 @@
       </c>
       <c r="F19">
         <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1)</f>
-        <v>0.16666666666666666</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>31</v>
+      <c r="A20" s="4">
+        <v>0</v>
       </c>
       <c r="B20" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>20</v>
@@ -14744,15 +14885,15 @@
       </c>
       <c r="F20">
         <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1)</f>
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>0</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.5714285714285714</v>
+      <c r="A21" s="7">
+        <v>1</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>14</v>
@@ -14762,15 +14903,15 @@
       </c>
       <c r="F21">
         <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1)</f>
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>1</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.42857142857142855</v>
+      <c r="A22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.08</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>45</v>
@@ -14779,15 +14920,16 @@
         <v>6</v>
       </c>
       <c r="F22">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="B23" s="6">
-        <v>0.14000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>31</v>
@@ -14797,15 +14939,15 @@
       </c>
       <c r="F23">
         <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1)</f>
-        <v>0.42857142857142855</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>0</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.7142857142857143</v>
+      <c r="A24" s="7">
+        <v>1</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0.75</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>12</v>
@@ -14815,15 +14957,15 @@
       </c>
       <c r="F24">
         <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1)</f>
-        <v>0.2857142857142857</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>1</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0.2857142857142857</v>
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.06</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>22</v>
@@ -14832,15 +14974,16 @@
         <v>11</v>
       </c>
       <c r="F25">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="B26" s="6">
-        <v>0.06</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>16</v>
@@ -14850,23 +14993,23 @@
       </c>
       <c r="F26">
         <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1)</f>
-        <v>0.75</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>0</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="7">
         <v>1</v>
+      </c>
+      <c r="B27" s="8">
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B28" s="6">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -14874,7 +15017,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="6">
-        <v>0.25</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -14882,28 +15025,38 @@
         <v>1</v>
       </c>
       <c r="B30" s="8">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="B31" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B32" s="6"/>
+      <c r="B32" s="6">
+        <v>0.66666666666666663</v>
+      </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="7">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B34" s="6">
         <v>1</v>
       </c>
     </row>
@@ -14918,7 +15071,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14930,34 +15083,34 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.40703463203463197</v>
+        <v>0.42023809523809524</v>
       </c>
       <c r="C4">
-        <v>0.669047619047619</v>
+        <v>0.47380952380952379</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -15052,13 +15205,13 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15066,13 +15219,16 @@
         <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>176</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
       </c>
       <c r="E3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15080,19 +15236,19 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f>GETPIVOTDATA("programs",$A$3,"programs","am")*'Lab Task23'!F4</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <f>SUM(C4:C13)/GETPIVOTDATA("programs",$A$3)</f>
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="I4">
         <f>SUM(C4,C7,C8,C13,C10)/SUM(B4,B7,B8,B10,B13)</f>
-        <v>0.5714285714285714</v>
+        <v>0.41379310344827586</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -15100,11 +15256,11 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <f>GETPIVOTDATA("programs",$A$3,"programs","bcs")*'Lab Task23'!F5</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15112,11 +15268,11 @@
         <v>29</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <f>GETPIVOTDATA("programs",$A$3,"programs","brave")*'Lab Task23'!F6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -15124,7 +15280,7 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <f>GETPIVOTDATA("programs",$A$3,"programs","challenge")*'Lab Task23'!F7</f>
@@ -15136,11 +15292,11 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <f>GETPIVOTDATA("programs",$A$3,"programs","dbt")*'Lab Task23'!F8</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15148,11 +15304,11 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <f>GETPIVOTDATA("programs",$A$3,"programs","mhsd")*'Lab Task23'!F9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15160,7 +15316,7 @@
         <v>31</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <f>GETPIVOTDATA("programs",$A$3,"programs","rdap")*'Lab Task23'!F10</f>
@@ -15172,11 +15328,11 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <f>GETPIVOTDATA("programs",$A$3,"programs","resolve")*'Lab Task23'!F11</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -15188,7 +15344,7 @@
       </c>
       <c r="C12">
         <f>GETPIVOTDATA("programs",$A$3,"programs","sotrt")*'Lab Task23'!F12</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15196,7 +15352,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <f>GETPIVOTDATA("programs",$A$3,"programs","stages")*'Lab Task23'!F13</f>

--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmallett\OneDrive - The Council of State Governments\GitProjects\va_casestudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FAF271-60EF-46FC-886D-4011881A1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4035" yWindow="2220" windowWidth="28800" windowHeight="15435" activeTab="6" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
+    <workbookView xWindow="12705" yWindow="0" windowWidth="24000" windowHeight="21000" activeTab="6" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="2" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId10"/>
+    <pivotCache cacheId="4" r:id="rId11"/>
+    <pivotCache cacheId="5" r:id="rId12"/>
+    <pivotCache cacheId="18" r:id="rId13"/>
+    <pivotCache cacheId="33" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="183">
   <si>
     <t>client_names</t>
   </si>
@@ -59,9 +60,6 @@
     <t>age</t>
   </si>
   <si>
-    <t>datestart</t>
-  </si>
-  <si>
     <t>programs</t>
   </si>
   <si>
@@ -269,9 +267,6 @@
     <t>Count of ret</t>
   </si>
   <si>
-    <t>Count of datestart</t>
-  </si>
-  <si>
     <t>Count of programs</t>
   </si>
   <si>
@@ -530,9 +525,6 @@
     <t>Zechariah Kris-Greenholt</t>
   </si>
   <si>
-    <t>ROSTER - DATESTART</t>
-  </si>
-  <si>
     <t>ROSTER - PROGRAMS</t>
   </si>
   <si>
@@ -603,6 +595,12 @@
   </si>
   <si>
     <t>Weights</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>Count of Years (dt)</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1110,6 +1108,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1155,30 +1154,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -1257,6 +1239,184 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1284,7 +1444,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[roster_summer_final.xlsx]Lab Task1 Explore!PivotTable7</c:name>
+    <c:name>[roster_summer_final.xlsx]Lab Task1 Explore!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1376,6 +1536,62 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1388,7 +1604,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Lab Task1 Explore'!$B$3</c:f>
+              <c:f>'Lab Task1 Explore'!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1409,7 +1625,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Lab Task1 Explore'!$A$4:$A$8</c:f>
+              <c:f>'Lab Task1 Explore'!$A$30:$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1429,7 +1645,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Lab Task1 Explore'!$B$4:$B$8</c:f>
+              <c:f>'Lab Task1 Explore'!$B$30:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1450,7 +1666,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8FAC-443E-ADF7-9B916208CEE3}"/>
+              <c16:uniqueId val="{00000000-C5D7-49F2-ACDD-F90749348B7A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7035,11 +7251,46 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806738425927" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{D1C902E9-AC32-417E-A8A7-CBA7F3BF3DAC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806764699075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{515EE682-81DF-489F-9B17-3A45BC208813}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E56" sheet="roster"/>
+    <worksheetSource ref="A1:B81" sheet="staff"/>
   </cacheSource>
-  <cacheFields count="8">
+  <cacheFields count="2">
+    <cacheField name="staff" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prg" numFmtId="0">
+      <sharedItems count="13">
+        <s v="brave"/>
+        <s v="dbt"/>
+        <s v="stages"/>
+        <s v="resolve"/>
+        <s v="brv"/>
+        <s v="rdap"/>
+        <s v="am"/>
+        <s v="mhsd"/>
+        <s v="sotrt"/>
+        <s v="resol"/>
+        <s v="challenge"/>
+        <s v="bcs"/>
+        <s v="stg"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.80985578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2A2402D2-0621-4291-AA41-8BD8EBB404FD}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E51" sheet="Lab Task1 Clean"/>
+  </cacheSource>
+  <cacheFields count="5">
     <cacheField name="client_names" numFmtId="0">
       <sharedItems/>
     </cacheField>
@@ -7047,7 +7298,154 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
     </cacheField>
     <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1991-08-22T00:00:00" maxDate="2022-07-10T00:00:00" count="94">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="programs" numFmtId="0">
+      <sharedItems containsBlank="1" count="11">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="brave"/>
+        <s v="bcs"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="stages"/>
+        <s v="resolve"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ret" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
+        <n v="0"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.809942361113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{8F171C4B-B874-40B7-B9A5-080D7F758088}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="staff" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="prg" numFmtId="0">
+      <sharedItems count="10">
+        <s v="brave"/>
+        <s v="dbt"/>
+        <s v="stages"/>
+        <s v="resolve"/>
+        <s v="rdap"/>
+        <s v="am"/>
+        <s v="mhsd"/>
+        <s v="sotrt"/>
+        <s v="challenge"/>
+        <s v="bcs"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.813127893518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D80E99D4-DF4A-4133-A8DD-C3350AD36274}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="D3:F13" sheet="Lab Task23"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Programs" numFmtId="0">
+      <sharedItems count="10">
+        <s v="am"/>
+        <s v="bcs"/>
+        <s v="brave"/>
+        <s v="challenge"/>
+        <s v="dbt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="resolve"/>
+        <s v="sotrt"/>
+        <s v="stages"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="staff count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="17"/>
+    </cacheField>
+    <cacheField name="ret rate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.75"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.820483912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2FE5E125-717B-47CF-8AD3-795F07E9A6A8}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="client_names" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
+    </cacheField>
+    <cacheField name="datestart" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="programs" numFmtId="0">
+      <sharedItems count="10">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="brave"/>
+        <s v="bcs"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="stages"/>
+        <s v="resolve"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ret" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45504.512334490741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{1E7459E1-CC5F-4955-810C-3F7AE4C07A27}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C1:C56" sheet="roster"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="dt" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00" count="47">
         <d v="2017-11-24T00:00:00"/>
         <d v="2018-03-07T00:00:00"/>
         <d v="2018-04-02T00:00:00"/>
@@ -7095,85 +7493,11 @@
         <d v="2017-10-14T00:00:00"/>
         <d v="2017-11-25T00:00:00"/>
         <d v="2018-03-11T00:00:00"/>
-        <d v="2022-01-06T00:00:00" u="1"/>
-        <d v="2021-08-17T00:00:00" u="1"/>
-        <d v="2021-07-26T00:00:00" u="1"/>
-        <d v="2022-02-11T00:00:00" u="1"/>
-        <d v="2021-11-28T00:00:00" u="1"/>
-        <d v="2022-01-17T00:00:00" u="1"/>
-        <d v="2022-03-01T00:00:00" u="1"/>
-        <d v="2022-05-21T00:00:00" u="1"/>
-        <d v="2022-03-16T00:00:00" u="1"/>
-        <d v="2021-07-31T00:00:00" u="1"/>
-        <d v="2021-08-26T00:00:00" u="1"/>
-        <d v="2021-10-11T00:00:00" u="1"/>
-        <d v="2022-01-15T00:00:00" u="1"/>
-        <d v="2022-03-05T00:00:00" u="1"/>
-        <d v="2021-11-23T00:00:00" u="1"/>
-        <d v="2022-07-03T00:00:00" u="1"/>
-        <d v="2022-02-02T00:00:00" u="1"/>
-        <d v="2022-02-07T00:00:00" u="1"/>
-        <d v="2021-05-08T00:00:00" u="1"/>
-        <d v="2022-06-03T00:00:00" u="1"/>
-        <d v="2021-08-16T00:00:00" u="1"/>
-        <d v="2021-12-15T00:00:00" u="1"/>
-        <d v="2021-11-11T00:00:00" u="1"/>
-        <d v="2021-09-07T00:00:00" u="1"/>
-        <d v="2022-04-03T00:00:00" u="1"/>
-        <d v="2022-07-09T00:00:00" u="1"/>
-        <d v="2021-10-14T00:00:00" u="1"/>
-        <d v="2021-11-18T00:00:00" u="1"/>
-        <d v="1991-08-22T00:00:00" u="1"/>
-        <d v="2022-05-29T00:00:00" u="1"/>
-        <d v="2021-08-19T00:00:00" u="1"/>
-        <d v="2021-11-20T00:00:00" u="1"/>
-        <d v="2022-02-04T00:00:00" u="1"/>
-        <d v="2022-01-30T00:00:00" u="1"/>
-        <d v="2021-06-09T00:00:00" u="1"/>
-        <d v="2022-02-05T00:00:00" u="1"/>
-        <d v="2021-11-30T00:00:00" u="1"/>
-        <d v="2022-02-25T00:00:00" u="1"/>
-        <d v="2021-12-25T00:00:00" u="1"/>
-        <d v="2021-12-09T00:00:00" u="1"/>
-        <d v="2021-12-26T00:00:00" u="1"/>
-        <d v="2021-09-28T00:00:00" u="1"/>
-        <d v="2021-11-15T00:00:00" u="1"/>
-        <d v="2001-06-05T00:00:00" u="1"/>
-        <d v="2022-01-08T00:00:00" u="1"/>
-        <d v="2021-09-21T00:00:00" u="1"/>
-        <d v="2021-10-13T00:00:00" u="1"/>
       </sharedItems>
-      <fieldGroup par="7"/>
+      <fieldGroup par="3"/>
     </cacheField>
-    <cacheField name="programs" numFmtId="0">
-      <sharedItems count="14">
-        <s v="am"/>
-        <s v="sotrt"/>
-        <s v="mhsd"/>
-        <s v="rdp"/>
-        <s v="brave"/>
-        <s v="bcs"/>
-        <s v="dbt"/>
-        <s v="challenge"/>
-        <s v="rdap"/>
-        <s v="stages"/>
-        <s v="resolve"/>
-        <s v="brv"/>
-        <s v="fbt"/>
-        <s v="bgs"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="ret" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="11" count="5">
-        <n v="1"/>
-        <n v="0"/>
-        <n v="11"/>
-        <n v="2"/>
-        <n v="-1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Months (datestart)" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
+    <cacheField name="Months (dt)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
         <rangePr groupBy="months" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
         <groupItems count="14">
           <s v="&lt;8/22/1997"/>
@@ -7193,8 +7517,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Quarters (datestart)" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
+    <cacheField name="Quarters (dt)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
         <rangePr groupBy="quarters" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
         <groupItems count="6">
           <s v="&lt;8/22/1997"/>
@@ -7206,8 +7530,8 @@
         </groupItems>
       </fieldGroup>
     </cacheField>
-    <cacheField name="Years (datestart)" numFmtId="0" databaseField="0">
-      <fieldGroup base="2">
+    <cacheField name="Years (dt)" numFmtId="0" databaseField="0">
+      <fieldGroup base="0">
         <rangePr groupBy="years" startDate="1997-08-22T00:00:00" endDate="2018-07-01T00:00:00"/>
         <groupItems count="24">
           <s v="&lt;8/22/1997"/>
@@ -7246,30 +7570,46 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806764699075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{515EE682-81DF-489F-9B17-3A45BC208813}">
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45504.519412268521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{D1C902E9-AC32-417E-A8A7-CBA7F3BF3DAC}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:B81" sheet="staff"/>
+    <worksheetSource ref="A1:E56" sheet="roster"/>
   </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="staff" numFmtId="0">
+  <cacheFields count="5">
+    <cacheField name="client_names" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="prg" numFmtId="0">
-      <sharedItems count="13">
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
+    </cacheField>
+    <cacheField name="dt" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="programs" numFmtId="0">
+      <sharedItems count="14">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdp"/>
         <s v="brave"/>
+        <s v="bcs"/>
         <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="rdap"/>
         <s v="stages"/>
         <s v="resolve"/>
         <s v="brv"/>
-        <s v="rdap"/>
-        <s v="am"/>
-        <s v="mhsd"/>
-        <s v="sotrt"/>
-        <s v="resol"/>
-        <s v="challenge"/>
-        <s v="bcs"/>
-        <s v="stg"/>
+        <s v="fbt"/>
+        <s v="bgs"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ret" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-1" maxValue="11" count="5">
+        <n v="1"/>
+        <n v="0"/>
+        <n v="11"/>
+        <n v="2"/>
+        <n v="-1"/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -7281,875 +7621,332 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.80985578704" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2A2402D2-0621-4291-AA41-8BD8EBB404FD}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E51" sheet="Lab Task1 Clean"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="client_names" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
-    </cacheField>
-    <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="programs" numFmtId="0">
-      <sharedItems containsBlank="1" count="11">
-        <s v="am"/>
-        <s v="sotrt"/>
-        <s v="mhsd"/>
-        <s v="rdap"/>
-        <s v="brave"/>
-        <s v="bcs"/>
-        <s v="dbt"/>
-        <s v="challenge"/>
-        <s v="stages"/>
-        <s v="resolve"/>
-        <m u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="ret" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
-        <n v="1"/>
-        <n v="0"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.809942361113" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{8F171C4B-B874-40B7-B9A5-080D7F758088}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table2"/>
-  </cacheSource>
-  <cacheFields count="2">
-    <cacheField name="staff" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="prg" numFmtId="0">
-      <sharedItems count="10">
-        <s v="brave"/>
-        <s v="dbt"/>
-        <s v="stages"/>
-        <s v="resolve"/>
-        <s v="rdap"/>
-        <s v="am"/>
-        <s v="mhsd"/>
-        <s v="sotrt"/>
-        <s v="challenge"/>
-        <s v="bcs"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.813127893518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D80E99D4-DF4A-4133-A8DD-C3350AD36274}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D3:F13" sheet="Lab Task23"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Programs" numFmtId="0">
-      <sharedItems count="10">
-        <s v="am"/>
-        <s v="bcs"/>
-        <s v="brave"/>
-        <s v="challenge"/>
-        <s v="dbt"/>
-        <s v="mhsd"/>
-        <s v="rdap"/>
-        <s v="resolve"/>
-        <s v="sotrt"/>
-        <s v="stages"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="staff count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="17"/>
-    </cacheField>
-    <cacheField name="ret rate" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.75"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.820483912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2FE5E125-717B-47CF-8AD3-795F07E9A6A8}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="client_names" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="age" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
-    </cacheField>
-    <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="programs" numFmtId="0">
-      <sharedItems count="10">
-        <s v="am"/>
-        <s v="sotrt"/>
-        <s v="mhsd"/>
-        <s v="rdap"/>
-        <s v="brave"/>
-        <s v="bcs"/>
-        <s v="dbt"/>
-        <s v="challenge"/>
-        <s v="stages"/>
-        <s v="resolve"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="ret" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
-  <r>
-    <s v="Murl Kunde"/>
-    <n v="32"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+  <r>
+    <s v="Mrs. Skyler Sawayn MD"/>
     <x v="0"/>
+  </r>
+  <r>
+    <s v="Telly Mitchell"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Watson O'Conner"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ruthie Wolff"/>
     <x v="0"/>
+  </r>
+  <r>
+    <s v="Efrain Koch DDS"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Miss. Kristan Flatley"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Breana Ebert"/>
-    <n v="27"/>
+    <s v="Hollis Murazik m.d."/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Dr Jacey Schmidt"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Mrs. Caron O'Keefe MD"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Helen Effertz"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr Colter Prosacco"/>
     <x v="1"/>
+  </r>
+  <r>
+    <s v="Frida Waelchi"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ms. Mari Kling"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Asher Hansen-Heidenreich"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Lovina Marks"/>
     <x v="1"/>
+  </r>
+  <r>
+    <s v="Lakisha Lynch-Gottlieb"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Shepherd Olson"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Katharyn Goodwin"/>
     <x v="0"/>
   </r>
   <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
+    <s v="Philomena Parker Ph.D."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mae Schuster"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ancil Blanda"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Coleton Hackett"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bernadette Pfeffer Ph.D."/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Tilla Kris"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Sybilla Hilpert"/>
     <x v="2"/>
+  </r>
+  <r>
+    <s v="Florencio Altenwerth-Ondricka"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mr. Benji Prohaska DVM"/>
     <x v="2"/>
+  </r>
+  <r>
+    <s v="Carolynn Rippin"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
+    <s v="Lonnie Stoltenberg"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Ashton Konopelski"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Chaya White"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Lott Terry"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Miss. Madonna Hegmann m.d."/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Davonte Harber"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Eugene Harris"/>
     <x v="3"/>
+  </r>
+  <r>
+    <s v="Garnet Buckridge"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Macarthur Boyer"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Dr Coretta Kuhic"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Chelsie Haag"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Howell Mraz"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Chasity Collier m.d."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ms. Shania Emard"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kole Walter-Stokes"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Mr Everet Luettgen PhD"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <s v="Archibald D'Amore DVM"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ms Mertie Lind MD"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Izayah Farrell MD"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Rogers Mraz Jr"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Angeles Hettinger-Bailey"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Ms Ardelia Donnelly"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Antone Bartoletti"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Ms. Carlene Wilderman"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ms. Nya Wehner"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cherelle VonRueden-Berge"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Mrs. Treena Zulauf"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Eliga Reilly"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Jaydon Jast"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Eda Paucek"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Glennie Parker-Schuster"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Leslie Wuckert Jr"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Margarite Ziemann"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Harrold Bednar"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sylva Jaskolski-Brown"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Ms Antoinette Rutherford d.d.s."/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Alease VonRueden"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bunk Durgan-Zemlak"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Seth Stracke"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Mr. Marvin Murray Sr"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Joyce Kihn"/>
     <x v="3"/>
+  </r>
+  <r>
+    <s v="Mr Infant Auer"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gee Rau MD"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Roll Dach"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
+    <s v="Dr Casey Boehm m.d."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ms. Ruthie Olson DDS"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Rosendo Boyle"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jensen Hane-Macejkovic"/>
     <x v="4"/>
-    <x v="4"/>
+  </r>
+  <r>
+    <s v="Dr. Russel Christiansen MD"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <s v="Jonnie Reichert"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <s v="Hal Nienow"/>
     <x v="1"/>
   </r>
   <r>
-    <s v="Murl Kunde"/>
-    <n v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Breana Ebert"/>
-    <n v="27"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
+    <s v="Zechariah Kris-Greenholt"/>
     <x v="3"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cyndi Shanahan DDS"/>
-    <n v="21"/>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Augustin Medhurst"/>
-    <n v="26"/>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Alexys Nader"/>
-    <n v="24"/>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Etta Stokes-Stanton"/>
-    <n v="35"/>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Frieda Kautzer"/>
-    <n v="19"/>
-    <x v="9"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Felecia Johnston"/>
-    <n v="28"/>
-    <x v="10"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Oral Hackett IV"/>
-    <n v="36"/>
-    <x v="11"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Wendell Langosh Jr."/>
-    <n v="30"/>
-    <x v="12"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Francine Stracke"/>
-    <n v="22"/>
-    <x v="13"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Romona McDermott MD"/>
-    <n v="25"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Chiquita Connelly-Anderson"/>
-    <n v="20"/>
-    <x v="15"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Gidget Schaefer"/>
-    <n v="29"/>
-    <x v="17"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <x v="18"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <x v="20"/>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <x v="21"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <x v="22"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <x v="23"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <x v="22"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Cassius Glover"/>
-    <n v="29"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Furman Bechtelar DVM"/>
-    <n v="28"/>
-    <x v="25"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Orvil Altenwerth III"/>
-    <n v="32"/>
-    <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dollie Brown"/>
-    <n v="32"/>
-    <x v="27"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Erykah Kessler"/>
-    <n v="41"/>
-    <x v="28"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Doyle Runte"/>
-    <n v="22"/>
-    <x v="29"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Boyd Satterfield I"/>
-    <n v="25"/>
-    <x v="30"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Anita Becker"/>
-    <n v="24"/>
-    <x v="31"/>
-    <x v="9"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Dennie Turner"/>
-    <n v="32"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Michell Becker"/>
-    <n v="29"/>
-    <x v="33"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Denzell Sawayn"/>
-    <n v="25"/>
-    <x v="34"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Debora Heller PhD"/>
-    <n v="35"/>
-    <x v="35"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Deron Tillman"/>
-    <n v="25"/>
-    <x v="36"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mitzi DuBuque-Dietrich"/>
-    <n v="27"/>
-    <x v="37"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Nancy Homenick"/>
-    <n v="28"/>
-    <x v="38"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Shaneka Crist DVM"/>
-    <n v="25"/>
-    <x v="39"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Gust O'Keefe"/>
-    <n v="29"/>
-    <x v="40"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Marjorie Steuber"/>
-    <n v="24"/>
-    <x v="41"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Daniella Moore DVM"/>
-    <n v="35"/>
-    <x v="42"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Vonda McLaughlin"/>
-    <n v="24"/>
-    <x v="40"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cornelius Thompson"/>
-    <n v="30"/>
-    <x v="33"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Melville Jacobson"/>
-    <n v="24"/>
-    <x v="43"/>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Ross Pagac"/>
-    <n v="34"/>
-    <x v="44"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Alexande Huel Jr."/>
-    <n v="35"/>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Judith Lemke MD"/>
-    <n v="34"/>
-    <x v="46"/>
-    <x v="0"/>
-    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
-  <r>
-    <s v="Mrs. Skyler Sawayn MD"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Telly Mitchell"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Watson O'Conner"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ruthie Wolff"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Efrain Koch DDS"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Miss. Kristan Flatley"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hollis Murazik m.d."/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Dr Jacey Schmidt"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Mrs. Caron O'Keefe MD"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Helen Effertz"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr Colter Prosacco"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Frida Waelchi"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ms. Mari Kling"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Asher Hansen-Heidenreich"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Lovina Marks"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Lakisha Lynch-Gottlieb"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Shepherd Olson"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Katharyn Goodwin"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Philomena Parker Ph.D."/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mae Schuster"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Ancil Blanda"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Coleton Hackett"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bernadette Pfeffer Ph.D."/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Tilla Kris"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Sybilla Hilpert"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Florencio Altenwerth-Ondricka"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Mr. Benji Prohaska DVM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Carolynn Rippin"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Lonnie Stoltenberg"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Ashton Konopelski"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Chaya White"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Lott Terry"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Miss. Madonna Hegmann m.d."/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Davonte Harber"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Eugene Harris"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Garnet Buckridge"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Macarthur Boyer"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Dr Coretta Kuhic"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Chelsie Haag"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Howell Mraz"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Chasity Collier m.d."/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ms. Shania Emard"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Kole Walter-Stokes"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Mr Everet Luettgen PhD"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <s v="Archibald D'Amore DVM"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ms Mertie Lind MD"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Izayah Farrell MD"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Rogers Mraz Jr"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Angeles Hettinger-Bailey"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ms Ardelia Donnelly"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Antone Bartoletti"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ms. Carlene Wilderman"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Ms. Nya Wehner"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cherelle VonRueden-Berge"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Mrs. Treena Zulauf"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Eliga Reilly"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Jaydon Jast"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Eda Paucek"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Glennie Parker-Schuster"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Leslie Wuckert Jr"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Margarite Ziemann"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Harrold Bednar"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Sylva Jaskolski-Brown"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ms Antoinette Rutherford d.d.s."/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Alease VonRueden"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Bunk Durgan-Zemlak"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Seth Stracke"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Mr. Marvin Murray Sr"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Joyce Kihn"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Mr Infant Auer"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Gee Rau MD"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Roll Dach"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr Casey Boehm m.d."/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ms. Ruthie Olson DDS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Rosendo Boyle"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Jensen Hane-Macejkovic"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Dr. Russel Christiansen MD"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <s v="Jonnie Reichert"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <s v="Hal Nienow"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Zechariah Kris-Greenholt"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <s v="Murl Kunde"/>
@@ -8504,7 +8301,7 @@
 </pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
   <r>
     <s v="Mrs. Skyler Sawayn MD"/>
@@ -8825,66 +8622,66 @@
   <r>
     <s v="Zechariah Kris-Greenholt"/>
     <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="0.2857142857142857"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="8"/>
+    <n v="0.25"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="15"/>
+    <n v="0.66666666666666663"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="6"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="5"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="8"/>
+    <n v="0.33333333333333331"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="11"/>
+    <n v="0.66666666666666663"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="17"/>
+    <n v="0.33333333333333331"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="0.2857142857142857"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="0.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="0.25"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="15"/>
-    <n v="0.66666666666666663"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="6"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="8"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="11"/>
-    <n v="0.66666666666666663"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="17"/>
-    <n v="0.33333333333333331"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <s v="Murl Kunde"/>
@@ -9239,113 +9036,622 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <d v="2017-04-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <d v="2018-06-21T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <d v="2018-01-14T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <d v="2017-08-17T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <d v="2018-02-25T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <d v="2017-11-14T00:00:00"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <d v="2017-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <d v="2017-12-28T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <d v="2017-08-06T00:00:00"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <d v="1997-08-22T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <d v="2018-02-16T00:00:00"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <d v="2018-06-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <d v="2017-11-28T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <d v="2018-03-26T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <d v="2018-05-16T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
+    <n v="24"/>
+    <d v="2017-10-27T00:00:00"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Daniella Moore DVM"/>
+    <n v="35"/>
+    <d v="2018-03-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <d v="2007-06-05T00:00:00"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Alexande Huel Jr."/>
+    <n v="35"/>
+    <d v="2017-11-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Judith Lemke MD"/>
+    <n v="34"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1DFF61ED-EF95-4D8A-A98C-B1CEBABC6FE6}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" numFmtId="14" showAll="0">
-      <items count="95">
-        <item m="1" x="75"/>
-        <item m="1" x="90"/>
-        <item m="1" x="65"/>
-        <item m="1" x="81"/>
-        <item m="1" x="49"/>
-        <item m="1" x="56"/>
-        <item m="1" x="67"/>
-        <item m="1" x="48"/>
-        <item m="1" x="77"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
-        <item m="1" x="92"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="73"/>
-        <item m="1" x="69"/>
-        <item m="1" x="89"/>
-        <item m="1" x="74"/>
-        <item m="1" x="78"/>
-        <item m="1" x="61"/>
-        <item m="1" x="51"/>
-        <item m="1" x="83"/>
-        <item m="1" x="86"/>
-        <item m="1" x="68"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="47"/>
-        <item m="1" x="91"/>
-        <item m="1" x="59"/>
-        <item m="1" x="52"/>
-        <item m="1" x="80"/>
-        <item m="1" x="63"/>
-        <item m="1" x="79"/>
-        <item m="1" x="82"/>
-        <item m="1" x="64"/>
-        <item m="1" x="50"/>
-        <item m="1" x="84"/>
-        <item m="1" x="53"/>
-        <item m="1" x="60"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="54"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="48">
+        <item x="28"/>
+        <item x="43"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="33"/>
         <item x="0"/>
+        <item x="45"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="42"/>
         <item x="1"/>
+        <item x="46"/>
+        <item x="35"/>
+        <item x="29"/>
         <item x="2"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="16"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="12"/>
         <item x="10"/>
         <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
         <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="15">
         <item sd="0" x="0"/>
@@ -9367,17 +9673,18 @@
     </pivotField>
     <pivotField showAll="0">
       <items count="7">
+        <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
         <item sd="0" x="4"/>
-        <item x="0"/>
-        <item x="5"/>
+        <item sd="0" x="5"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="25">
+        <item sd="0" x="0"/>
         <item sd="0" x="1"/>
         <item sd="0" x="2"/>
         <item sd="0" x="3"/>
@@ -9400,28 +9707,26 @@
         <item sd="0" x="20"/>
         <item sd="0" x="21"/>
         <item sd="0" x="22"/>
-        <item x="0"/>
-        <item x="23"/>
+        <item sd="0" x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="7"/>
-    <field x="2"/>
+  <rowFields count="1">
+    <field x="3"/>
   </rowFields>
   <rowItems count="5">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="20"/>
+      <x v="11"/>
     </i>
     <i>
       <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
@@ -9431,57 +9736,30 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of datestart" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="1">
-    <format dxfId="4">
+  <formats count="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="7" count="1">
-            <x v="4"/>
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
     </format>
   </formats>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
+  <chartFormats count="1">
+    <chartFormat chart="4" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9661,7 +9939,7 @@
     <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="7">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9670,7 +9948,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9679,7 +9957,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9713,142 +9991,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="8">
+  <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="95">
-        <item m="1" x="75"/>
-        <item m="1" x="90"/>
-        <item m="1" x="65"/>
-        <item m="1" x="81"/>
-        <item m="1" x="49"/>
-        <item m="1" x="56"/>
-        <item m="1" x="67"/>
-        <item m="1" x="48"/>
-        <item m="1" x="77"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
-        <item m="1" x="92"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="73"/>
-        <item m="1" x="69"/>
-        <item m="1" x="89"/>
-        <item m="1" x="74"/>
-        <item m="1" x="78"/>
-        <item m="1" x="61"/>
-        <item m="1" x="51"/>
-        <item m="1" x="83"/>
-        <item m="1" x="86"/>
-        <item m="1" x="68"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="47"/>
-        <item m="1" x="91"/>
-        <item m="1" x="59"/>
-        <item m="1" x="52"/>
-        <item m="1" x="80"/>
-        <item m="1" x="63"/>
-        <item m="1" x="79"/>
-        <item m="1" x="82"/>
-        <item m="1" x="64"/>
-        <item m="1" x="50"/>
-        <item m="1" x="84"/>
-        <item m="1" x="53"/>
-        <item m="1" x="60"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="54"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="24">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="23"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowItems count="1">
     <i/>
@@ -9872,110 +10022,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
+  <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="95">
-        <item m="1" x="75"/>
-        <item m="1" x="90"/>
-        <item m="1" x="65"/>
-        <item m="1" x="81"/>
-        <item m="1" x="49"/>
-        <item m="1" x="56"/>
-        <item m="1" x="67"/>
-        <item m="1" x="48"/>
-        <item m="1" x="77"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
-        <item m="1" x="92"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="73"/>
-        <item m="1" x="69"/>
-        <item m="1" x="89"/>
-        <item m="1" x="74"/>
-        <item m="1" x="78"/>
-        <item m="1" x="61"/>
-        <item m="1" x="51"/>
-        <item m="1" x="83"/>
-        <item m="1" x="86"/>
-        <item m="1" x="68"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="47"/>
-        <item m="1" x="91"/>
-        <item m="1" x="59"/>
-        <item m="1" x="52"/>
-        <item m="1" x="80"/>
-        <item m="1" x="63"/>
-        <item m="1" x="79"/>
-        <item m="1" x="82"/>
-        <item m="1" x="64"/>
-        <item m="1" x="50"/>
-        <item m="1" x="84"/>
-        <item m="1" x="53"/>
-        <item m="1" x="60"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="54"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="6">
@@ -9985,36 +10037,6 @@
         <item x="3"/>
         <item x="2"/>
         <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="24">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="23"/>
       </items>
     </pivotField>
   </pivotFields>
@@ -10048,7 +10070,7 @@
     <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10057,7 +10079,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="28">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10066,7 +10088,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10118,110 +10140,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
+  <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0">
-      <items count="95">
-        <item m="1" x="75"/>
-        <item m="1" x="90"/>
-        <item m="1" x="65"/>
-        <item m="1" x="81"/>
-        <item m="1" x="49"/>
-        <item m="1" x="56"/>
-        <item m="1" x="67"/>
-        <item m="1" x="48"/>
-        <item m="1" x="77"/>
-        <item m="1" x="57"/>
-        <item m="1" x="70"/>
-        <item m="1" x="92"/>
-        <item m="1" x="88"/>
-        <item m="1" x="58"/>
-        <item m="1" x="93"/>
-        <item m="1" x="73"/>
-        <item m="1" x="69"/>
-        <item m="1" x="89"/>
-        <item m="1" x="74"/>
-        <item m="1" x="78"/>
-        <item m="1" x="61"/>
-        <item m="1" x="51"/>
-        <item m="1" x="83"/>
-        <item m="1" x="86"/>
-        <item m="1" x="68"/>
-        <item m="1" x="85"/>
-        <item m="1" x="87"/>
-        <item m="1" x="47"/>
-        <item m="1" x="91"/>
-        <item m="1" x="59"/>
-        <item m="1" x="52"/>
-        <item m="1" x="80"/>
-        <item m="1" x="63"/>
-        <item m="1" x="79"/>
-        <item m="1" x="82"/>
-        <item m="1" x="64"/>
-        <item m="1" x="50"/>
-        <item m="1" x="84"/>
-        <item m="1" x="53"/>
-        <item m="1" x="60"/>
-        <item m="1" x="55"/>
-        <item m="1" x="71"/>
-        <item m="1" x="54"/>
-        <item m="1" x="76"/>
-        <item m="1" x="66"/>
-        <item m="1" x="62"/>
-        <item m="1" x="72"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="15">
         <item x="0"/>
@@ -10242,36 +10166,6 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0">
-      <items count="24">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="0"/>
-        <item x="23"/>
-      </items>
-    </pivotField>
   </pivotFields>
   <rowFields count="1">
     <field x="3"/>
@@ -10330,7 +10224,7 @@
     <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="14">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10339,7 +10233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10348,7 +10242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10357,7 +10251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -10648,7 +10542,7 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="33">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10660,7 +10554,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10672,7 +10566,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="31">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10695,6 +10589,35 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="3">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C531E27B-71EA-462D-8308-9C201C8A2341}" name="PivotTable19" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
@@ -10740,42 +10663,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="3">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F061CD81-9E88-4568-85F2-99F0627C4384}" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <autoFilter ref="A1:E51" xr:uid="{F061CD81-9E88-4568-85F2-99F0627C4384}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C812EC4-1D21-4A20-AACC-3D8067BDB6E7}" name="client_names"/>
     <tableColumn id="2" xr3:uid="{32DFF5D8-1553-4D48-B733-5DE20CC2AE51}" name="age"/>
-    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="datestart" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{71582D88-5DAB-4152-AE0B-5CEFB5FAB47E}" name="programs"/>
     <tableColumn id="5" xr3:uid="{BCDEF0D6-673B-4849-B3E5-B378327051C7}" name="ret"/>
   </tableColumns>
@@ -11113,18 +11007,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C7B43-D117-4E0E-9A2F-A221698C9E5D}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -11134,18 +11021,18 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -11154,7 +11041,7 @@
         <v>43063</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -11162,7 +11049,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>27</v>
@@ -11171,7 +11058,7 @@
         <v>43166</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -11179,7 +11066,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -11188,7 +11075,7 @@
         <v>43192</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -11196,7 +11083,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -11205,7 +11092,7 @@
         <v>43215</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -11213,7 +11100,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -11222,7 +11109,7 @@
         <v>43197</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -11230,7 +11117,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>32</v>
@@ -11239,7 +11126,7 @@
         <v>43063</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11247,7 +11134,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>27</v>
@@ -11256,7 +11143,7 @@
         <v>43166</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -11264,7 +11151,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>33</v>
@@ -11273,7 +11160,7 @@
         <v>43192</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -11281,7 +11168,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>27</v>
@@ -11290,7 +11177,7 @@
         <v>43215</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -11298,7 +11185,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>29</v>
@@ -11307,7 +11194,7 @@
         <v>43197</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -11315,7 +11202,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>21</v>
@@ -11324,7 +11211,7 @@
         <v>43138</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -11332,7 +11219,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>26</v>
@@ -11341,7 +11228,7 @@
         <v>42983</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -11349,7 +11236,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>24</v>
@@ -11358,7 +11245,7 @@
         <v>42940</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -11366,7 +11253,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>35</v>
@@ -11375,7 +11262,7 @@
         <v>42894</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -11383,7 +11270,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>19</v>
@@ -11392,7 +11279,7 @@
         <v>42839</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -11400,7 +11287,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>28</v>
@@ -11409,7 +11296,7 @@
         <v>43272</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -11417,7 +11304,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>36</v>
@@ -11426,7 +11313,7 @@
         <v>43276</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -11434,7 +11321,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>30</v>
@@ -11443,7 +11330,7 @@
         <v>43262</v>
       </c>
       <c r="D19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -11451,7 +11338,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -11460,7 +11347,7 @@
         <v>43219</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11468,7 +11355,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>25</v>
@@ -11477,7 +11364,7 @@
         <v>43114</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11485,7 +11372,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -11494,7 +11381,7 @@
         <v>42964</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -11502,7 +11389,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>25</v>
@@ -11511,7 +11398,7 @@
         <v>43211</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -11519,7 +11406,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>29</v>
@@ -11528,7 +11415,7 @@
         <v>43095</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -11536,7 +11423,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -11545,7 +11432,7 @@
         <v>43156</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -11553,7 +11440,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>35</v>
@@ -11562,7 +11449,7 @@
         <v>43133</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26">
         <v>11</v>
@@ -11570,7 +11457,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>36</v>
@@ -11579,7 +11466,7 @@
         <v>43036</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -11587,7 +11474,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>29</v>
@@ -11596,7 +11483,7 @@
         <v>43053</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -11604,7 +11491,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>37</v>
@@ -11613,7 +11500,7 @@
         <v>43113</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -11621,7 +11508,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -11630,7 +11517,7 @@
         <v>43220</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -11638,7 +11525,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -11647,7 +11534,7 @@
         <v>43113</v>
       </c>
       <c r="D31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11655,7 +11542,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -11664,7 +11551,7 @@
         <v>42974</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -11672,7 +11559,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>28</v>
@@ -11681,7 +11568,7 @@
         <v>43097</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -11689,7 +11576,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -11698,7 +11585,7 @@
         <v>43205</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -11706,7 +11593,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -11715,7 +11602,7 @@
         <v>42953</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -11723,7 +11610,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36">
         <v>41</v>
@@ -11732,7 +11619,7 @@
         <v>35664</v>
       </c>
       <c r="D36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -11740,7 +11627,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>22</v>
@@ -11749,7 +11636,7 @@
         <v>43190</v>
       </c>
       <c r="D37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -11757,7 +11644,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38">
         <v>25</v>
@@ -11766,7 +11653,7 @@
         <v>43089</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -11774,7 +11661,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39">
         <v>24</v>
@@ -11783,7 +11670,7 @@
         <v>43147</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -11791,7 +11678,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>32</v>
@@ -11800,7 +11687,7 @@
         <v>43281</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -11808,7 +11695,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>29</v>
@@ -11817,7 +11704,7 @@
         <v>43054</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -11825,7 +11712,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>25</v>
@@ -11834,7 +11721,7 @@
         <v>43067</v>
       </c>
       <c r="D42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -11842,7 +11729,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>35</v>
@@ -11851,7 +11738,7 @@
         <v>43185</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -11859,7 +11746,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>25</v>
@@ -11868,7 +11755,7 @@
         <v>43029</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -11876,7 +11763,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>27</v>
@@ -11885,7 +11772,7 @@
         <v>43236</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -11893,7 +11780,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>28</v>
@@ -11902,7 +11789,7 @@
         <v>43087</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E46">
         <v>-1</v>
@@ -11910,7 +11797,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>25</v>
@@ -11919,7 +11806,7 @@
         <v>43155</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -11927,7 +11814,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>29</v>
@@ -11936,7 +11823,7 @@
         <v>42923</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -11944,7 +11831,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>24</v>
@@ -11953,7 +11840,7 @@
         <v>43035</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -11961,7 +11848,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50">
         <v>35</v>
@@ -11970,7 +11857,7 @@
         <v>43164</v>
       </c>
       <c r="D50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -11978,7 +11865,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51">
         <v>24</v>
@@ -11987,7 +11874,7 @@
         <v>42923</v>
       </c>
       <c r="D51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -11995,7 +11882,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -12004,7 +11891,7 @@
         <v>43054</v>
       </c>
       <c r="D52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -12012,7 +11899,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -12021,7 +11908,7 @@
         <v>39238</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -12029,7 +11916,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54">
         <v>34</v>
@@ -12038,7 +11925,7 @@
         <v>43022</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -12046,7 +11933,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55">
         <v>35</v>
@@ -12055,7 +11942,7 @@
         <v>43064</v>
       </c>
       <c r="D55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -12063,7 +11950,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>34</v>
@@ -12072,7 +11959,7 @@
         <v>43170</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -12099,650 +11986,650 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B58" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -12752,16 +12639,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F3A46FA-3F81-4159-9A63-B0349EF376C0}">
-  <dimension ref="A2:H26"/>
+  <dimension ref="A2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -12769,131 +12656,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
       <c r="D2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
         <v>161</v>
       </c>
-      <c r="G2" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
       <c r="D4" s="5">
         <v>-1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="9">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="9">
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B7">
-        <v>29</v>
-      </c>
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8">
-        <v>55</v>
-      </c>
       <c r="D8" s="5">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -12901,13 +12749,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9">
+        <v>69</v>
+      </c>
+      <c r="E9" s="9">
         <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -12915,10 +12763,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H10">
         <v>6</v>
@@ -12926,16 +12774,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12943,16 +12791,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
+        <v>17</v>
+      </c>
+      <c r="B12" s="9">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -12960,16 +12808,16 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="9">
         <v>28.709090909090911</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13">
         <v>6</v>
@@ -12977,13 +12825,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14">
+        <v>49</v>
+      </c>
+      <c r="B14" s="9">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <v>11</v>
@@ -12991,13 +12839,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9">
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>12</v>
@@ -13005,13 +12853,13 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="9">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -13019,13 +12867,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+        <v>19</v>
+      </c>
+      <c r="B17" s="9">
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17">
         <v>80</v>
@@ -13033,73 +12881,121 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19">
+        <v>60</v>
+      </c>
+      <c r="B19" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="B20" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="B21" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="B22" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="B24" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26">
+        <v>69</v>
+      </c>
+      <c r="B26" s="9">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B32" s="9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="9">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="9">
         <v>55</v>
       </c>
     </row>
@@ -13114,7 +13010,7 @@
   <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D1:D1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13136,24 +13032,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>32</v>
@@ -13162,24 +13058,24 @@
         <v>43063</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>27</v>
@@ -13188,21 +13084,21 @@
         <v>43166</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>33</v>
@@ -13211,21 +13107,21 @@
         <v>43192</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>27</v>
@@ -13234,21 +13130,21 @@
         <v>43215</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>29</v>
@@ -13257,21 +13153,21 @@
         <v>43197</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>21</v>
@@ -13280,21 +13176,21 @@
         <v>43138</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>26</v>
@@ -13303,21 +13199,21 @@
         <v>42983</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>24</v>
@@ -13326,21 +13222,21 @@
         <v>42940</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>35</v>
@@ -13349,21 +13245,21 @@
         <v>42894</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>19</v>
@@ -13372,21 +13268,21 @@
         <v>42839</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>28</v>
@@ -13395,21 +13291,21 @@
         <v>43272</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>36</v>
@@ -13418,21 +13314,21 @@
         <v>43276</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -13441,21 +13337,21 @@
         <v>43262</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>22</v>
@@ -13464,21 +13360,21 @@
         <v>43219</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>25</v>
@@ -13487,21 +13383,21 @@
         <v>43114</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="G16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>20</v>
@@ -13510,21 +13406,21 @@
         <v>42964</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>25</v>
@@ -13533,21 +13429,21 @@
         <v>43211</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>29</v>
@@ -13556,21 +13452,21 @@
         <v>43095</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20">
         <v>22</v>
@@ -13579,21 +13475,21 @@
         <v>43156</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>35</v>
@@ -13602,21 +13498,21 @@
         <v>43133</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>36</v>
@@ -13625,21 +13521,21 @@
         <v>43036</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>29</v>
@@ -13648,21 +13544,21 @@
         <v>43053</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>37</v>
@@ -13671,21 +13567,21 @@
         <v>43113</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>27</v>
@@ -13694,21 +13590,21 @@
         <v>43220</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26">
         <v>29</v>
@@ -13717,21 +13613,21 @@
         <v>43113</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27">
         <v>29</v>
@@ -13740,21 +13636,21 @@
         <v>42974</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B28">
         <v>28</v>
@@ -13763,21 +13659,21 @@
         <v>43097</v>
       </c>
       <c r="D28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29">
         <v>32</v>
@@ -13786,21 +13682,21 @@
         <v>43205</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30">
         <v>32</v>
@@ -13809,21 +13705,21 @@
         <v>42953</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>41</v>
@@ -13832,21 +13728,21 @@
         <v>35664</v>
       </c>
       <c r="D31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>22</v>
@@ -13855,21 +13751,21 @@
         <v>43190</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>25</v>
@@ -13878,21 +13774,21 @@
         <v>43089</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>24</v>
@@ -13901,21 +13797,21 @@
         <v>43147</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35">
         <v>32</v>
@@ -13924,21 +13820,21 @@
         <v>43281</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36">
         <v>29</v>
@@ -13947,21 +13843,21 @@
         <v>43054</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="G36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B37">
         <v>25</v>
@@ -13970,21 +13866,21 @@
         <v>43067</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38">
         <v>35</v>
@@ -13993,21 +13889,21 @@
         <v>43185</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B39">
         <v>25</v>
@@ -14016,21 +13912,21 @@
         <v>43029</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40">
         <v>27</v>
@@ -14039,21 +13935,21 @@
         <v>43236</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B41">
         <v>28</v>
@@ -14062,21 +13958,21 @@
         <v>43087</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B42">
         <v>25</v>
@@ -14085,21 +13981,21 @@
         <v>43155</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B43">
         <v>29</v>
@@ -14108,21 +14004,21 @@
         <v>42923</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B44">
         <v>24</v>
@@ -14131,21 +14027,21 @@
         <v>43035</v>
       </c>
       <c r="D44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>35</v>
@@ -14154,21 +14050,21 @@
         <v>43164</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>24</v>
@@ -14177,21 +14073,21 @@
         <v>42923</v>
       </c>
       <c r="D46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B47">
         <v>30</v>
@@ -14200,21 +14096,21 @@
         <v>43054</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B48">
         <v>24</v>
@@ -14223,21 +14119,21 @@
         <v>39238</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E48">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B49">
         <v>34</v>
@@ -14246,21 +14142,21 @@
         <v>43022</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B50">
         <v>35</v>
@@ -14269,21 +14165,21 @@
         <v>43064</v>
       </c>
       <c r="D50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51">
         <v>34</v>
@@ -14292,256 +14188,256 @@
         <v>43170</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G52" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G53" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G54" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G55" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H55" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H61" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G63" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G64" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G65" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G66" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G67" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H67" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G68" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G69" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G71" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G72" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G73" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H73" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G74" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H74" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G76" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H77" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H79" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G80" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -14571,35 +14467,35 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -14617,7 +14513,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -14635,7 +14531,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -14647,13 +14543,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>0.08</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -14671,7 +14567,7 @@
         <v>0.75</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>15</v>
@@ -14689,7 +14585,7 @@
         <v>0.25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -14701,13 +14597,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="6">
         <v>0.16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -14725,7 +14621,7 @@
         <v>0.75</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -14743,7 +14639,7 @@
         <v>0.25</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -14755,13 +14651,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>0.12</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>17</v>
@@ -14779,7 +14675,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14">
         <v>80</v>
@@ -14795,25 +14691,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
         <v>0.06</v>
       </c>
       <c r="D16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -14824,7 +14720,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -14842,7 +14738,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -14854,13 +14750,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B19" s="6">
         <v>0.06</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -14878,7 +14774,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>4</v>
@@ -14896,7 +14792,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>15</v>
@@ -14908,13 +14804,13 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="6">
         <v>0.08</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22">
         <v>6</v>
@@ -14932,7 +14828,7 @@
         <v>0.25</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>5</v>
@@ -14950,7 +14846,7 @@
         <v>0.75</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E24">
         <v>8</v>
@@ -14962,13 +14858,13 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="6">
         <v>0.06</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>11</v>
@@ -14986,7 +14882,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>17</v>
@@ -15006,7 +14902,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="6">
         <v>0.06</v>
@@ -15030,7 +14926,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="6">
         <v>0.18</v>
@@ -15054,7 +14950,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B34" s="6">
         <v>1</v>
@@ -15083,26 +14979,26 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -15205,7 +15101,7 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15216,24 +15112,24 @@
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -15253,7 +15149,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -15265,7 +15161,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -15277,7 +15173,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -15289,7 +15185,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -15301,7 +15197,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -15313,7 +15209,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -15325,7 +15221,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -15337,7 +15233,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -15349,7 +15245,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>9</v>
@@ -15361,7 +15257,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>50</v>

--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmallett\OneDrive - The Council of State Governments\GitProjects\va_casestudy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67DA349F-5541-47B4-A325-BE8ED9DAF5B7}"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="0" windowWidth="24000" windowHeight="21000" activeTab="6" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
+    <workbookView xWindow="-21720" yWindow="765" windowWidth="20955" windowHeight="14265" activeTab="4" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
-    <pivotCache cacheId="2" r:id="rId9"/>
-    <pivotCache cacheId="3" r:id="rId10"/>
-    <pivotCache cacheId="4" r:id="rId11"/>
-    <pivotCache cacheId="5" r:id="rId12"/>
-    <pivotCache cacheId="18" r:id="rId13"/>
-    <pivotCache cacheId="33" r:id="rId14"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="4" r:id="rId12"/>
+    <pivotCache cacheId="5" r:id="rId13"/>
+    <pivotCache cacheId="6" r:id="rId14"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1090,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1108,7 +1108,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1154,13 +1153,30 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -1224,177 +1240,6 @@
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -3172,7 +3017,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Recidivism Rate 2021-2022</a:t>
+              <a:t>Recidivism Rate 2017-2018</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7139,7 +6984,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7315200" y="9205912"/>
+              <a:off x="7334250" y="9205912"/>
               <a:ext cx="4572000" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -9597,7 +9442,259 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField numFmtId="14" showAll="0">
@@ -9739,7 +9836,7 @@
     <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9748,7 +9845,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9781,88 +9878,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -9939,7 +9956,7 @@
     <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="37">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9948,7 +9965,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9957,7 +9974,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="35">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9990,8 +10007,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10021,8 +10038,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10070,7 +10087,7 @@
     <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="27">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10079,7 +10096,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10088,7 +10105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10139,180 +10156,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69DFE558-44F1-4255-85E0-5603F9A3D9C1}" name="PivotTable15" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Programs">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69DFE558-44F1-4255-85E0-5603F9A3D9C1}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Programs">
   <location ref="D3:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField showAll="0"/>
@@ -10400,7 +10245,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10542,7 +10387,7 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="33">
+    <format dxfId="2">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10554,7 +10399,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10566,7 +10411,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="0">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10589,7 +10434,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="3">
     <pivotField showAll="0"/>
@@ -10618,7 +10463,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C531E27B-71EA-462D-8308-9C201C8A2341}" name="PivotTable19" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C531E27B-71EA-462D-8308-9C201C8A2341}" name="PivotTable19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" includeNewItemsInFilter="1">
@@ -10669,7 +10514,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C812EC4-1D21-4A20-AACC-3D8067BDB6E7}" name="client_names"/>
     <tableColumn id="2" xr3:uid="{32DFF5D8-1553-4D48-B733-5DE20CC2AE51}" name="age"/>
-    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{71582D88-5DAB-4152-AE0B-5CEFB5FAB47E}" name="programs"/>
     <tableColumn id="5" xr3:uid="{BCDEF0D6-673B-4849-B3E5-B378327051C7}" name="ret"/>
   </tableColumns>
@@ -12681,7 +12526,7 @@
       <c r="D4" s="5">
         <v>-1</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -12695,7 +12540,7 @@
       <c r="D5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -12709,7 +12554,7 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6">
         <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -12723,7 +12568,7 @@
       <c r="D7" s="5">
         <v>2</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -12737,7 +12582,7 @@
       <c r="D8" s="5">
         <v>11</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -12751,7 +12596,7 @@
       <c r="D9" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9">
         <v>55</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -12793,7 +12638,7 @@
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
@@ -12810,10 +12655,10 @@
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13">
         <v>28.709090909090911</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -12827,7 +12672,7 @@
       <c r="A14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14">
         <v>1</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -12841,7 +12686,7 @@
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15">
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
@@ -12855,7 +12700,7 @@
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <v>2</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -12869,7 +12714,7 @@
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17">
         <v>6</v>
       </c>
       <c r="G17" s="3" t="s">
@@ -12883,7 +12728,7 @@
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18">
         <v>2</v>
       </c>
     </row>
@@ -12891,7 +12736,7 @@
       <c r="A19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
@@ -12899,7 +12744,7 @@
       <c r="A20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <v>4</v>
       </c>
     </row>
@@ -12907,7 +12752,7 @@
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21">
         <v>3</v>
       </c>
     </row>
@@ -12915,7 +12760,7 @@
       <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>2</v>
       </c>
     </row>
@@ -12923,7 +12768,7 @@
       <c r="A23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <v>3</v>
       </c>
     </row>
@@ -12931,7 +12776,7 @@
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24">
         <v>4</v>
       </c>
     </row>
@@ -12939,7 +12784,7 @@
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <v>9</v>
       </c>
     </row>
@@ -12947,7 +12792,7 @@
       <c r="A26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26">
         <v>55</v>
       </c>
     </row>
@@ -12963,7 +12808,7 @@
       <c r="A30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30">
         <v>1</v>
       </c>
     </row>
@@ -12971,7 +12816,7 @@
       <c r="A31" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31">
         <v>1</v>
       </c>
     </row>
@@ -12979,7 +12824,7 @@
       <c r="A32" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32">
         <v>24</v>
       </c>
     </row>
@@ -12987,7 +12832,7 @@
       <c r="A33" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B33" s="9">
+      <c r="B33">
         <v>29</v>
       </c>
     </row>
@@ -12995,7 +12840,7 @@
       <c r="A34" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="9">
+      <c r="B34">
         <v>55</v>
       </c>
     </row>
@@ -13009,8 +12854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A311EE96-515E-4E71-AE25-43A4EF9BE97D}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13725,7 +13570,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="1">
-        <v>35664</v>
+        <v>42969</v>
       </c>
       <c r="D31" t="s">
         <v>19</v>
@@ -14116,7 +13961,7 @@
         <v>24</v>
       </c>
       <c r="C48" s="1">
-        <v>39238</v>
+        <v>42891</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -14453,8 +14298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA88D4E6-102F-4EC2-B3DB-C67C3776A97B}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15100,7 +14945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585C765-9993-4BFA-90B9-04FA964DBB4D}">
   <dimension ref="A3:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>

--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_casestudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_data/case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{67DA349F-5541-47B4-A325-BE8ED9DAF5B7}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E26F8D6-CB84-451D-8820-A46A13A3E941}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="765" windowWidth="20955" windowHeight="14265" activeTab="4" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="Lab Task1 Explore" sheetId="2" r:id="rId3"/>
     <sheet name="Lab Task1 Clean" sheetId="3" r:id="rId4"/>
     <sheet name="Lab Task23" sheetId="4" r:id="rId5"/>
-    <sheet name="Session2 Task1" sheetId="5" r:id="rId6"/>
+    <sheet name="Session2 Task1" sheetId="8" r:id="rId6"/>
     <sheet name="Session2 Task2" sheetId="7" r:id="rId7"/>
+    <sheet name="Session3" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">roster!$B$1</definedName>
@@ -27,13 +28,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
-    <pivotCache cacheId="2" r:id="rId10"/>
-    <pivotCache cacheId="3" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="2" r:id="rId11"/>
     <pivotCache cacheId="4" r:id="rId12"/>
     <pivotCache cacheId="5" r:id="rId13"/>
     <pivotCache cacheId="6" r:id="rId14"/>
+    <pivotCache cacheId="13" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="186">
   <si>
     <t>client_names</t>
   </si>
@@ -555,18 +556,6 @@
     <t>Programs</t>
   </si>
   <si>
-    <t>Average of ret rate</t>
-  </si>
-  <si>
-    <t>All 10 Programs</t>
-  </si>
-  <si>
-    <t>(Multiple Items)</t>
-  </si>
-  <si>
-    <t>Just CWC-identified programs (5)</t>
-  </si>
-  <si>
     <t>fake1</t>
   </si>
   <si>
@@ -601,6 +590,27 @@
   </si>
   <si>
     <t>Count of Years (dt)</t>
+  </si>
+  <si>
+    <t>Average 10 programs</t>
+  </si>
+  <si>
+    <t>Average 5 programs</t>
+  </si>
+  <si>
+    <t>BY YEAR RECIDIVISM RATE</t>
+  </si>
+  <si>
+    <t>YEAR(dt)</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>ret rate (2017)</t>
+  </si>
+  <si>
+    <t>ret rate (2018)</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1163,167 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1171,6 +1341,13 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -3533,6 +3710,646 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Recidivism Rate 2017-2018</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Session3!$I$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ret rate (2017)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Session3!$G$17:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>am</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>bcs</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>brave</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>challenge</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>dbt</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>mhsd</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>rdap</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>resolve</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>sotrt</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>stages</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Session3!$I$17:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE67-4CBC-A7F6-8624DE1E5AA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Session3!$J$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ret rate (2018)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Session3!$J$17:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CE67-4CBC-A7F6-8624DE1E5AA3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="269"/>
+        <c:axId val="1525529039"/>
+        <c:axId val="1525528559"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Session3!$H$16</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>staff count</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:gradFill rotWithShape="1">
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="103000"/>
+                          <a:lumMod val="102000"/>
+                          <a:tint val="94000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="50000">
+                        <a:schemeClr val="accent1">
+                          <a:satMod val="110000"/>
+                          <a:lumMod val="100000"/>
+                          <a:shade val="100000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="99000"/>
+                          <a:satMod val="120000"/>
+                          <a:shade val="78000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="0"/>
+                  </a:gradFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Session3!$G$17:$G$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>am</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>bcs</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>brave</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>challenge</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>dbt</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>mhsd</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>rdap</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>resolve</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>sotrt</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>stages</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Session3!$H$17:$H$26</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>17</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-CE67-4CBC-A7F6-8624DE1E5AA3}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1525529039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525528559"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1525528559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx2"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1525529039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -3840,6 +4657,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6361,6 +7218,473 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="326">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7095,6 +8419,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>376237</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A772111-969D-40F0-8A02-AE029BA2946B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.806764699075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="80" xr:uid="{515EE682-81DF-489F-9B17-3A45BC208813}">
   <cacheSource type="worksheet">
@@ -7143,7 +8510,55 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
     </cacheField>
     <cacheField name="datestart" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="1997-08-22T00:00:00" maxDate="2018-07-01T00:00:00" count="47">
+        <d v="2017-11-24T00:00:00"/>
+        <d v="2018-03-07T00:00:00"/>
+        <d v="2018-04-02T00:00:00"/>
+        <d v="2018-04-25T00:00:00"/>
+        <d v="2018-04-07T00:00:00"/>
+        <d v="2018-02-07T00:00:00"/>
+        <d v="2017-09-05T00:00:00"/>
+        <d v="2017-07-24T00:00:00"/>
+        <d v="2017-06-08T00:00:00"/>
+        <d v="2017-04-14T00:00:00"/>
+        <d v="2018-06-21T00:00:00"/>
+        <d v="2018-06-25T00:00:00"/>
+        <d v="2018-06-11T00:00:00"/>
+        <d v="2018-04-29T00:00:00"/>
+        <d v="2018-01-14T00:00:00"/>
+        <d v="2017-08-17T00:00:00"/>
+        <d v="2018-04-21T00:00:00"/>
+        <d v="2017-12-26T00:00:00"/>
+        <d v="2018-02-25T00:00:00"/>
+        <d v="2018-02-02T00:00:00"/>
+        <d v="2017-10-28T00:00:00"/>
+        <d v="2017-11-14T00:00:00"/>
+        <d v="2018-01-13T00:00:00"/>
+        <d v="2018-04-30T00:00:00"/>
+        <d v="2017-08-27T00:00:00"/>
+        <d v="2017-12-28T00:00:00"/>
+        <d v="2018-04-15T00:00:00"/>
+        <d v="2017-08-06T00:00:00"/>
+        <d v="1997-08-22T00:00:00"/>
+        <d v="2018-03-31T00:00:00"/>
+        <d v="2017-12-20T00:00:00"/>
+        <d v="2018-02-16T00:00:00"/>
+        <d v="2018-06-30T00:00:00"/>
+        <d v="2017-11-15T00:00:00"/>
+        <d v="2017-11-28T00:00:00"/>
+        <d v="2018-03-26T00:00:00"/>
+        <d v="2017-10-21T00:00:00"/>
+        <d v="2018-05-16T00:00:00"/>
+        <d v="2017-12-18T00:00:00"/>
+        <d v="2018-02-24T00:00:00"/>
+        <d v="2017-07-07T00:00:00"/>
+        <d v="2017-10-27T00:00:00"/>
+        <d v="2018-03-05T00:00:00"/>
+        <d v="2007-06-05T00:00:00"/>
+        <d v="2017-10-14T00:00:00"/>
+        <d v="2017-11-25T00:00:00"/>
+        <d v="2018-03-11T00:00:00"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="programs" numFmtId="0">
       <sharedItems containsBlank="1" count="11">
@@ -7208,41 +8623,6 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.813127893518" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{D80E99D4-DF4A-4133-A8DD-C3350AD36274}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="D3:F13" sheet="Lab Task23"/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Programs" numFmtId="0">
-      <sharedItems count="10">
-        <s v="am"/>
-        <s v="bcs"/>
-        <s v="brave"/>
-        <s v="challenge"/>
-        <s v="dbt"/>
-        <s v="mhsd"/>
-        <s v="rdap"/>
-        <s v="resolve"/>
-        <s v="sotrt"/>
-        <s v="stages"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="staff count" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2" maxValue="17"/>
-    </cacheField>
-    <cacheField name="ret rate" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.25" maxValue="0.75"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45503.820483912037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{2FE5E125-717B-47CF-8AD3-795F07E9A6A8}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
@@ -7283,7 +8663,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45504.512334490741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{1E7459E1-CC5F-4955-810C-3F7AE4C07A27}">
   <cacheSource type="worksheet">
     <worksheetSource ref="C1:C56" sheet="roster"/>
@@ -7415,7 +8795,7 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotCache/pivotCacheDefinition6.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45504.519412268521" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="55" xr:uid="{D1C902E9-AC32-417E-A8A7-CBA7F3BF3DAC}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E56" sheet="roster"/>
@@ -7466,6 +8846,56 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Joshua Mallett" refreshedDate="45516.459448726855" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{7C9DBACF-D982-4EDA-832C-3C6CCD6ECD62}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table14"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="client_names" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="age" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="19" maxValue="41"/>
+    </cacheField>
+    <cacheField name="dt" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-04-14T00:00:00" maxDate="2018-07-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="programs" numFmtId="0">
+      <sharedItems count="10">
+        <s v="am"/>
+        <s v="sotrt"/>
+        <s v="mhsd"/>
+        <s v="rdap"/>
+        <s v="brave"/>
+        <s v="bcs"/>
+        <s v="dbt"/>
+        <s v="challenge"/>
+        <s v="stages"/>
+        <s v="resolve"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ret" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1" count="2">
+        <n v="1"/>
+        <n v="0"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="YEAR(dt)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="2017" maxValue="2018" count="2">
+        <n v="2017"/>
+        <n v="2018"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
   <r>
@@ -7796,6 +9226,1211 @@
   <r>
     <s v="Murl Kunde"/>
     <n v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <x v="4"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <x v="5"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <x v="6"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <x v="7"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <x v="9"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <x v="10"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <x v="11"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <x v="12"/>
+    <x v="5"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <x v="13"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <x v="14"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <x v="15"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <x v="16"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <x v="17"/>
+    <x v="6"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <x v="18"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <x v="20"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <x v="22"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <x v="23"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <x v="25"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <x v="26"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <x v="27"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <x v="28"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <x v="29"/>
+    <x v="6"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <x v="30"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <x v="31"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <x v="32"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <x v="33"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <x v="34"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <x v="35"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <x v="36"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <x v="37"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <x v="38"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <x v="39"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <x v="40"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
+    <n v="24"/>
+    <x v="41"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Daniella Moore DVM"/>
+    <n v="35"/>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <x v="40"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <x v="43"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <x v="44"/>
+    <x v="8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Alexande Huel Jr."/>
+    <n v="35"/>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Judith Lemke MD"/>
+    <n v="34"/>
+    <x v="46"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
+  <r>
+    <s v="Mrs. Skyler Sawayn MD"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Telly Mitchell"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Watson O'Conner"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ruthie Wolff"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Efrain Koch DDS"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Miss. Kristan Flatley"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hollis Murazik m.d."/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr Jacey Schmidt"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Mrs. Caron O'Keefe MD"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Helen Effertz"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr Colter Prosacco"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Frida Waelchi"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Ms. Mari Kling"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Asher Hansen-Heidenreich"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Lovina Marks"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Lakisha Lynch-Gottlieb"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Shepherd Olson"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Katharyn Goodwin"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Philomena Parker Ph.D."/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mae Schuster"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Ancil Blanda"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Coleton Hackett"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Bernadette Pfeffer Ph.D."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Tilla Kris"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Sybilla Hilpert"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Florencio Altenwerth-Ondricka"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mr. Benji Prohaska DVM"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Carolynn Rippin"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Lonnie Stoltenberg"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Ashton Konopelski"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Chaya White"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Lott Terry"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Miss. Madonna Hegmann m.d."/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Davonte Harber"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Eugene Harris"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Garnet Buckridge"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Macarthur Boyer"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Dr Coretta Kuhic"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Chelsie Haag"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Howell Mraz"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Chasity Collier m.d."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ms. Shania Emard"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Kole Walter-Stokes"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Mr Everet Luettgen PhD"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <s v="Archibald D'Amore DVM"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Ms Mertie Lind MD"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Izayah Farrell MD"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Rogers Mraz Jr"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Angeles Hettinger-Bailey"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ms Ardelia Donnelly"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Antone Bartoletti"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Ms. Carlene Wilderman"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Ms. Nya Wehner"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cherelle VonRueden-Berge"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Mrs. Treena Zulauf"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Eliga Reilly"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Jaydon Jast"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Eda Paucek"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Glennie Parker-Schuster"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Leslie Wuckert Jr"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Margarite Ziemann"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Harrold Bednar"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Sylva Jaskolski-Brown"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="Ms Antoinette Rutherford d.d.s."/>
+    <x v="7"/>
+  </r>
+  <r>
+    <s v="Alease VonRueden"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Bunk Durgan-Zemlak"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="Seth Stracke"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Mr. Marvin Murray Sr"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Joyce Kihn"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Mr Infant Auer"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Gee Rau MD"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Roll Dach"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr Casey Boehm m.d."/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Ms. Ruthie Olson DDS"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Rosendo Boyle"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jensen Hane-Macejkovic"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Russel Christiansen MD"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <s v="Jonnie Reichert"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Hal Nienow"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Zechariah Kris-Greenholt"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <d v="2017-04-14T00:00:00"/>
+    <x v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <d v="2018-06-21T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <d v="2018-01-14T00:00:00"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <d v="2017-08-17T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <d v="2018-02-25T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <d v="2017-11-14T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <d v="2017-08-27T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <d v="2017-12-28T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <d v="2017-08-06T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <d v="1997-08-22T00:00:00"/>
+    <x v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <d v="2018-02-16T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <d v="2018-06-30T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <d v="2017-11-28T00:00:00"/>
+    <x v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <d v="2018-03-26T00:00:00"/>
+    <x v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <d v="2018-05-16T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
+    <n v="24"/>
+    <d v="2017-10-27T00:00:00"/>
+    <x v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Daniella Moore DVM"/>
+    <n v="35"/>
+    <d v="2018-03-05T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <d v="2007-06-05T00:00:00"/>
+    <x v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Alexande Huel Jr."/>
+    <n v="35"/>
+    <d v="2017-11-25T00:00:00"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <s v="Judith Lemke MD"/>
+    <n v="34"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="46"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
+  <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
     <d v="2017-11-24T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
@@ -7829,6 +10464,41 @@
     <x v="1"/>
   </r>
   <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
     <s v="Cyndi Shanahan DDS"/>
     <n v="21"/>
     <d v="2018-02-07T00:00:00"/>
@@ -7853,7 +10523,7 @@
     <s v="Etta Stokes-Stanton"/>
     <n v="35"/>
     <d v="2017-06-08T00:00:00"/>
-    <x v="3"/>
+    <x v="8"/>
     <x v="0"/>
   </r>
   <r>
@@ -7888,7 +10558,7 @@
     <s v="Francine Stracke"/>
     <n v="22"/>
     <d v="2018-04-29T00:00:00"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="0"/>
   </r>
   <r>
@@ -7902,7 +10572,7 @@
     <s v="Chiquita Connelly-Anderson"/>
     <n v="20"/>
     <d v="2017-08-17T00:00:00"/>
-    <x v="8"/>
+    <x v="9"/>
     <x v="1"/>
   </r>
   <r>
@@ -7923,7 +10593,381 @@
     <s v="Lainey Schroeder-Volkman"/>
     <n v="22"/>
     <d v="2018-02-25T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Suzie Reichel"/>
+    <n v="35"/>
+    <d v="2018-02-02T00:00:00"/>
+    <x v="4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="Audrina Cassin MD"/>
+    <n v="36"/>
+    <d v="2017-10-28T00:00:00"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Franz Abshire"/>
+    <n v="29"/>
+    <d v="2017-11-14T00:00:00"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Jaydan Turner"/>
+    <n v="37"/>
+    <d v="2018-01-13T00:00:00"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Hayes Osinski"/>
+    <n v="27"/>
+    <d v="2018-04-30T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Crawford Kuhlman III"/>
+    <n v="29"/>
+    <d v="2018-01-13T00:00:00"/>
     <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Cassius Glover"/>
+    <n v="29"/>
+    <d v="2017-08-27T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Furman Bechtelar DVM"/>
+    <n v="28"/>
+    <d v="2017-12-28T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Orvil Altenwerth III"/>
+    <n v="32"/>
+    <d v="2018-04-15T00:00:00"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dollie Brown"/>
+    <n v="32"/>
+    <d v="2017-08-06T00:00:00"/>
+    <x v="11"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Erykah Kessler"/>
+    <n v="41"/>
+    <d v="1997-08-22T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Doyle Runte"/>
+    <n v="22"/>
+    <d v="2018-03-31T00:00:00"/>
+    <x v="12"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Boyd Satterfield I"/>
+    <n v="25"/>
+    <d v="2017-12-20T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Anita Becker"/>
+    <n v="24"/>
+    <d v="2018-02-16T00:00:00"/>
+    <x v="9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="Dennie Turner"/>
+    <n v="32"/>
+    <d v="2018-06-30T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Michell Becker"/>
+    <n v="29"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="10"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Mr. Denzell Sawayn"/>
+    <n v="25"/>
+    <d v="2017-11-28T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Debora Heller PhD"/>
+    <n v="35"/>
+    <d v="2018-03-26T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Deron Tillman"/>
+    <n v="25"/>
+    <d v="2017-10-21T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mitzi DuBuque-Dietrich"/>
+    <n v="27"/>
+    <d v="2018-05-16T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Nancy Homenick"/>
+    <n v="28"/>
+    <d v="2017-12-18T00:00:00"/>
+    <x v="4"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="Shaneka Crist DVM"/>
+    <n v="25"/>
+    <d v="2018-02-24T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gust O'Keefe"/>
+    <n v="29"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="9"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Miss Marjorie Steuber"/>
+    <n v="24"/>
+    <d v="2017-10-27T00:00:00"/>
+    <x v="13"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Daniella Moore DVM"/>
+    <n v="35"/>
+    <d v="2018-03-05T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Vonda McLaughlin"/>
+    <n v="24"/>
+    <d v="2017-07-07T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cornelius Thompson"/>
+    <n v="30"/>
+    <d v="2017-11-15T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Melville Jacobson"/>
+    <n v="24"/>
+    <d v="2007-06-05T00:00:00"/>
+    <x v="10"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Ross Pagac"/>
+    <n v="34"/>
+    <d v="2017-10-14T00:00:00"/>
+    <x v="9"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Alexande Huel Jr."/>
+    <n v="35"/>
+    <d v="2017-11-25T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Judith Lemke MD"/>
+    <n v="34"/>
+    <d v="2018-03-11T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <s v="Murl Kunde"/>
+    <n v="32"/>
+    <d v="2017-11-24T00:00:00"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Breana Ebert"/>
+    <n v="27"/>
+    <d v="2018-03-07T00:00:00"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Dr. Tre Armstrong II"/>
+    <n v="33"/>
+    <d v="2018-04-02T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Beckham Gerhold"/>
+    <n v="27"/>
+    <d v="2018-04-25T00:00:00"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Mr. Elihu Klocko"/>
+    <n v="29"/>
+    <d v="2018-04-07T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Cyndi Shanahan DDS"/>
+    <n v="21"/>
+    <d v="2018-02-07T00:00:00"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Augustin Medhurst"/>
+    <n v="26"/>
+    <d v="2017-09-05T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Alexys Nader"/>
+    <n v="24"/>
+    <d v="2017-07-24T00:00:00"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Etta Stokes-Stanton"/>
+    <n v="35"/>
+    <d v="2017-06-08T00:00:00"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Frieda Kautzer"/>
+    <n v="19"/>
+    <d v="2017-04-14T00:00:00"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Felecia Johnston"/>
+    <n v="28"/>
+    <d v="2018-06-21T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Oral Hackett IV"/>
+    <n v="36"/>
+    <d v="2018-06-25T00:00:00"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Wendell Langosh Jr."/>
+    <n v="30"/>
+    <d v="2018-06-11T00:00:00"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Francine Stracke"/>
+    <n v="22"/>
+    <d v="2018-04-29T00:00:00"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Romona McDermott MD"/>
+    <n v="25"/>
+    <d v="2018-01-14T00:00:00"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Chiquita Connelly-Anderson"/>
+    <n v="20"/>
+    <d v="2017-08-17T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Dr. Soren Goyette MD"/>
+    <n v="25"/>
+    <d v="2018-04-21T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="Gidget Schaefer"/>
+    <n v="29"/>
+    <d v="2017-12-26T00:00:00"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="Lainey Schroeder-Volkman"/>
+    <n v="22"/>
+    <d v="2018-02-25T00:00:00"/>
+    <x v="8"/>
+    <x v="1"/>
     <x v="1"/>
   </r>
   <r>
@@ -7932,6 +10976,7 @@
     <d v="2018-02-02T00:00:00"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Audrina Cassin MD"/>
@@ -7939,6 +10984,7 @@
     <d v="2017-10-28T00:00:00"/>
     <x v="9"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Mr. Franz Abshire"/>
@@ -7946,6 +10992,7 @@
     <d v="2017-11-14T00:00:00"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Jaydan Turner"/>
@@ -7953,6 +11000,7 @@
     <d v="2018-01-13T00:00:00"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Hayes Osinski"/>
@@ -7960,6 +11008,7 @@
     <d v="2018-04-30T00:00:00"/>
     <x v="7"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Crawford Kuhlman III"/>
@@ -7967,6 +11016,7 @@
     <d v="2018-01-13T00:00:00"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Cassius Glover"/>
@@ -7974,6 +11024,7 @@
     <d v="2017-08-27T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Furman Bechtelar DVM"/>
@@ -7981,6 +11032,7 @@
     <d v="2017-12-28T00:00:00"/>
     <x v="5"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Dr. Orvil Altenwerth III"/>
@@ -7988,6 +11040,7 @@
     <d v="2018-04-15T00:00:00"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dollie Brown"/>
@@ -7995,12 +11048,14 @@
     <d v="2017-08-06T00:00:00"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Erykah Kessler"/>
     <n v="41"/>
-    <d v="1997-08-22T00:00:00"/>
+    <d v="2017-08-22T00:00:00"/>
     <x v="7"/>
+    <x v="0"/>
     <x v="0"/>
   </r>
   <r>
@@ -8009,6 +11064,7 @@
     <d v="2018-03-31T00:00:00"/>
     <x v="6"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dr. Boyd Satterfield I"/>
@@ -8016,6 +11072,7 @@
     <d v="2017-12-20T00:00:00"/>
     <x v="8"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Anita Becker"/>
@@ -8023,6 +11080,7 @@
     <d v="2018-02-16T00:00:00"/>
     <x v="8"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Dennie Turner"/>
@@ -8030,6 +11088,7 @@
     <d v="2018-06-30T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Michell Becker"/>
@@ -8037,6 +11096,7 @@
     <d v="2017-11-15T00:00:00"/>
     <x v="9"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Mr. Denzell Sawayn"/>
@@ -8044,6 +11104,7 @@
     <d v="2017-11-28T00:00:00"/>
     <x v="3"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Miss Debora Heller PhD"/>
@@ -8051,6 +11112,7 @@
     <d v="2018-03-26T00:00:00"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Deron Tillman"/>
@@ -8058,6 +11120,7 @@
     <d v="2017-10-21T00:00:00"/>
     <x v="8"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Mitzi DuBuque-Dietrich"/>
@@ -8065,6 +11128,7 @@
     <d v="2018-05-16T00:00:00"/>
     <x v="7"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Nancy Homenick"/>
@@ -8072,6 +11136,7 @@
     <d v="2017-12-18T00:00:00"/>
     <x v="4"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Shaneka Crist DVM"/>
@@ -8079,6 +11144,7 @@
     <d v="2018-02-24T00:00:00"/>
     <x v="8"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Gust O'Keefe"/>
@@ -8086,6 +11152,7 @@
     <d v="2017-07-07T00:00:00"/>
     <x v="8"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Miss Marjorie Steuber"/>
@@ -8093,6 +11160,7 @@
     <d v="2017-10-27T00:00:00"/>
     <x v="5"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Dr. Daniella Moore DVM"/>
@@ -8100,6 +11168,7 @@
     <d v="2018-03-05T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="Vonda McLaughlin"/>
@@ -8107,6 +11176,7 @@
     <d v="2017-07-07T00:00:00"/>
     <x v="7"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Cornelius Thompson"/>
@@ -8114,13 +11184,15 @@
     <d v="2017-11-15T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Melville Jacobson"/>
     <n v="24"/>
-    <d v="2007-06-05T00:00:00"/>
+    <d v="2017-06-05T00:00:00"/>
     <x v="9"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Mr. Ross Pagac"/>
@@ -8128,6 +11200,7 @@
     <d v="2017-10-14T00:00:00"/>
     <x v="8"/>
     <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Dr. Alexande Huel Jr."/>
@@ -8135,6 +11208,7 @@
     <d v="2017-11-25T00:00:00"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="Judith Lemke MD"/>
@@ -8142,1306 +11216,218 @@
     <d v="2018-03-11T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="80">
-  <r>
-    <s v="Mrs. Skyler Sawayn MD"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Telly Mitchell"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Watson O'Conner"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ruthie Wolff"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Efrain Koch DDS"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Miss. Kristan Flatley"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hollis Murazik m.d."/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr Jacey Schmidt"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Mrs. Caron O'Keefe MD"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Helen Effertz"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr Colter Prosacco"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Frida Waelchi"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ms. Mari Kling"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Asher Hansen-Heidenreich"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Lovina Marks"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Lakisha Lynch-Gottlieb"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Shepherd Olson"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Katharyn Goodwin"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Philomena Parker Ph.D."/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mae Schuster"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Ancil Blanda"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Coleton Hackett"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Bernadette Pfeffer Ph.D."/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Tilla Kris"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Sybilla Hilpert"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Florencio Altenwerth-Ondricka"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Mr. Benji Prohaska DVM"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Carolynn Rippin"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Lonnie Stoltenberg"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Ashton Konopelski"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Chaya White"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Lott Terry"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Miss. Madonna Hegmann m.d."/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Davonte Harber"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Eugene Harris"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Garnet Buckridge"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Macarthur Boyer"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Dr Coretta Kuhic"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Chelsie Haag"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Howell Mraz"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Chasity Collier m.d."/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ms. Shania Emard"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Kole Walter-Stokes"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Mr Everet Luettgen PhD"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <s v="Archibald D'Amore DVM"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Ms Mertie Lind MD"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Izayah Farrell MD"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Rogers Mraz Jr"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Angeles Hettinger-Bailey"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ms Ardelia Donnelly"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Antone Bartoletti"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Ms. Carlene Wilderman"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Ms. Nya Wehner"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cherelle VonRueden-Berge"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Mrs. Treena Zulauf"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Eliga Reilly"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Jaydon Jast"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Eda Paucek"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Glennie Parker-Schuster"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Leslie Wuckert Jr"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Margarite Ziemann"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Harrold Bednar"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Sylva Jaskolski-Brown"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <s v="Ms Antoinette Rutherford d.d.s."/>
-    <x v="7"/>
-  </r>
-  <r>
-    <s v="Alease VonRueden"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Bunk Durgan-Zemlak"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <s v="Seth Stracke"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Mr. Marvin Murray Sr"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Joyce Kihn"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Mr Infant Auer"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Gee Rau MD"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Roll Dach"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr Casey Boehm m.d."/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Ms. Ruthie Olson DDS"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Rosendo Boyle"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Jensen Hane-Macejkovic"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Russel Christiansen MD"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <s v="Jonnie Reichert"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Hal Nienow"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Zechariah Kris-Greenholt"/>
-    <x v="3"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
-  <r>
-    <x v="0"/>
-    <n v="2"/>
-    <n v="0.2857142857142857"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <n v="4"/>
-    <n v="0.25"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <n v="8"/>
-    <n v="0.25"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <n v="4"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <n v="15"/>
-    <n v="0.66666666666666663"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <n v="6"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <n v="5"/>
-    <n v="0.75"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <n v="8"/>
-    <n v="0.33333333333333331"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <n v="11"/>
-    <n v="0.66666666666666663"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <n v="17"/>
-    <n v="0.33333333333333331"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
-  <r>
-    <s v="Murl Kunde"/>
-    <n v="32"/>
-    <d v="2017-11-24T00:00:00"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Breana Ebert"/>
-    <n v="27"/>
-    <d v="2018-03-07T00:00:00"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
-    <d v="2018-04-02T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
-    <d v="2018-04-25T00:00:00"/>
-    <x v="3"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <d v="2018-04-07T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cyndi Shanahan DDS"/>
-    <n v="21"/>
-    <d v="2018-02-07T00:00:00"/>
-    <x v="5"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Augustin Medhurst"/>
-    <n v="26"/>
-    <d v="2017-09-05T00:00:00"/>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Alexys Nader"/>
-    <n v="24"/>
-    <d v="2017-07-24T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Etta Stokes-Stanton"/>
-    <n v="35"/>
-    <d v="2017-06-08T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Frieda Kautzer"/>
-    <n v="19"/>
-    <d v="2017-04-14T00:00:00"/>
-    <x v="2"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Felecia Johnston"/>
-    <n v="28"/>
-    <d v="2018-06-21T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Oral Hackett IV"/>
-    <n v="36"/>
-    <d v="2018-06-25T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Wendell Langosh Jr."/>
-    <n v="30"/>
-    <d v="2018-06-11T00:00:00"/>
-    <x v="5"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Francine Stracke"/>
-    <n v="22"/>
-    <d v="2018-04-29T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Romona McDermott MD"/>
-    <n v="25"/>
-    <d v="2018-01-14T00:00:00"/>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Chiquita Connelly-Anderson"/>
-    <n v="20"/>
-    <d v="2017-08-17T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
-    <d v="2018-04-21T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Gidget Schaefer"/>
-    <n v="29"/>
-    <d v="2017-12-26T00:00:00"/>
-    <x v="6"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <d v="2018-02-25T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <d v="2018-02-02T00:00:00"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <d v="2017-10-28T00:00:00"/>
-    <x v="9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <d v="2017-11-14T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <d v="2018-01-13T00:00:00"/>
-    <x v="2"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <d v="2018-04-30T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <d v="2018-01-13T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Cassius Glover"/>
-    <n v="29"/>
-    <d v="2017-08-27T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Furman Bechtelar DVM"/>
-    <n v="28"/>
-    <d v="2017-12-28T00:00:00"/>
-    <x v="5"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Orvil Altenwerth III"/>
-    <n v="32"/>
-    <d v="2018-04-15T00:00:00"/>
-    <x v="1"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dollie Brown"/>
-    <n v="32"/>
-    <d v="2017-08-06T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Erykah Kessler"/>
-    <n v="41"/>
-    <d v="1997-08-22T00:00:00"/>
-    <x v="7"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Doyle Runte"/>
-    <n v="22"/>
-    <d v="2018-03-31T00:00:00"/>
-    <x v="6"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Boyd Satterfield I"/>
-    <n v="25"/>
-    <d v="2017-12-20T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Anita Becker"/>
-    <n v="24"/>
-    <d v="2018-02-16T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Dennie Turner"/>
-    <n v="32"/>
-    <d v="2018-06-30T00:00:00"/>
-    <x v="0"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Michell Becker"/>
-    <n v="29"/>
-    <d v="2017-11-15T00:00:00"/>
-    <x v="9"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Denzell Sawayn"/>
-    <n v="25"/>
-    <d v="2017-11-28T00:00:00"/>
-    <x v="3"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Miss Debora Heller PhD"/>
-    <n v="35"/>
-    <d v="2018-03-26T00:00:00"/>
-    <x v="4"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Deron Tillman"/>
-    <n v="25"/>
-    <d v="2017-10-21T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mitzi DuBuque-Dietrich"/>
-    <n v="27"/>
-    <d v="2018-05-16T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Nancy Homenick"/>
-    <n v="28"/>
-    <d v="2017-12-18T00:00:00"/>
-    <x v="4"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Shaneka Crist DVM"/>
-    <n v="25"/>
-    <d v="2018-02-24T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Gust O'Keefe"/>
-    <n v="29"/>
-    <d v="2017-07-07T00:00:00"/>
-    <x v="8"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Miss Marjorie Steuber"/>
-    <n v="24"/>
-    <d v="2017-10-27T00:00:00"/>
-    <x v="5"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Daniella Moore DVM"/>
-    <n v="35"/>
-    <d v="2018-03-05T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Vonda McLaughlin"/>
-    <n v="24"/>
-    <d v="2017-07-07T00:00:00"/>
-    <x v="7"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Cornelius Thompson"/>
-    <n v="30"/>
-    <d v="2017-11-15T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Melville Jacobson"/>
-    <n v="24"/>
-    <d v="2007-06-05T00:00:00"/>
-    <x v="9"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Ross Pagac"/>
-    <n v="34"/>
-    <d v="2017-10-14T00:00:00"/>
-    <x v="8"/>
-    <n v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Alexande Huel Jr."/>
-    <n v="35"/>
-    <d v="2017-11-25T00:00:00"/>
-    <x v="1"/>
-    <n v="1"/>
-  </r>
-  <r>
-    <s v="Judith Lemke MD"/>
-    <n v="34"/>
-    <d v="2018-03-11T00:00:00"/>
-    <x v="0"/>
-    <n v="0"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="21"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="23"/>
-  </r>
-  <r>
-    <x v="22"/>
-  </r>
-  <r>
-    <x v="24"/>
-  </r>
-  <r>
-    <x v="25"/>
-  </r>
-  <r>
-    <x v="26"/>
-  </r>
-  <r>
-    <x v="27"/>
-  </r>
-  <r>
-    <x v="28"/>
-  </r>
-  <r>
-    <x v="29"/>
-  </r>
-  <r>
-    <x v="30"/>
-  </r>
-  <r>
-    <x v="31"/>
-  </r>
-  <r>
-    <x v="32"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="34"/>
-  </r>
-  <r>
-    <x v="35"/>
-  </r>
-  <r>
-    <x v="36"/>
-  </r>
-  <r>
-    <x v="37"/>
-  </r>
-  <r>
-    <x v="38"/>
-  </r>
-  <r>
-    <x v="39"/>
-  </r>
-  <r>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="41"/>
-  </r>
-  <r>
-    <x v="42"/>
-  </r>
-  <r>
-    <x v="40"/>
-  </r>
-  <r>
-    <x v="33"/>
-  </r>
-  <r>
-    <x v="43"/>
-  </r>
-  <r>
-    <x v="44"/>
-  </r>
-  <r>
-    <x v="45"/>
-  </r>
-  <r>
-    <x v="46"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="55">
-  <r>
-    <s v="Murl Kunde"/>
-    <n v="32"/>
-    <d v="2017-11-24T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Breana Ebert"/>
-    <n v="27"/>
-    <d v="2018-03-07T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
-    <d v="2018-04-02T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
-    <d v="2018-04-25T00:00:00"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <d v="2018-04-07T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Murl Kunde"/>
-    <n v="32"/>
-    <d v="2017-11-24T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Breana Ebert"/>
-    <n v="27"/>
-    <d v="2018-03-07T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Dr. Tre Armstrong II"/>
-    <n v="33"/>
-    <d v="2018-04-02T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Beckham Gerhold"/>
-    <n v="27"/>
-    <d v="2018-04-25T00:00:00"/>
-    <x v="3"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Elihu Klocko"/>
-    <n v="29"/>
-    <d v="2018-04-07T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cyndi Shanahan DDS"/>
-    <n v="21"/>
-    <d v="2018-02-07T00:00:00"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Augustin Medhurst"/>
-    <n v="26"/>
-    <d v="2017-09-05T00:00:00"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Alexys Nader"/>
-    <n v="24"/>
-    <d v="2017-07-24T00:00:00"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Etta Stokes-Stanton"/>
-    <n v="35"/>
-    <d v="2017-06-08T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Frieda Kautzer"/>
-    <n v="19"/>
-    <d v="2017-04-14T00:00:00"/>
-    <x v="2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Felecia Johnston"/>
-    <n v="28"/>
-    <d v="2018-06-21T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Oral Hackett IV"/>
-    <n v="36"/>
-    <d v="2018-06-25T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Wendell Langosh Jr."/>
-    <n v="30"/>
-    <d v="2018-06-11T00:00:00"/>
-    <x v="5"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Francine Stracke"/>
-    <n v="22"/>
-    <d v="2018-04-29T00:00:00"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Romona McDermott MD"/>
-    <n v="25"/>
-    <d v="2018-01-14T00:00:00"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Chiquita Connelly-Anderson"/>
-    <n v="20"/>
-    <d v="2017-08-17T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Soren Goyette MD"/>
-    <n v="25"/>
-    <d v="2018-04-21T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Gidget Schaefer"/>
-    <n v="29"/>
-    <d v="2017-12-26T00:00:00"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Lainey Schroeder-Volkman"/>
-    <n v="22"/>
-    <d v="2018-02-25T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Suzie Reichel"/>
-    <n v="35"/>
-    <d v="2018-02-02T00:00:00"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <s v="Audrina Cassin MD"/>
-    <n v="36"/>
-    <d v="2017-10-28T00:00:00"/>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Franz Abshire"/>
-    <n v="29"/>
-    <d v="2017-11-14T00:00:00"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Jaydan Turner"/>
-    <n v="37"/>
-    <d v="2018-01-13T00:00:00"/>
-    <x v="2"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Hayes Osinski"/>
-    <n v="27"/>
-    <d v="2018-04-30T00:00:00"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Crawford Kuhlman III"/>
-    <n v="29"/>
-    <d v="2018-01-13T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Cassius Glover"/>
-    <n v="29"/>
-    <d v="2017-08-27T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Furman Bechtelar DVM"/>
-    <n v="28"/>
-    <d v="2017-12-28T00:00:00"/>
-    <x v="5"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Orvil Altenwerth III"/>
-    <n v="32"/>
-    <d v="2018-04-15T00:00:00"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dollie Brown"/>
-    <n v="32"/>
-    <d v="2017-08-06T00:00:00"/>
-    <x v="11"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Erykah Kessler"/>
-    <n v="41"/>
-    <d v="1997-08-22T00:00:00"/>
-    <x v="7"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Doyle Runte"/>
-    <n v="22"/>
-    <d v="2018-03-31T00:00:00"/>
-    <x v="12"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Boyd Satterfield I"/>
-    <n v="25"/>
-    <d v="2017-12-20T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Anita Becker"/>
-    <n v="24"/>
-    <d v="2018-02-16T00:00:00"/>
-    <x v="9"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <s v="Dennie Turner"/>
-    <n v="32"/>
-    <d v="2018-06-30T00:00:00"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Michell Becker"/>
-    <n v="29"/>
-    <d v="2017-11-15T00:00:00"/>
-    <x v="10"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Mr. Denzell Sawayn"/>
-    <n v="25"/>
-    <d v="2017-11-28T00:00:00"/>
-    <x v="8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Debora Heller PhD"/>
-    <n v="35"/>
-    <d v="2018-03-26T00:00:00"/>
-    <x v="4"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Deron Tillman"/>
-    <n v="25"/>
-    <d v="2017-10-21T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mitzi DuBuque-Dietrich"/>
-    <n v="27"/>
-    <d v="2018-05-16T00:00:00"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Nancy Homenick"/>
-    <n v="28"/>
-    <d v="2017-12-18T00:00:00"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <s v="Shaneka Crist DVM"/>
-    <n v="25"/>
-    <d v="2018-02-24T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Gust O'Keefe"/>
-    <n v="29"/>
-    <d v="2017-07-07T00:00:00"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Miss Marjorie Steuber"/>
-    <n v="24"/>
-    <d v="2017-10-27T00:00:00"/>
-    <x v="13"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Daniella Moore DVM"/>
-    <n v="35"/>
-    <d v="2018-03-05T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Vonda McLaughlin"/>
-    <n v="24"/>
-    <d v="2017-07-07T00:00:00"/>
-    <x v="7"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Cornelius Thompson"/>
-    <n v="30"/>
-    <d v="2017-11-15T00:00:00"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Melville Jacobson"/>
-    <n v="24"/>
-    <d v="2007-06-05T00:00:00"/>
-    <x v="10"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Mr. Ross Pagac"/>
-    <n v="34"/>
-    <d v="2017-10-14T00:00:00"/>
-    <x v="9"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="Dr. Alexande Huel Jr."/>
-    <n v="35"/>
-    <d v="2017-11-25T00:00:00"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <s v="Judith Lemke MD"/>
-    <n v="34"/>
-    <d v="2018-03-11T00:00:00"/>
-    <x v="0"/>
     <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8E6F81B2-B4C4-4433-8564-E13E5FBAE267}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Programs">
+  <location ref="G3:H14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="staff count" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -9526,7 +11512,7 @@
     <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="7">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9535,7 +11521,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9544,7 +11530,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9553,7 +11539,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9613,87 +11599,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -9836,7 +11742,7 @@
     <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="9">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9845,7 +11751,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -9878,7 +11784,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
@@ -9956,7 +11862,7 @@
     <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="12">
+    <format dxfId="40">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9965,7 +11871,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="39">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -9974,7 +11880,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="1">
@@ -10007,7 +11913,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -10026,124 +11932,6 @@
   <dataFields count="1">
     <dataField name="Average of age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10245,7 +12033,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -10387,7 +12175,7 @@
     </dataField>
   </dataFields>
   <formats count="3">
-    <format dxfId="2">
+    <format dxfId="22">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10399,7 +12187,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -10411,7 +12199,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="24">
       <pivotArea dataOnly="0" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -10434,21 +12222,72 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C7E8ECE4-0EBA-48C7-B8A4-0F72290F0001}" name="PivotTable16" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:A4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -10463,39 +12302,416 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C531E27B-71EA-462D-8308-9C201C8A2341}" name="PivotTable19" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" includeNewItemsInFilter="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E52A3FAF-5430-4F6E-B896-232940CED406}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
       <items count="11">
         <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item h="1" x="5"/>
-        <item x="6"/>
-        <item h="1" x="7"/>
-        <item h="1" x="8"/>
         <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
-    <dataField name="Average of ret rate" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Count of ret" fld="4" subtotal="count" baseField="3" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
   </dataFields>
+  <formats count="20">
+    <format dxfId="19">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="13">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="11">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="10">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="9">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="3">
+          <reference field="3" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="5" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -10514,7 +12730,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C812EC4-1D21-4A20-AACC-3D8067BDB6E7}" name="client_names"/>
     <tableColumn id="2" xr3:uid="{32DFF5D8-1553-4D48-B733-5DE20CC2AE51}" name="age"/>
-    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="28"/>
     <tableColumn id="4" xr3:uid="{71582D88-5DAB-4152-AE0B-5CEFB5FAB47E}" name="programs"/>
     <tableColumn id="5" xr3:uid="{BCDEF0D6-673B-4849-B3E5-B378327051C7}" name="ret"/>
   </tableColumns>
@@ -10528,6 +12744,23 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BCB77C64-9619-4D65-AF5A-9B01263671BA}" name="staff"/>
     <tableColumn id="2" xr3:uid="{B57834EF-8A14-453F-BDAB-1793E81A1B1D}" name="prg"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{16BA0611-A4F6-4F57-A9D5-066DB138A5C9}" name="Table14" displayName="Table14" ref="U1:Z51" totalsRowShown="0">
+  <autoFilter ref="U1:Z51" xr:uid="{16BA0611-A4F6-4F57-A9D5-066DB138A5C9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{5274F79A-C733-4538-959B-108EBE859F16}" name="client_names"/>
+    <tableColumn id="2" xr3:uid="{AA1CC566-36D8-43BE-AC51-E96AC3BACE89}" name="age"/>
+    <tableColumn id="3" xr3:uid="{B61A1EC3-7C5B-489F-B582-8AA65FE7282D}" name="dt" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{826EAD0A-7A59-4B30-A33B-9715EBF15597}" name="programs"/>
+    <tableColumn id="5" xr3:uid="{D1EED26A-D043-437E-BE00-FA80072D5269}" name="ret"/>
+    <tableColumn id="6" xr3:uid="{F60D58A3-D0E9-4262-B243-2DCA694F8735}" name="YEAR(dt)" dataDxfId="20">
+      <calculatedColumnFormula>YEAR(Table14[[#This Row],[dt]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10866,7 +13099,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -12801,12 +15034,12 @@
         <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -12814,7 +15047,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -12822,7 +15055,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -12830,7 +15063,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B33">
         <v>29</v>
@@ -12854,8 +15087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A311EE96-515E-4E71-AE25-43A4EF9BE97D}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12877,7 +15110,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -14298,8 +16531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA88D4E6-102F-4EC2-B3DB-C67C3776A97B}">
   <dimension ref="A2:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14551,10 +16784,10 @@
         <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -14808,135 +17041,34 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05168B3-E310-4930-9F6B-F6ECC17563F8}">
-  <dimension ref="A1:F35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85041920-414B-4D61-ACDA-5065FB121429}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>SUM('Lab Task23'!F4:F13)/10</f>
         <v>0.42023809523809524</v>
       </c>
-      <c r="C4">
+      <c r="E2">
+        <f>SUM('Lab Task23'!F4,'Lab Task23'!F7,'Lab Task23'!F8,'Lab Task23'!F10,'Lab Task23'!F13)/5</f>
         <v>0.47380952380952379</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="6"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F35" s="6"/>
-    </row>
   </sheetData>
-  <dataConsolidate function="var"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -14946,7 +17078,7 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14960,16 +17092,16 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15111,4 +17243,1840 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625428BA-622F-4059-9BDC-96508CD558EE}">
+  <dimension ref="A1:Z51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>177</v>
+      </c>
+      <c r="X1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>181</v>
+      </c>
+      <c r="U2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2">
+        <v>32</v>
+      </c>
+      <c r="W2" s="1">
+        <v>43063</v>
+      </c>
+      <c r="X2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>184</v>
+      </c>
+      <c r="J3" t="s">
+        <v>185</v>
+      </c>
+      <c r="U3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3">
+        <v>27</v>
+      </c>
+      <c r="W3" s="1">
+        <v>43166</v>
+      </c>
+      <c r="X3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J4">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>33</v>
+      </c>
+      <c r="W4" s="1">
+        <v>43192</v>
+      </c>
+      <c r="X4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1,"YEAR(dt)",2017)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5">
+        <v>27</v>
+      </c>
+      <c r="W5" s="1">
+        <v>43215</v>
+      </c>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="G6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>29</v>
+      </c>
+      <c r="W6" s="1">
+        <v>43197</v>
+      </c>
+      <c r="X6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="G7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V7">
+        <v>21</v>
+      </c>
+      <c r="W7" s="1">
+        <v>43138</v>
+      </c>
+      <c r="X7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="G8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1,"YEAR(dt)",2018)</f>
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <v>26</v>
+      </c>
+      <c r="W8" s="1">
+        <v>42983</v>
+      </c>
+      <c r="X8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y8">
+        <v>1</v>
+      </c>
+      <c r="Z8">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="G9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1,"YEAR(dt)",2017)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9">
+        <v>24</v>
+      </c>
+      <c r="W9" s="1">
+        <v>42940</v>
+      </c>
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>18</v>
+      </c>
+      <c r="V10">
+        <v>35</v>
+      </c>
+      <c r="W10" s="1">
+        <v>42894</v>
+      </c>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y10">
+        <v>1</v>
+      </c>
+      <c r="Z10">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="G11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J11">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2018)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V11">
+        <v>19</v>
+      </c>
+      <c r="W11" s="1">
+        <v>42839</v>
+      </c>
+      <c r="X11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="I12">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>22</v>
+      </c>
+      <c r="V12">
+        <v>28</v>
+      </c>
+      <c r="W12" s="1">
+        <v>43272</v>
+      </c>
+      <c r="X12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="G13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>17</v>
+      </c>
+      <c r="I13">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>23</v>
+      </c>
+      <c r="V13">
+        <v>36</v>
+      </c>
+      <c r="W13" s="1">
+        <v>43276</v>
+      </c>
+      <c r="X13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="G14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14">
+        <v>80</v>
+      </c>
+      <c r="U14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14">
+        <v>30</v>
+      </c>
+      <c r="W14" s="1">
+        <v>43262</v>
+      </c>
+      <c r="X14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14">
+        <v>1</v>
+      </c>
+      <c r="Z14">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>0</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="U15" t="s">
+        <v>25</v>
+      </c>
+      <c r="V15">
+        <v>22</v>
+      </c>
+      <c r="W15" s="1">
+        <v>43219</v>
+      </c>
+      <c r="X15" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="G16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H16" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" t="s">
+        <v>184</v>
+      </c>
+      <c r="J16" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>168</v>
+      </c>
+      <c r="U16" t="s">
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <v>25</v>
+      </c>
+      <c r="W16" s="1">
+        <v>43114</v>
+      </c>
+      <c r="X16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
+      <c r="Z16">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J17">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","am","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.25</v>
+      </c>
+      <c r="U17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V17">
+        <v>20</v>
+      </c>
+      <c r="W17" s="1">
+        <v>42964</v>
+      </c>
+      <c r="X17" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>0</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1,"YEAR(dt)",2017)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","bcs","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U18" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18">
+        <v>25</v>
+      </c>
+      <c r="W18" s="1">
+        <v>43211</v>
+      </c>
+      <c r="X18" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="G19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
+      </c>
+      <c r="I19">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J19">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","brave","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.2</v>
+      </c>
+      <c r="U19" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19">
+        <v>29</v>
+      </c>
+      <c r="W19" s="1">
+        <v>43095</v>
+      </c>
+      <c r="X19" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19">
+        <v>1</v>
+      </c>
+      <c r="Z19">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J20">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","challenge","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20">
+        <v>22</v>
+      </c>
+      <c r="W20" s="1">
+        <v>43156</v>
+      </c>
+      <c r="X20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>0</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="G21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","dbt","ret",1,"YEAR(dt)",2018)</f>
+        <v>0</v>
+      </c>
+      <c r="U21" t="s">
+        <v>33</v>
+      </c>
+      <c r="V21">
+        <v>35</v>
+      </c>
+      <c r="W21" s="1">
+        <v>43133</v>
+      </c>
+      <c r="X21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="G22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1,"YEAR(dt)",2017)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","mhsd","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U22" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22">
+        <v>36</v>
+      </c>
+      <c r="W22" s="1">
+        <v>43036</v>
+      </c>
+      <c r="X22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="G23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","rdap","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23">
+        <v>29</v>
+      </c>
+      <c r="W23" s="1">
+        <v>43053</v>
+      </c>
+      <c r="X23" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>0</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="G24" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J24">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2018)</f>
+        <v>0</v>
+      </c>
+      <c r="U24" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24">
+        <v>37</v>
+      </c>
+      <c r="W24" s="1">
+        <v>43113</v>
+      </c>
+      <c r="X24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" s="8">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25">
+        <v>11</v>
+      </c>
+      <c r="I25">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1,"YEAR(dt)",2017)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","sotrt","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25">
+        <v>27</v>
+      </c>
+      <c r="W25" s="1">
+        <v>43220</v>
+      </c>
+      <c r="X25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="G26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>17</v>
+      </c>
+      <c r="I26">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1,"YEAR(dt)",2017)</f>
+        <v>0.2</v>
+      </c>
+      <c r="J26">
+        <f>GETPIVOTDATA("ret",$A$3,"programs","stages","ret",1,"YEAR(dt)",2018)</f>
+        <v>0.5</v>
+      </c>
+      <c r="U26" t="s">
+        <v>38</v>
+      </c>
+      <c r="V26">
+        <v>29</v>
+      </c>
+      <c r="W26" s="1">
+        <v>43113</v>
+      </c>
+      <c r="X26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>0</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="U27" t="s">
+        <v>39</v>
+      </c>
+      <c r="V27">
+        <v>29</v>
+      </c>
+      <c r="W27" s="1">
+        <v>42974</v>
+      </c>
+      <c r="X27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="U28" t="s">
+        <v>40</v>
+      </c>
+      <c r="V28">
+        <v>28</v>
+      </c>
+      <c r="W28" s="1">
+        <v>43097</v>
+      </c>
+      <c r="X28" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="U29" t="s">
+        <v>41</v>
+      </c>
+      <c r="V29">
+        <v>32</v>
+      </c>
+      <c r="W29" s="1">
+        <v>43205</v>
+      </c>
+      <c r="X29" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="U30" t="s">
+        <v>43</v>
+      </c>
+      <c r="V30">
+        <v>32</v>
+      </c>
+      <c r="W30" s="1">
+        <v>42953</v>
+      </c>
+      <c r="X30" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>1</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="U31" t="s">
+        <v>45</v>
+      </c>
+      <c r="V31">
+        <v>41</v>
+      </c>
+      <c r="W31" s="1">
+        <v>42969</v>
+      </c>
+      <c r="X31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y31">
+        <v>1</v>
+      </c>
+      <c r="Z31">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="U32" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32">
+        <v>22</v>
+      </c>
+      <c r="W32" s="1">
+        <v>43190</v>
+      </c>
+      <c r="X32" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>0</v>
+      </c>
+      <c r="B33" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="U33" t="s">
+        <v>47</v>
+      </c>
+      <c r="V33">
+        <v>25</v>
+      </c>
+      <c r="W33" s="1">
+        <v>43089</v>
+      </c>
+      <c r="X33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>1</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="U34" t="s">
+        <v>48</v>
+      </c>
+      <c r="V34">
+        <v>24</v>
+      </c>
+      <c r="W34" s="1">
+        <v>43147</v>
+      </c>
+      <c r="X34" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+      <c r="Z34">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="6">
+        <v>1</v>
+      </c>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="U35" t="s">
+        <v>50</v>
+      </c>
+      <c r="V35">
+        <v>32</v>
+      </c>
+      <c r="W35" s="1">
+        <v>43281</v>
+      </c>
+      <c r="X35" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y35">
+        <v>1</v>
+      </c>
+      <c r="Z35">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U36" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36">
+        <v>29</v>
+      </c>
+      <c r="W36" s="1">
+        <v>43054</v>
+      </c>
+      <c r="X36" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y36">
+        <v>1</v>
+      </c>
+      <c r="Z36">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U37" t="s">
+        <v>52</v>
+      </c>
+      <c r="V37">
+        <v>25</v>
+      </c>
+      <c r="W37" s="1">
+        <v>43067</v>
+      </c>
+      <c r="X37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>53</v>
+      </c>
+      <c r="V38">
+        <v>35</v>
+      </c>
+      <c r="W38" s="1">
+        <v>43185</v>
+      </c>
+      <c r="X38" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>54</v>
+      </c>
+      <c r="V39">
+        <v>25</v>
+      </c>
+      <c r="W39" s="1">
+        <v>43029</v>
+      </c>
+      <c r="X39" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>55</v>
+      </c>
+      <c r="V40">
+        <v>27</v>
+      </c>
+      <c r="W40" s="1">
+        <v>43236</v>
+      </c>
+      <c r="X40" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U41" t="s">
+        <v>56</v>
+      </c>
+      <c r="V41">
+        <v>28</v>
+      </c>
+      <c r="W41" s="1">
+        <v>43087</v>
+      </c>
+      <c r="X41" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U42" t="s">
+        <v>57</v>
+      </c>
+      <c r="V42">
+        <v>25</v>
+      </c>
+      <c r="W42" s="1">
+        <v>43155</v>
+      </c>
+      <c r="X42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43">
+        <v>29</v>
+      </c>
+      <c r="W43" s="1">
+        <v>42923</v>
+      </c>
+      <c r="X43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y43">
+        <v>1</v>
+      </c>
+      <c r="Z43">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>59</v>
+      </c>
+      <c r="V44">
+        <v>24</v>
+      </c>
+      <c r="W44" s="1">
+        <v>43035</v>
+      </c>
+      <c r="X44" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U45" t="s">
+        <v>61</v>
+      </c>
+      <c r="V45">
+        <v>35</v>
+      </c>
+      <c r="W45" s="1">
+        <v>43164</v>
+      </c>
+      <c r="X45" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>62</v>
+      </c>
+      <c r="V46">
+        <v>24</v>
+      </c>
+      <c r="W46" s="1">
+        <v>42923</v>
+      </c>
+      <c r="X46" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U47" t="s">
+        <v>63</v>
+      </c>
+      <c r="V47">
+        <v>30</v>
+      </c>
+      <c r="W47" s="1">
+        <v>43054</v>
+      </c>
+      <c r="X47" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>64</v>
+      </c>
+      <c r="V48">
+        <v>24</v>
+      </c>
+      <c r="W48" s="1">
+        <v>42891</v>
+      </c>
+      <c r="X48" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="49" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U49" t="s">
+        <v>65</v>
+      </c>
+      <c r="V49">
+        <v>34</v>
+      </c>
+      <c r="W49" s="1">
+        <v>43022</v>
+      </c>
+      <c r="X49" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="50" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>66</v>
+      </c>
+      <c r="V50">
+        <v>35</v>
+      </c>
+      <c r="W50" s="1">
+        <v>43064</v>
+      </c>
+      <c r="X50" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y50">
+        <v>1</v>
+      </c>
+      <c r="Z50">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="21:26" x14ac:dyDescent="0.25">
+      <c r="U51" t="s">
+        <v>67</v>
+      </c>
+      <c r="V51">
+        <v>34</v>
+      </c>
+      <c r="W51" s="1">
+        <v>43170</v>
+      </c>
+      <c r="X51" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <f>YEAR(Table14[[#This Row],[dt]])</f>
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_data/case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E26F8D6-CB84-451D-8820-A46A13A3E941}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A425F8-62F2-48DC-98B5-E5E826BFF97B}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
@@ -29,12 +29,12 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId10"/>
     <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="4" r:id="rId12"/>
-    <pivotCache cacheId="5" r:id="rId13"/>
-    <pivotCache cacheId="6" r:id="rId14"/>
-    <pivotCache cacheId="13" r:id="rId15"/>
+    <pivotCache cacheId="3" r:id="rId12"/>
+    <pivotCache cacheId="4" r:id="rId13"/>
+    <pivotCache cacheId="5" r:id="rId14"/>
+    <pivotCache cacheId="7" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="192">
   <si>
     <t>client_names</t>
   </si>
@@ -612,6 +612,24 @@
   <si>
     <t>ret rate (2018)</t>
   </si>
+  <si>
+    <t>weights (2017)</t>
+  </si>
+  <si>
+    <t>weights (2018)</t>
+  </si>
+  <si>
+    <t>Weighted Average 10 programs (2017)</t>
+  </si>
+  <si>
+    <t>Weighted Average 10 programs (2018)</t>
+  </si>
+  <si>
+    <t>Weighted Average 5 programs (2017)</t>
+  </si>
+  <si>
+    <t>Weighted Average 5 programs (2018)</t>
+  </si>
 </sst>
 </file>
 
@@ -1100,7 +1118,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1118,6 +1136,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1163,7 +1182,13 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1305,26 +1330,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -1341,13 +1346,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -11222,111 +11220,24 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <rowItems count="1">
+    <i/>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
+    <dataField name="Average of age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11427,882 +11338,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="13"/>
-        <item x="4"/>
-        <item x="11"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="2"/>
-        <item x="8"/>
-        <item x="3"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="15">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="10"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="44"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="33"/>
-        <item x="0"/>
-        <item x="45"/>
-        <item x="34"/>
-        <item x="38"/>
-        <item x="30"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="31"/>
-        <item x="39"/>
-        <item x="18"/>
-        <item x="42"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="23"/>
-        <item x="37"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="32"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="25">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
-        <item x="6"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69DFE558-44F1-4255-85E0-5603F9A3D9C1}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Programs">
-  <location ref="D3:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="5"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="staff count" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item m="1" x="10"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="31">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of ret" fld="4" subtotal="count" baseField="3" baseItem="0" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfParentRow"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="22">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="2">
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea dataOnly="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="11">
-        <item x="0"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="9"/>
-        <item x="1"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E52A3FAF-5430-4F6E-B896-232940CED406}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E52A3FAF-5430-4F6E-B896-232940CED406}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -12461,7 +11498,7 @@
     </dataField>
   </dataFields>
   <formats count="20">
-    <format dxfId="19">
+    <format dxfId="21">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12474,7 +11511,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12486,7 +11523,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="19">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12499,7 +11536,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12511,7 +11548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="17">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12524,7 +11561,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12536,7 +11573,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="15">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12549,7 +11586,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12561,7 +11598,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="13">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12574,7 +11611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12586,7 +11623,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="11">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12599,7 +11636,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12611,7 +11648,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12624,7 +11661,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12636,7 +11673,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12649,7 +11686,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12661,7 +11698,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12674,7 +11711,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12686,7 +11723,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="3" count="1" selected="0">
@@ -12699,7 +11736,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="3" count="1" selected="0">
@@ -12724,13 +11761,1072 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="13"/>
+        <item x="4"/>
+        <item x="11"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="48">
+        <item x="28"/>
+        <item x="43"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="42"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="25">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="14">
+        <item x="6"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{69DFE558-44F1-4255-85E0-5603F9A3D9C1}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Programs">
+  <location ref="D3:E14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="5"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="staff count" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E0959C41-F0CD-4094-B6C2-07B7656F42CB}" name="PivotTable12" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item m="1" x="10"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of ret" fld="4" subtotal="count" baseField="3" baseItem="0" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfParentRow"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="24">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E4EA5A56-04A3-4340-8CB2-F1B0DEAAB37C}" name="PivotTable20" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Clients Served" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{015DAE7A-17B5-408F-80AF-68680B1C977B}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A38:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Clients Served" fld="3" subtotal="count" baseField="3" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F061CD81-9E88-4568-85F2-99F0627C4384}" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <autoFilter ref="A1:E51" xr:uid="{F061CD81-9E88-4568-85F2-99F0627C4384}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{9C812EC4-1D21-4A20-AACC-3D8067BDB6E7}" name="client_names"/>
     <tableColumn id="2" xr3:uid="{32DFF5D8-1553-4D48-B733-5DE20CC2AE51}" name="age"/>
-    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{4B3AA37A-B124-4862-925F-7F1A03806C4E}" name="dt" dataDxfId="25"/>
     <tableColumn id="4" xr3:uid="{71582D88-5DAB-4152-AE0B-5CEFB5FAB47E}" name="programs"/>
     <tableColumn id="5" xr3:uid="{BCDEF0D6-673B-4849-B3E5-B378327051C7}" name="ret"/>
   </tableColumns>
@@ -12755,10 +12851,10 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{5274F79A-C733-4538-959B-108EBE859F16}" name="client_names"/>
     <tableColumn id="2" xr3:uid="{AA1CC566-36D8-43BE-AC51-E96AC3BACE89}" name="age"/>
-    <tableColumn id="3" xr3:uid="{B61A1EC3-7C5B-489F-B582-8AA65FE7282D}" name="dt" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{B61A1EC3-7C5B-489F-B582-8AA65FE7282D}" name="dt" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{826EAD0A-7A59-4B30-A33B-9715EBF15597}" name="programs"/>
     <tableColumn id="5" xr3:uid="{D1EED26A-D043-437E-BE00-FA80072D5269}" name="ret"/>
-    <tableColumn id="6" xr3:uid="{F60D58A3-D0E9-4262-B243-2DCA694F8735}" name="YEAR(dt)" dataDxfId="20">
+    <tableColumn id="6" xr3:uid="{F60D58A3-D0E9-4262-B243-2DCA694F8735}" name="YEAR(dt)" dataDxfId="0">
       <calculatedColumnFormula>YEAR(Table14[[#This Row],[dt]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17078,7 +17174,7 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17249,17 +17345,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625428BA-622F-4059-9BDC-96508CD558EE}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.140625" bestFit="1" customWidth="1"/>
@@ -18779,6 +18875,12 @@
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="U38" t="s">
         <v>53</v>
       </c>
@@ -18800,6 +18902,30 @@
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>2017</v>
+      </c>
+      <c r="C39">
+        <v>2018</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" t="s">
+        <v>187</v>
+      </c>
+      <c r="H39" t="s">
+        <v>188</v>
+      </c>
+      <c r="L39" t="s">
+        <v>190</v>
+      </c>
       <c r="U39" t="s">
         <v>54</v>
       </c>
@@ -18821,6 +18947,34 @@
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="9">
+        <v>3</v>
+      </c>
+      <c r="C40" s="9">
+        <v>4</v>
+      </c>
+      <c r="D40" s="9">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","am","YEAR(dt)",2017)*I4</f>
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","am","YEAR(dt)",2018)*J4</f>
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f>SUM(E40:E49)/GETPIVOTDATA("programs",$A$38,"YEAR(dt)",2017)</f>
+        <v>0.4</v>
+      </c>
+      <c r="L40">
+        <f>SUM(E40,E43,E44,E46,E49)/SUM(B40,B43,B44,B46,B49)</f>
+        <v>0.46666666666666667</v>
+      </c>
       <c r="U40" t="s">
         <v>55</v>
       </c>
@@ -18842,6 +18996,32 @@
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="9">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>2</v>
+      </c>
+      <c r="D41" s="9">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","bcs","YEAR(dt)",2017)*I5</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","bcs","YEAR(dt)",2018)*J5</f>
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>189</v>
+      </c>
+      <c r="L41" t="s">
+        <v>191</v>
+      </c>
       <c r="U41" t="s">
         <v>56</v>
       </c>
@@ -18863,6 +19043,34 @@
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="9">
+        <v>3</v>
+      </c>
+      <c r="C42" s="9">
+        <v>5</v>
+      </c>
+      <c r="D42" s="9">
+        <v>8</v>
+      </c>
+      <c r="E42">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","brave","YEAR(dt)",2017)*I6</f>
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","brave","YEAR(dt)",2018)*J6</f>
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <f>SUM(F40:F49)/GETPIVOTDATA("programs",$A$38,"YEAR(dt)",2018)</f>
+        <v>0.36</v>
+      </c>
+      <c r="L42">
+        <f>SUM(F40,F43,F44,F46,F49)/SUM(C40,C43,C44,C46,C49)</f>
+        <v>0.35714285714285715</v>
+      </c>
       <c r="U42" t="s">
         <v>57</v>
       </c>
@@ -18884,6 +19092,26 @@
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="9">
+        <v>3</v>
+      </c>
+      <c r="C43" s="9">
+        <v>3</v>
+      </c>
+      <c r="D43" s="9">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","challenge","YEAR(dt)",2017)*I7</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","challenge","YEAR(dt)",2018)*J7</f>
+        <v>1</v>
+      </c>
       <c r="U43" t="s">
         <v>58</v>
       </c>
@@ -18905,6 +19133,26 @@
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="9">
+        <v>2</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1</v>
+      </c>
+      <c r="D44" s="9">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","dbt","YEAR(dt)",2017)*I8</f>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","dbt","YEAR(dt)",2018)*J8</f>
+        <v>0</v>
+      </c>
       <c r="U44" t="s">
         <v>59</v>
       </c>
@@ -18926,6 +19174,26 @@
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9">
+        <v>1</v>
+      </c>
+      <c r="C45" s="9">
+        <v>2</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","mhsd","YEAR(dt)",2017)*I9</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","mhsd","YEAR(dt)",2018)*J9</f>
+        <v>1</v>
+      </c>
       <c r="U45" t="s">
         <v>61</v>
       </c>
@@ -18947,6 +19215,26 @@
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2</v>
+      </c>
+      <c r="C46" s="9">
+        <v>2</v>
+      </c>
+      <c r="D46" s="9">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","rdap","YEAR(dt)",2017)*I10</f>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","rdap","YEAR(dt)",2018)*J10</f>
+        <v>1</v>
+      </c>
       <c r="U46" t="s">
         <v>62</v>
       </c>
@@ -18968,6 +19256,24 @@
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="9">
+        <v>3</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","resolve","YEAR(dt)",2017)*I11</f>
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","resolve","YEAR(dt)",2018)*J11</f>
+        <v>0</v>
+      </c>
       <c r="U47" t="s">
         <v>63</v>
       </c>
@@ -18989,6 +19295,26 @@
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="9">
+        <v>1</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2</v>
+      </c>
+      <c r="D48" s="9">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","sotrt","YEAR(dt)",2017)*I12</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","sotrt","YEAR(dt)",2018)*J12</f>
+        <v>1</v>
+      </c>
       <c r="U48" t="s">
         <v>64</v>
       </c>
@@ -19009,7 +19335,27 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="9">
+        <v>5</v>
+      </c>
+      <c r="C49" s="9">
+        <v>4</v>
+      </c>
+      <c r="D49" s="9">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","stages","YEAR(dt)",2017)*I13</f>
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f>GETPIVOTDATA("programs",$A$38,"programs","stages","YEAR(dt)",2018)*J13</f>
+        <v>2</v>
+      </c>
       <c r="U49" t="s">
         <v>65</v>
       </c>
@@ -19030,7 +19376,19 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" s="9">
+        <v>25</v>
+      </c>
+      <c r="C50" s="9">
+        <v>25</v>
+      </c>
+      <c r="D50" s="9">
+        <v>50</v>
+      </c>
       <c r="U50" t="s">
         <v>66</v>
       </c>
@@ -19051,7 +19409,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="21:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
       <c r="U51" t="s">
         <v>67</v>
       </c>
@@ -19074,9 +19432,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_data/case_study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_casestudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2A425F8-62F2-48DC-98B5-E5E826BFF97B}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2193EA2D-0076-439D-8452-D82E25F8B4FB}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <pivotCache cacheId="3" r:id="rId12"/>
     <pivotCache cacheId="4" r:id="rId13"/>
     <pivotCache cacheId="5" r:id="rId14"/>
-    <pivotCache cacheId="7" r:id="rId15"/>
+    <pivotCache cacheId="6" r:id="rId15"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1118,7 +1118,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1136,7 +1136,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3982,9 +3981,6 @@
                 <c:pt idx="6">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="8">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -11220,24 +11216,122 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="14">
+        <item x="6"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
   </rowItems>
   <colItems count="1">
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="3">
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -11339,7 +11433,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E52A3FAF-5430-4F6E-B896-232940CED406}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E52A3FAF-5430-4F6E-B896-232940CED406}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D35" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -11762,6 +11856,37 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="5">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of age" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -11810,7 +11935,7 @@
     <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="28">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -11819,7 +11944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="30">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -11828,7 +11953,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -11879,7 +12004,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -11964,7 +12089,7 @@
     <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="32">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11973,7 +12098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11982,7 +12107,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -11991,7 +12116,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12051,7 +12176,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
@@ -12194,7 +12319,7 @@
     <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="34">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12203,7 +12328,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12215,135 +12340,6 @@
   </formats>
   <chartFormats count="1">
     <chartFormat chart="4" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
-        <item x="6"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="12"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="12"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -12723,7 +12719,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{015DAE7A-17B5-408F-80AF-68680B1C977B}" name="PivotTable3" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{015DAE7A-17B5-408F-80AF-68680B1C977B}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A38:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -17174,7 +17170,7 @@
   <dimension ref="A3:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17345,15 +17341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625428BA-622F-4059-9BDC-96508CD558EE}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -17805,10 +17801,6 @@
         <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2017)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J11">
-        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2018)</f>
-        <v>0</v>
-      </c>
       <c r="U11" t="s">
         <v>20</v>
       </c>
@@ -18411,10 +18403,6 @@
         <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2017)</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="J24">
-        <f>GETPIVOTDATA("ret",$A$3,"programs","resolve","ret",1,"YEAR(dt)",2018)</f>
-        <v>0</v>
-      </c>
       <c r="U24" t="s">
         <v>36</v>
       </c>
@@ -18950,13 +18938,13 @@
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="9">
+      <c r="B40">
         <v>3</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40">
         <v>4</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40">
         <v>7</v>
       </c>
       <c r="E40">
@@ -18999,13 +18987,13 @@
       <c r="A41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="9">
+      <c r="B41">
         <v>2</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41">
         <v>4</v>
       </c>
       <c r="E41">
@@ -19046,13 +19034,13 @@
       <c r="A42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="9">
+      <c r="B42">
         <v>3</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42">
         <v>5</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42">
         <v>8</v>
       </c>
       <c r="E42">
@@ -19095,13 +19083,13 @@
       <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B43">
         <v>3</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43">
         <v>3</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43">
         <v>6</v>
       </c>
       <c r="E43">
@@ -19136,13 +19124,13 @@
       <c r="A44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="9">
+      <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44">
         <v>3</v>
       </c>
       <c r="E44">
@@ -19177,13 +19165,13 @@
       <c r="A45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="9">
+      <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45">
         <v>2</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45">
         <v>3</v>
       </c>
       <c r="E45">
@@ -19218,13 +19206,13 @@
       <c r="A46" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B46" s="9">
+      <c r="B46">
         <v>2</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46">
         <v>4</v>
       </c>
       <c r="E46">
@@ -19259,21 +19247,16 @@
       <c r="A47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="9">
+      <c r="B47">
         <v>3</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9">
+      <c r="D47">
         <v>3</v>
       </c>
       <c r="E47">
         <f>GETPIVOTDATA("programs",$A$38,"programs","resolve","YEAR(dt)",2017)*I11</f>
         <v>1</v>
       </c>
-      <c r="F47">
-        <f>GETPIVOTDATA("programs",$A$38,"programs","resolve","YEAR(dt)",2018)*J11</f>
-        <v>0</v>
-      </c>
       <c r="U47" t="s">
         <v>63</v>
       </c>
@@ -19298,13 +19281,13 @@
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="9">
+      <c r="B48">
         <v>1</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48">
         <v>2</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48">
         <v>3</v>
       </c>
       <c r="E48">
@@ -19339,13 +19322,13 @@
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="9">
+      <c r="B49">
         <v>5</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49">
         <v>4</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49">
         <v>9</v>
       </c>
       <c r="E49">
@@ -19380,13 +19363,13 @@
       <c r="A50" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B50" s="9">
+      <c r="B50">
         <v>25</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50">
         <v>25</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50">
         <v>50</v>
       </c>
       <c r="U50" t="s">

--- a/case_study/roster_summer_final.xlsx
+++ b/case_study/roster_summer_final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_casestudy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csgorg-my.sharepoint.com/personal/jmallett_csg_org/Documents/GitProjects/va_data/case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2193EA2D-0076-439D-8452-D82E25F8B4FB}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{D021C4DC-C3A6-4C70-8087-F8BD10030BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0211746-24AE-4DF2-B2EA-DDC66C76F196}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="713" activeTab="7" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
+    <workbookView xWindow="735" yWindow="0" windowWidth="32025" windowHeight="21000" tabRatio="821" activeTab="8" xr2:uid="{49CF00D1-68CA-4DA7-9F84-7A2BC145D750}"/>
   </bookViews>
   <sheets>
     <sheet name="roster" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Session2 Task1" sheetId="8" r:id="rId6"/>
     <sheet name="Session2 Task2" sheetId="7" r:id="rId7"/>
     <sheet name="Session3" sheetId="10" r:id="rId8"/>
+    <sheet name="Descriptions" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">roster!$B$1</definedName>
@@ -28,13 +29,13 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="1" r:id="rId10"/>
-    <pivotCache cacheId="2" r:id="rId11"/>
-    <pivotCache cacheId="3" r:id="rId12"/>
-    <pivotCache cacheId="4" r:id="rId13"/>
-    <pivotCache cacheId="5" r:id="rId14"/>
-    <pivotCache cacheId="6" r:id="rId15"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="3" r:id="rId13"/>
+    <pivotCache cacheId="4" r:id="rId14"/>
+    <pivotCache cacheId="5" r:id="rId15"/>
+    <pivotCache cacheId="6" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="213">
   <si>
     <t>client_names</t>
   </si>
@@ -629,13 +630,76 @@
   </si>
   <si>
     <t>Weighted Average 5 programs (2018)</t>
+  </si>
+  <si>
+    <t>SHEET</t>
+  </si>
+  <si>
+    <t>SESSION</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>roster</t>
+  </si>
+  <si>
+    <t>Lab Task1 Explore</t>
+  </si>
+  <si>
+    <t>Lab Task1 Clean</t>
+  </si>
+  <si>
+    <t>Lab Task23</t>
+  </si>
+  <si>
+    <t>Session2 Task1</t>
+  </si>
+  <si>
+    <t>Session2 Task2</t>
+  </si>
+  <si>
+    <t>Session3</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>DESCRIPTION OF CONTENTS</t>
+  </si>
+  <si>
+    <t>raw roster dataset</t>
+  </si>
+  <si>
+    <t>raw staff dataset</t>
+  </si>
+  <si>
+    <t>breakouts of all dataset variables, plots of all variables</t>
+  </si>
+  <si>
+    <t>fully cleaned roster and staff datasets</t>
+  </si>
+  <si>
+    <t>table of recidivism rates and staffing for each program, and plot of recidivism rates by program</t>
+  </si>
+  <si>
+    <t>average recidivism rates pooled years (overall programs, and over just 5 CWC programs) UNWEIGHTED</t>
+  </si>
+  <si>
+    <t>average recidivism rates pooled years (overall programs, and over just 5 CWC programs) WEIGHTED</t>
+  </si>
+  <si>
+    <t>program recidivism rates by year, average recidivism rates across all programs by year, and over just 5 CWC programs by year WEIGHTED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +830,23 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1118,7 +1199,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -1136,6 +1217,8 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3191,7 +3274,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Recidivism Rate 2017-2018</a:t>
+              <a:t>Recidivism Rate </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Program Years 2017-2018</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3739,7 +3831,16 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Recidivism Rate 2017-2018</a:t>
+              <a:t>Recidivism Rate </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Program Years 2017-2018</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -11216,71 +11317,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="2">
-    <pivotField showAll="0"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField numFmtId="14" showAll="0">
+      <items count="48">
+        <item x="28"/>
+        <item x="43"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="40"/>
+        <item x="7"/>
+        <item x="27"/>
+        <item x="15"/>
+        <item x="24"/>
+        <item x="6"/>
+        <item x="44"/>
+        <item x="36"/>
+        <item x="41"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="33"/>
+        <item x="0"/>
+        <item x="45"/>
+        <item x="34"/>
+        <item x="38"/>
+        <item x="30"/>
+        <item x="17"/>
+        <item x="25"/>
+        <item x="22"/>
+        <item x="14"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="39"/>
+        <item x="18"/>
+        <item x="42"/>
+        <item x="1"/>
+        <item x="46"/>
+        <item x="35"/>
+        <item x="29"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="26"/>
+        <item x="16"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="23"/>
+        <item x="37"/>
+        <item x="12"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="15">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="7">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="14">
-        <item x="6"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="4"/>
-        <item x="10"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="9"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="12"/>
+      <items count="25">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
         <item t="default"/>
       </items>
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="1"/>
+    <field x="3"/>
   </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="5">
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i>
       <x v="11"/>
     </i>
     <i>
-      <x v="12"/>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
@@ -11290,23 +11456,14 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="3">
-    <format dxfId="28">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="1" count="1">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
+  <formats count="2">
     <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1">
-            <x v="8"/>
+          <reference field="3" count="1">
+            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -11314,15 +11471,15 @@
     <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="1">
-            <x v="12"/>
+          <reference field="3" count="1">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
     </format>
   </formats>
   <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
+    <chartFormat chart="4" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -11856,6 +12013,135 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711B3E10-221F-4BDF-B16C-A9E00C5425ED}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G3:H17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="14">
+        <item x="6"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of prg" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AF987B5F-D31F-42B0-B08A-18DFC95CC24D}" name="PivotTable10" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="D12:D13" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="5">
@@ -11886,7 +12172,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{64C769B9-9264-4FB6-BE0D-1932A5224F36}" name="PivotTable9" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -11935,7 +12221,7 @@
     <dataField name="Count of ret" fld="4" subtotal="count" baseField="4" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="31">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -11944,7 +12230,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -11953,7 +12239,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="1">
@@ -12004,7 +12290,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1837024C-55B8-4E16-ACBD-6396B821F302}" name="PivotTable8" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A11:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
@@ -12089,7 +12375,7 @@
     <dataField name="Count of programs" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="35">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12098,7 +12384,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12107,7 +12393,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12116,7 +12402,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="1">
@@ -12155,191 +12441,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="3" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3BE235AC-8D6C-4094-B02A-08825CA16888}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A29:B34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField numFmtId="14" showAll="0">
-      <items count="48">
-        <item x="28"/>
-        <item x="43"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="40"/>
-        <item x="7"/>
-        <item x="27"/>
-        <item x="15"/>
-        <item x="24"/>
-        <item x="6"/>
-        <item x="44"/>
-        <item x="36"/>
-        <item x="41"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="33"/>
-        <item x="0"/>
-        <item x="45"/>
-        <item x="34"/>
-        <item x="38"/>
-        <item x="30"/>
-        <item x="17"/>
-        <item x="25"/>
-        <item x="22"/>
-        <item x="14"/>
-        <item x="19"/>
-        <item x="5"/>
-        <item x="31"/>
-        <item x="39"/>
-        <item x="18"/>
-        <item x="42"/>
-        <item x="1"/>
-        <item x="46"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="26"/>
-        <item x="16"/>
-        <item x="3"/>
-        <item x="13"/>
-        <item x="23"/>
-        <item x="37"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="32"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="15">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="7">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="25">
-        <item sd="0" x="0"/>
-        <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
-        <item sd="0" x="14"/>
-        <item sd="0" x="15"/>
-        <item sd="0" x="16"/>
-        <item sd="0" x="17"/>
-        <item sd="0" x="18"/>
-        <item sd="0" x="19"/>
-        <item sd="0" x="20"/>
-        <item sd="0" x="21"/>
-        <item sd="0" x="22"/>
-        <item sd="0" x="23"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Years (dt)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="1">
-            <x v="11"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -13177,7 +13278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C7B43-D117-4E0E-9A2F-A221698C9E5D}">
   <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -15179,7 +15280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A311EE96-515E-4E71-AE25-43A4EF9BE97D}">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E51"/>
     </sheetView>
   </sheetViews>
@@ -17341,8 +17442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{625428BA-622F-4059-9BDC-96508CD558EE}">
   <dimension ref="A1:Z51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19420,4 +19521,151 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB0679F-8322-4CCB-8D88-54B00BFC00C9}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="123.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>